--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-19.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="I2" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
-        <v>6.6</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="G3" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="I3" t="n">
-        <v>2.56</v>
+        <v>2.32</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>6.4</v>
+        <v>3.95</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>3.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
         <v>1.89</v>
@@ -979,7 +979,7 @@
         <v>3.55</v>
       </c>
       <c r="T4" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U4" t="n">
         <v>2.16</v>
@@ -1021,7 +1021,7 @@
         <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI4" t="n">
         <v>980</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G5" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
         <v>3.5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G6" t="n">
         <v>5.3</v>
@@ -1216,10 +1216,10 @@
         <v>1.89</v>
       </c>
       <c r="I6" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
         <v>3.7</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
         <v>3.4</v>
@@ -1237,16 +1237,16 @@
         <v>1.37</v>
       </c>
       <c r="P6" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R6" t="n">
         <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T6" t="n">
         <v>1.98</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y6" t="n">
         <v>8.4</v>
@@ -1270,7 +1270,7 @@
         <v>11.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AB6" t="n">
         <v>16.5</v>
@@ -1282,19 +1282,19 @@
         <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AF6" t="n">
         <v>46</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
         <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ6" t="n">
         <v>150</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -1348,7 +1348,7 @@
         <v>2.62</v>
       </c>
       <c r="H7" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
         <v>3.05</v>
@@ -1522,7 +1522,7 @@
         <v>1.92</v>
       </c>
       <c r="U8" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>2.18</v>
       </c>
       <c r="U10" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
@@ -1915,7 +1915,7 @@
         <v>2.24</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1987,7 +1987,7 @@
         <v>980</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="12">
@@ -2026,7 +2026,7 @@
         <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J12" t="n">
         <v>3.4</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="n">
         <v>2</v>
@@ -2083,13 +2083,13 @@
         <v>120</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC12" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE12" t="n">
         <v>65</v>
@@ -2098,10 +2098,10 @@
         <v>13</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
         <v>80</v>
@@ -2110,7 +2110,7 @@
         <v>29</v>
       </c>
       <c r="AK12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
         <v>46</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="G13" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H13" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I13" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
         <v>3.65</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.67</v>
+        <v>1.89</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q14" t="n">
         <v>2.14</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U14" t="n">
         <v>1.98</v>
@@ -2377,7 +2377,7 @@
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK14" t="n">
         <v>1000</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G15" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="H15" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="I15" t="n">
-        <v>980</v>
+        <v>2.06</v>
       </c>
       <c r="J15" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
         <v>3.8</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.25</v>
+        <v>1.79</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.08</v>
+        <v>2.02</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2464,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="U15" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>15</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="Z15" t="n">
         <v>13.5</v>
@@ -2488,7 +2488,7 @@
         <v>26</v>
       </c>
       <c r="AB15" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC15" t="n">
         <v>9.4</v>
@@ -2521,10 +2521,10 @@
         <v>85</v>
       </c>
       <c r="AM15" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN15" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AO15" t="n">
         <v>18</v>
@@ -2584,7 +2584,7 @@
         <v>4.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P16" t="n">
         <v>2.2</v>
@@ -2596,7 +2596,7 @@
         <v>1.47</v>
       </c>
       <c r="S16" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T16" t="n">
         <v>1.66</v>
@@ -2641,7 +2641,7 @@
         <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI16" t="n">
         <v>36</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G17" t="n">
         <v>2.9</v>
@@ -2830,7 +2830,7 @@
         <v>1.67</v>
       </c>
       <c r="G18" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="H18" t="n">
         <v>5.6</v>
@@ -2839,7 +2839,7 @@
         <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K18" t="n">
         <v>4.4</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G19" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H19" t="n">
         <v>3.25</v>
       </c>
       <c r="I19" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J19" t="n">
         <v>3.35</v>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -3004,11 +3004,11 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U19" t="n">
         <v>1.94</v>
       </c>
-      <c r="U19" t="n">
-        <v>1.92</v>
-      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
@@ -3016,58 +3016,58 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG19" t="n">
         <v>12</v>
       </c>
-      <c r="Y19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z19" t="n">
+      <c r="AH19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN19" t="n">
         <v>29</v>
       </c>
-      <c r="AA19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>40</v>
-      </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -3256,7 +3256,7 @@
         <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="O21" t="n">
         <v>1.47</v>
@@ -3289,7 +3289,7 @@
         <v>980</v>
       </c>
       <c r="Y21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z21" t="n">
         <v>1000</v>
@@ -3310,7 +3310,7 @@
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-19.xlsx
@@ -670,10 +670,10 @@
         <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="H2" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="I2" t="n">
         <v>2.14</v>
@@ -700,7 +700,7 @@
         <v>1.86</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>2.06</v>
       </c>
       <c r="I3" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="J3" t="n">
         <v>3.35</v>
@@ -997,7 +997,7 @@
         <v>13.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AA4" t="n">
         <v>65</v>
@@ -1024,7 +1024,7 @@
         <v>18.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AJ4" t="n">
         <v>980</v>
@@ -1033,7 +1033,7 @@
         <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="n">
         <v>120</v>
@@ -1042,7 +1042,7 @@
         <v>980</v>
       </c>
       <c r="AO4" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G5" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I5" t="n">
         <v>3.35</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.4</v>
       </c>
       <c r="J5" t="n">
         <v>3.5</v>
@@ -1099,25 +1099,25 @@
         <v>3.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
         <v>1.94</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="R5" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S5" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T5" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1141,34 +1141,34 @@
         <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD5" t="n">
         <v>970</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM5" t="n">
         <v>120</v>
@@ -1177,7 +1177,7 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -1213,7 +1213,7 @@
         <v>5.3</v>
       </c>
       <c r="H6" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="I6" t="n">
         <v>1.9</v>
@@ -1270,7 +1270,7 @@
         <v>11.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AB6" t="n">
         <v>16.5</v>
@@ -1282,28 +1282,28 @@
         <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AF6" t="n">
         <v>46</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AH6" t="n">
         <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ6" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM6" t="n">
         <v>170</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="G7" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J7" t="n">
         <v>3.5</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q7" t="n">
         <v>1.96</v>
@@ -1477,28 +1477,28 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="G8" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="H8" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="I8" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="Q8" t="n">
         <v>1.81</v>
@@ -1519,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U8" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y8" t="n">
         <v>9.199999999999999</v>
@@ -1540,13 +1540,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
         <v>11</v>
@@ -1555,10 +1555,10 @@
         <v>17.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AG8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH8" t="n">
         <v>24</v>
@@ -1567,22 +1567,22 @@
         <v>40</v>
       </c>
       <c r="AJ8" t="n">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="AK8" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AL8" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AM8" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AO8" t="n">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1645,7 +1645,7 @@
         <v>2.14</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
         <v>15.5</v>
@@ -1675,10 +1675,10 @@
         <v>980</v>
       </c>
       <c r="AA9" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AB9" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
         <v>8.6</v>
@@ -1888,10 +1888,10 @@
         <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="I11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="J11" t="n">
         <v>3.9</v>
@@ -2026,7 +2026,7 @@
         <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J12" t="n">
         <v>3.4</v>
@@ -2104,7 +2104,7 @@
         <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="n">
         <v>29</v>
@@ -2116,13 +2116,13 @@
         <v>46</v>
       </c>
       <c r="AM12" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
         <v>16.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -2155,7 +2155,7 @@
         <v>3.5</v>
       </c>
       <c r="G13" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H13" t="n">
         <v>2.14</v>
@@ -2164,7 +2164,7 @@
         <v>2.26</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
         <v>3.65</v>
@@ -2227,7 +2227,7 @@
         <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF13" t="n">
         <v>30</v>
@@ -2254,10 +2254,10 @@
         <v>110</v>
       </c>
       <c r="AN13" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G14" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H14" t="n">
         <v>1.99</v>
       </c>
       <c r="I14" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
         <v>3.6</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q14" t="n">
         <v>2.14</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
         <v>8.4</v>
@@ -2425,10 +2425,10 @@
         <v>4.4</v>
       </c>
       <c r="G15" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="H15" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="I15" t="n">
         <v>2.06</v>
@@ -2491,7 +2491,7 @@
         <v>17.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD15" t="n">
         <v>12</v>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G16" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H16" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="I16" t="n">
         <v>2.28</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Y16" t="n">
         <v>12.5</v>
@@ -2623,7 +2623,7 @@
         <v>46</v>
       </c>
       <c r="AB16" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC16" t="n">
         <v>8.800000000000001</v>
@@ -2635,7 +2635,7 @@
         <v>23</v>
       </c>
       <c r="AF16" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AG16" t="n">
         <v>15</v>
@@ -2698,10 +2698,10 @@
         <v>2.9</v>
       </c>
       <c r="H17" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="I17" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="J17" t="n">
         <v>3.4</v>
@@ -2869,7 +2869,7 @@
         <v>3.05</v>
       </c>
       <c r="T18" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U18" t="n">
         <v>2.12</v>
@@ -2914,7 +2914,7 @@
         <v>20</v>
       </c>
       <c r="AI18" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
         <v>17.5</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="G19" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="H19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I19" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.45</v>
       </c>
       <c r="J19" t="n">
         <v>3.35</v>
       </c>
       <c r="K19" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="U19" t="n">
         <v>1.94</v>
@@ -3019,55 +3019,55 @@
         <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA19" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC19" t="n">
         <v>7.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AF19" t="n">
         <v>15.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
         <v>70</v>
       </c>
       <c r="AJ19" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN19" t="n">
         <v>32</v>
       </c>
-      <c r="AL19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>29</v>
-      </c>
       <c r="AO19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -3256,7 +3256,7 @@
         <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O21" t="n">
         <v>1.47</v>
@@ -3271,10 +3271,10 @@
         <v>1.22</v>
       </c>
       <c r="S21" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T21" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U21" t="n">
         <v>1.87</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-19.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="G2" t="n">
         <v>5.3</v>
       </c>
       <c r="H2" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="I2" t="n">
         <v>2.14</v>
@@ -700,7 +700,7 @@
         <v>1.86</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>2.06</v>
       </c>
       <c r="I3" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="J3" t="n">
         <v>3.35</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q3" t="n">
         <v>1.9</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G4" t="n">
         <v>2.32</v>
       </c>
-      <c r="G4" t="n">
-        <v>2.38</v>
-      </c>
       <c r="H4" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.45</v>
       </c>
       <c r="K4" t="n">
         <v>3.55</v>
@@ -1021,7 +1021,7 @@
         <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
         <v>60</v>
@@ -1078,7 +1078,7 @@
         <v>2.44</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
         <v>3.35</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
         <v>3.7</v>
@@ -1105,7 +1105,7 @@
         <v>1.94</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R5" t="n">
         <v>1.35</v>
@@ -1114,7 +1114,7 @@
         <v>3.65</v>
       </c>
       <c r="T5" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U5" t="n">
         <v>2.14</v>
@@ -1144,19 +1144,19 @@
         <v>7.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AE5" t="n">
         <v>40</v>
       </c>
       <c r="AF5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG5" t="n">
         <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI5" t="n">
         <v>55</v>
@@ -1174,7 +1174,7 @@
         <v>120</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO5" t="n">
         <v>38</v>
@@ -1222,7 +1222,7 @@
         <v>3.55</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
         <v>1.78</v>
@@ -1288,7 +1288,7 @@
         <v>46</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
         <v>1000</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J7" t="n">
         <v>3.5</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="Q7" t="n">
         <v>1.96</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G8" t="n">
         <v>6.2</v>
       </c>
-      <c r="G8" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H8" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="I8" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="J8" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1519,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="U8" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="n">
         <v>17.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
         <v>10</v>
@@ -1552,13 +1552,13 @@
         <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
         <v>55</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH8" t="n">
         <v>24</v>
@@ -1567,10 +1567,10 @@
         <v>40</v>
       </c>
       <c r="AJ8" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AK8" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AL8" t="n">
         <v>90</v>
@@ -1579,7 +1579,7 @@
         <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AO8" t="n">
         <v>9.800000000000001</v>
@@ -1618,16 +1618,16 @@
         <v>2.62</v>
       </c>
       <c r="H9" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I9" t="n">
         <v>3.25</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
         <v>980</v>
@@ -1678,7 +1678,7 @@
         <v>980</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC9" t="n">
         <v>8.6</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="G10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="I10" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="J10" t="n">
         <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AG10" t="n">
         <v>980</v>
@@ -1888,13 +1888,13 @@
         <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="I11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="J11" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K11" t="n">
         <v>4.3</v>
@@ -2026,7 +2026,7 @@
         <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="J12" t="n">
         <v>3.4</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="Q12" t="n">
         <v>2.04</v>
@@ -2062,7 +2062,7 @@
         <v>1.8</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM12" t="n">
         <v>130</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G13" t="n">
         <v>3.85</v>
       </c>
       <c r="H13" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
         <v>3.65</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="Q13" t="n">
         <v>1.89</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
         <v>11.5</v>
@@ -2287,28 +2287,28 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G14" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I14" t="n">
         <v>1.99</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
       </c>
       <c r="J14" t="n">
         <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="U14" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,40 +2341,40 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB14" t="n">
         <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
         <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF14" t="n">
         <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ14" t="n">
         <v>120</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="G15" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="H15" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="I15" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
         <v>3.8</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2464,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U15" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2482,52 +2482,52 @@
         <v>8.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AB15" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
         <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF15" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH15" t="n">
         <v>24</v>
       </c>
       <c r="AI15" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ15" t="n">
         <v>140</v>
       </c>
       <c r="AK15" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL15" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM15" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN15" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AO15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H16" t="n">
         <v>2.2</v>
       </c>
       <c r="I16" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J16" t="n">
         <v>3.7</v>
@@ -2602,7 +2602,7 @@
         <v>1.66</v>
       </c>
       <c r="U16" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2641,7 +2641,7 @@
         <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI16" t="n">
         <v>36</v>
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H17" t="n">
         <v>2.78</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q17" t="n">
         <v>2.06</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U17" t="n">
         <v>2.14</v>
@@ -2788,7 +2788,7 @@
         <v>36</v>
       </c>
       <c r="AL17" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G18" t="n">
         <v>1.7</v>
@@ -2869,7 +2869,7 @@
         <v>3.05</v>
       </c>
       <c r="T18" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U18" t="n">
         <v>2.12</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G19" t="n">
         <v>2.58</v>
@@ -2974,7 +2974,7 @@
         <v>3.25</v>
       </c>
       <c r="J19" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K19" t="n">
         <v>3.4</v>
@@ -3025,19 +3025,19 @@
         <v>21</v>
       </c>
       <c r="AA19" t="n">
-        <v>65</v>
+        <v>390</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD19" t="n">
         <v>14.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AF19" t="n">
         <v>15.5</v>
@@ -3067,7 +3067,7 @@
         <v>32</v>
       </c>
       <c r="AO19" t="n">
-        <v>55</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
@@ -3256,13 +3256,13 @@
         <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="O21" t="n">
         <v>1.47</v>
       </c>
       <c r="P21" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q21" t="n">
         <v>2.4</v>
@@ -3277,7 +3277,7 @@
         <v>1.97</v>
       </c>
       <c r="U21" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V21" t="n">
         <v>1.4</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-19.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>5.3</v>
       </c>
       <c r="H2" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="I2" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
@@ -700,7 +700,7 @@
         <v>1.86</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I3" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
         <v>3.95</v>
@@ -940,16 +940,16 @@
         <v>2.3</v>
       </c>
       <c r="G4" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H4" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
         <v>3.55</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
         <v>3.55</v>
@@ -961,13 +961,13 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q4" t="n">
         <v>1.98</v>
@@ -991,13 +991,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AA4" t="n">
         <v>65</v>
@@ -1015,16 +1015,16 @@
         <v>48</v>
       </c>
       <c r="AF4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG4" t="n">
         <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI4" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AJ4" t="n">
         <v>980</v>
@@ -1033,16 +1033,16 @@
         <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM4" t="n">
         <v>120</v>
       </c>
       <c r="AN4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO4" t="n">
         <v>980</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G5" t="n">
         <v>2.4</v>
       </c>
-      <c r="G5" t="n">
-        <v>2.44</v>
-      </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I5" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="J5" t="n">
         <v>3.5</v>
@@ -1132,13 +1132,13 @@
         <v>12.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC5" t="n">
         <v>7.8</v>
@@ -1147,10 +1147,10 @@
         <v>14.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG5" t="n">
         <v>11.5</v>
@@ -1174,10 +1174,10 @@
         <v>120</v>
       </c>
       <c r="AN5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO5" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -1210,16 +1210,16 @@
         <v>4.9</v>
       </c>
       <c r="G6" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H6" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="I6" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="J6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
         <v>3.75</v>
@@ -1243,7 +1243,7 @@
         <v>2.14</v>
       </c>
       <c r="R6" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S6" t="n">
         <v>4.1</v>
@@ -1264,19 +1264,19 @@
         <v>12.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z6" t="n">
         <v>11.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AB6" t="n">
         <v>16.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
         <v>10.5</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G7" t="n">
         <v>2.6</v>
       </c>
-      <c r="G7" t="n">
-        <v>2.66</v>
-      </c>
       <c r="H7" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J7" t="n">
         <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="G8" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J8" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K8" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="U8" t="n">
         <v>1.98</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
         <v>9.199999999999999</v>
@@ -1543,10 +1543,10 @@
         <v>17.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
         <v>11</v>
@@ -1555,22 +1555,22 @@
         <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AH8" t="n">
         <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AJ8" t="n">
         <v>190</v>
       </c>
       <c r="AK8" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AL8" t="n">
         <v>90</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="G9" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J9" t="n">
         <v>3.5</v>
@@ -1645,7 +1645,7 @@
         <v>2.12</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U9" t="n">
         <v>2.32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
         <v>1000</v>
@@ -1753,7 +1753,7 @@
         <v>12.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="I10" t="n">
         <v>1.39</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H11" t="n">
         <v>2.02</v>
@@ -1894,7 +1894,7 @@
         <v>2.08</v>
       </c>
       <c r="J11" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K11" t="n">
         <v>4.3</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q11" t="n">
         <v>1.64</v>
@@ -1942,7 +1942,7 @@
         <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
         <v>980</v>
@@ -1960,7 +1960,7 @@
         <v>980</v>
       </c>
       <c r="AF11" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AG11" t="n">
         <v>1000</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G12" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>4.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
         <v>3.75</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U12" t="n">
         <v>2.02</v>
@@ -2074,22 +2074,22 @@
         <v>14.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z12" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AA12" t="n">
         <v>120</v>
       </c>
       <c r="AB12" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AE12" t="n">
         <v>65</v>
@@ -2101,19 +2101,19 @@
         <v>11</v>
       </c>
       <c r="AH12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK12" t="n">
         <v>23</v>
       </c>
-      <c r="AI12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>26</v>
-      </c>
       <c r="AL12" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM12" t="n">
         <v>130</v>
@@ -2122,7 +2122,7 @@
         <v>16.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -2155,7 +2155,7 @@
         <v>3.45</v>
       </c>
       <c r="G13" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H13" t="n">
         <v>2.2</v>
@@ -2245,7 +2245,7 @@
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
         <v>60</v>
@@ -2293,13 +2293,13 @@
         <v>4.7</v>
       </c>
       <c r="H14" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="I14" t="n">
         <v>1.99</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
         <v>3.65</v>
@@ -2320,7 +2320,7 @@
         <v>1.76</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="U14" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2344,7 +2344,7 @@
         <v>12.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.8</v>
+        <v>9.4</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
@@ -2353,10 +2353,10 @@
         <v>34</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD14" t="n">
         <v>1000</v>
@@ -2365,7 +2365,7 @@
         <v>29</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG14" t="n">
         <v>24</v>
@@ -2374,7 +2374,7 @@
         <v>25</v>
       </c>
       <c r="AI14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ14" t="n">
         <v>120</v>
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="G15" t="n">
         <v>5.4</v>
       </c>
       <c r="H15" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="I15" t="n">
         <v>1.96</v>
@@ -2455,7 +2455,7 @@
         <v>1.81</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2464,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U15" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2515,16 +2515,16 @@
         <v>140</v>
       </c>
       <c r="AK15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL15" t="n">
         <v>85</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>90</v>
       </c>
       <c r="AM15" t="n">
         <v>140</v>
       </c>
       <c r="AN15" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AO15" t="n">
         <v>16</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G16" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H16" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I16" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="J16" t="n">
         <v>3.7</v>
@@ -2581,7 +2581,7 @@
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O16" t="n">
         <v>1.26</v>
@@ -2602,7 +2602,7 @@
         <v>1.66</v>
       </c>
       <c r="U16" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="Y16" t="n">
         <v>12.5</v>
@@ -2647,7 +2647,7 @@
         <v>36</v>
       </c>
       <c r="AJ16" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
         <v>70</v>
@@ -2776,7 +2776,7 @@
         <v>13.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI17" t="n">
         <v>160</v>
@@ -2785,7 +2785,7 @@
         <v>120</v>
       </c>
       <c r="AK17" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AL17" t="n">
         <v>160</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="G18" t="n">
         <v>1.7</v>
@@ -2965,13 +2965,13 @@
         <v>2.56</v>
       </c>
       <c r="G19" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="H19" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J19" t="n">
         <v>3.3</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q19" t="n">
         <v>2.34</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="U19" t="n">
         <v>1.94</v>
@@ -3025,7 +3025,7 @@
         <v>21</v>
       </c>
       <c r="AA19" t="n">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="AB19" t="n">
         <v>9</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q20" t="n">
         <v>1.01</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="G21" t="n">
         <v>2.74</v>
@@ -3250,7 +3250,7 @@
         <v>3.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M21" t="n">
         <v>1.11</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-19.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="G2" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="I2" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="J2" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P2" t="n">
-        <v>1.86</v>
+        <v>1.32</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>1.32</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>4.5</v>
+        <v>980</v>
       </c>
       <c r="H3" t="n">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>2.3</v>
+        <v>980</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>1.01</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>980</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G4" t="n">
         <v>2.34</v>
@@ -961,16 +961,16 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R4" t="n">
         <v>1.35</v>
@@ -982,7 +982,7 @@
         <v>1.79</v>
       </c>
       <c r="U4" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
         <v>13</v>
@@ -1009,10 +1009,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF4" t="n">
         <v>15.5</v>
@@ -1036,7 +1036,7 @@
         <v>980</v>
       </c>
       <c r="AM4" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
         <v>21</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G5" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H5" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
         <v>3.5</v>
@@ -1099,13 +1099,13 @@
         <v>3.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
         <v>1.94</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="R5" t="n">
         <v>1.35</v>
@@ -1114,10 +1114,10 @@
         <v>3.65</v>
       </c>
       <c r="T5" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="U5" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1129,55 +1129,55 @@
         <v>14</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
         <v>7.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AL5" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="G6" t="n">
         <v>5.2</v>
@@ -1216,19 +1216,19 @@
         <v>1.89</v>
       </c>
       <c r="I6" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="J6" t="n">
         <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
         <v>3.4</v>
@@ -1237,13 +1237,13 @@
         <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R6" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
         <v>4.1</v>
@@ -1267,19 +1267,19 @@
         <v>8.199999999999999</v>
       </c>
       <c r="Z6" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AB6" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
         <v>28</v>
@@ -1288,31 +1288,31 @@
         <v>46</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI6" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -1477,28 +1477,28 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="G8" t="n">
         <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="J8" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1519,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.84</v>
+        <v>1.05</v>
       </c>
       <c r="U8" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
         <v>22</v>
@@ -1549,7 +1549,7 @@
         <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
@@ -1582,7 +1582,7 @@
         <v>120</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1624,7 +1624,7 @@
         <v>3.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
         <v>3.65</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>2.12</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U9" t="n">
         <v>2.32</v>
@@ -1678,10 +1678,10 @@
         <v>980</v>
       </c>
       <c r="AB9" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1690,7 +1690,7 @@
         <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG9" t="n">
         <v>1000</v>
@@ -1711,13 +1711,13 @@
         <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="n">
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="H10" t="n">
         <v>1.37</v>
@@ -1771,28 +1771,28 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>1.33</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P10" t="n">
-        <v>2.04</v>
+        <v>1.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.76</v>
+        <v>1.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>1.02</v>
       </c>
       <c r="T10" t="n">
-        <v>2.18</v>
+        <v>1.05</v>
       </c>
       <c r="U10" t="n">
-        <v>1.73</v>
+        <v>1.05</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1804,19 +1804,19 @@
         <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AB10" t="n">
         <v>980</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
@@ -1825,7 +1825,7 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AG10" t="n">
         <v>980</v>
@@ -1843,16 +1843,16 @@
         <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN10" t="n">
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="11">
@@ -1882,52 +1882,52 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="G11" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="H11" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="I11" t="n">
         <v>2.08</v>
       </c>
       <c r="J11" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.05</v>
       </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.6</v>
-      </c>
       <c r="U11" t="n">
-        <v>2.36</v>
+        <v>1.05</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
         <v>1000</v>
@@ -1945,22 +1945,22 @@
         <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
         <v>1000</v>
@@ -1969,13 +1969,13 @@
         <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
         <v>1000</v>
@@ -1984,10 +1984,10 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2020,16 +2020,16 @@
         <v>1.92</v>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I12" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
         <v>3.75</v>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="Q12" t="n">
         <v>2.04</v>
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="n">
-        <v>2.02</v>
+        <v>1.05</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,58 +2071,58 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
         <v>980</v>
       </c>
       <c r="AA12" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
         <v>65</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL12" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM12" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2155,13 +2155,13 @@
         <v>3.45</v>
       </c>
       <c r="G13" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H13" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="I13" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J13" t="n">
         <v>3.5</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.96</v>
+        <v>1.66</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.89</v>
+        <v>1.37</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2206,40 +2206,40 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AA13" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AB13" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AG13" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
@@ -2248,16 +2248,16 @@
         <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO13" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
@@ -2287,28 +2287,28 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G14" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="H14" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="I14" t="n">
         <v>1.97</v>
       </c>
-      <c r="I14" t="n">
-        <v>1.99</v>
-      </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K14" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>1.76</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.96</v>
+        <v>1.05</v>
       </c>
       <c r="U14" t="n">
-        <v>1.92</v>
+        <v>1.05</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,43 +2341,43 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA14" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB14" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
         <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF14" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AI14" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
         <v>1000</v>
@@ -2386,13 +2386,13 @@
         <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
         <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="G15" t="n">
-        <v>5.4</v>
+        <v>6.8</v>
       </c>
       <c r="H15" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="I15" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="K15" t="n">
         <v>3.8</v>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.81</v>
+        <v>1.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2464,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.87</v>
+        <v>1.05</v>
       </c>
       <c r="U15" t="n">
-        <v>1.92</v>
+        <v>1.05</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2476,58 +2476,58 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y15" t="n">
         <v>8.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AB15" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AF15" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH15" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AJ15" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AM15" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -2566,7 +2566,7 @@
         <v>2.22</v>
       </c>
       <c r="I16" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J16" t="n">
         <v>3.7</v>
@@ -2590,13 +2590,13 @@
         <v>2.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R16" t="n">
         <v>1.47</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T16" t="n">
         <v>1.66</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="Y16" t="n">
         <v>12.5</v>
@@ -2641,25 +2641,25 @@
         <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>840</v>
       </c>
       <c r="AK16" t="n">
         <v>70</v>
       </c>
       <c r="AL16" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AM16" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AO16" t="n">
         <v>14</v>
@@ -2707,7 +2707,7 @@
         <v>3.4</v>
       </c>
       <c r="K17" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U17" t="n">
         <v>2.14</v>
@@ -2746,10 +2746,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z17" t="n">
         <v>18.5</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G18" t="n">
         <v>1.7</v>
       </c>
       <c r="H18" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I18" t="n">
         <v>6</v>
@@ -2851,7 +2851,7 @@
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O18" t="n">
         <v>1.28</v>
@@ -2863,13 +2863,13 @@
         <v>1.81</v>
       </c>
       <c r="R18" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="S18" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T18" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U18" t="n">
         <v>2.12</v>
@@ -2884,7 +2884,7 @@
         <v>18</v>
       </c>
       <c r="Y18" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Z18" t="n">
         <v>130</v>
@@ -2896,10 +2896,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
@@ -2911,25 +2911,25 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AK18" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL18" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2977,13 +2977,13 @@
         <v>3.3</v>
       </c>
       <c r="K19" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="U19" t="n">
         <v>1.94</v>
@@ -3019,13 +3019,13 @@
         <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z19" t="n">
         <v>21</v>
       </c>
       <c r="AA19" t="n">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AB19" t="n">
         <v>9</v>
@@ -3049,10 +3049,10 @@
         <v>20</v>
       </c>
       <c r="AI19" t="n">
-        <v>70</v>
+        <v>990</v>
       </c>
       <c r="AJ19" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AK19" t="n">
         <v>34</v>
@@ -3232,64 +3232,64 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="G21" t="n">
-        <v>2.74</v>
+        <v>2.98</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="I21" t="n">
         <v>3.5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="K21" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L21" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
         <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>2.84</v>
+        <v>1.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P21" t="n">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.4</v>
+        <v>1.46</v>
       </c>
       <c r="R21" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S21" t="n">
-        <v>4.6</v>
+        <v>1.05</v>
       </c>
       <c r="T21" t="n">
-        <v>1.97</v>
+        <v>1.05</v>
       </c>
       <c r="U21" t="n">
-        <v>1.89</v>
+        <v>1.05</v>
       </c>
       <c r="V21" t="n">
         <v>1.4</v>
       </c>
       <c r="W21" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="X21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
         <v>1000</v>
@@ -3298,10 +3298,10 @@
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
         <v>1000</v>
@@ -3331,7 +3331,7 @@
         <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AO22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,97 +670,97 @@
         <v>3.95</v>
       </c>
       <c r="G2" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="H2" t="n">
         <v>1.91</v>
       </c>
       <c r="I2" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>1.27</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.32</v>
+        <v>1.86</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.32</v>
+        <v>1.96</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="T2" t="n">
-        <v>1.05</v>
+        <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>1.05</v>
+        <v>2.02</v>
       </c>
       <c r="V2" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="W2" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -772,13 +772,13 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>FC Voluntari</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>CSA Steaua Bucuresti</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
         <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L3" t="n">
         <v>1.01</v>
       </c>
-      <c r="K3" t="n">
-        <v>980</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P3" t="n">
-        <v>1.89</v>
+        <v>1.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.36</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.28</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>2.34</v>
+        <v>980</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>3.55</v>
+        <v>980</v>
       </c>
       <c r="J4" t="n">
-        <v>3.45</v>
+        <v>1.01</v>
       </c>
       <c r="K4" t="n">
-        <v>3.55</v>
+        <v>980</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>3.5</v>
+        <v>1.89</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
         <v>1.89</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
-        <v>1.35</v>
+        <v>1.08</v>
       </c>
       <c r="S4" t="n">
-        <v>3.55</v>
+        <v>1.95</v>
       </c>
       <c r="T4" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="G5" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="J5" t="n">
         <v>3.5</v>
@@ -1093,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
         <v>1.35</v>
@@ -1114,10 +1114,10 @@
         <v>3.65</v>
       </c>
       <c r="T5" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,58 +1126,58 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y5" t="n">
         <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB5" t="n">
         <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG5" t="n">
         <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK5" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -1198,31 +1198,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.8</v>
+        <v>2.38</v>
       </c>
       <c r="G6" t="n">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.89</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>1.91</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
         <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1231,29 +1231,29 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O6" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="Q6" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U6" t="n">
         <v>2.16</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.92</v>
-      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
@@ -1261,58 +1261,58 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="Z6" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AA6" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="n">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="AF6" t="n">
-        <v>46</v>
+        <v>17.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO6" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -1333,61 +1333,61 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.56</v>
+        <v>4.9</v>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>5.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>1.89</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>1.91</v>
       </c>
       <c r="J7" t="n">
         <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P7" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.97</v>
+        <v>2.16</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,64 +1396,64 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,37 +1468,37 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.5</v>
+        <v>2.56</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1.69</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>1.71</v>
+        <v>3.05</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1519,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,58 +1531,58 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1603,37 +1603,37 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.4</v>
+        <v>5.7</v>
       </c>
       <c r="G9" t="n">
-        <v>2.6</v>
+        <v>6.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.94</v>
+        <v>1.64</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>1.69</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.65</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.5</v>
+        <v>1.86</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.66</v>
+        <v>1.84</v>
       </c>
       <c r="U9" t="n">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,58 +1666,58 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AA9" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AB9" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH9" t="n">
         <v>22</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>1000</v>
       </c>
       <c r="AI9" t="n">
         <v>980</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO9" t="n">
-        <v>36</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="10">
@@ -1738,61 +1738,61 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9.800000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="G10" t="n">
-        <v>13</v>
+        <v>2.6</v>
       </c>
       <c r="H10" t="n">
-        <v>1.37</v>
+        <v>2.94</v>
       </c>
       <c r="I10" t="n">
-        <v>1.39</v>
+        <v>3.2</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>5.6</v>
+        <v>3.65</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.33</v>
+        <v>1.94</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.25</v>
+        <v>1.89</v>
       </c>
       <c r="R10" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.05</v>
+        <v>1.71</v>
       </c>
       <c r="U10" t="n">
-        <v>1.05</v>
+        <v>2.32</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,58 +1801,58 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="Z10" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AB10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE10" t="n">
         <v>980</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AF10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG10" t="n">
         <v>13.5</v>
       </c>
-      <c r="AD10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>980</v>
-      </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
         <v>980</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL10" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1873,61 +1873,61 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.7</v>
+        <v>9.6</v>
       </c>
       <c r="G11" t="n">
+        <v>12</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N11" t="n">
         <v>3.95</v>
       </c>
-      <c r="H11" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>1.25</v>
+        <v>2.06</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.05</v>
+        <v>2.16</v>
       </c>
       <c r="U11" t="n">
-        <v>1.05</v>
+        <v>1.71</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC11" t="n">
         <v>1000</v>
@@ -1960,16 +1960,16 @@
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
@@ -1978,7 +1978,7 @@
         <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="12">
@@ -2003,42 +2003,42 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.92</v>
+        <v>3.7</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="H12" t="n">
-        <v>4.3</v>
+        <v>2.04</v>
       </c>
       <c r="I12" t="n">
-        <v>5.1</v>
+        <v>2.08</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="K12" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.71</v>
+        <v>2.22</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.04</v>
+        <v>1.57</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="U12" t="n">
-        <v>1.05</v>
+        <v>2.36</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,58 +2071,58 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI12" t="n">
         <v>980</v>
       </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
         <v>980</v>
       </c>
       <c r="AL12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN12" t="n">
         <v>980</v>
       </c>
-      <c r="AM12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="13">
@@ -2143,37 +2143,37 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.45</v>
+        <v>1.93</v>
       </c>
       <c r="G13" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.75</v>
       </c>
-      <c r="H13" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.37</v>
+        <v>2.04</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2194,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="U13" t="n">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,58 +2206,58 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="Z13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD13" t="n">
         <v>19</v>
       </c>
-      <c r="AA13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC13" t="n">
+      <c r="AE13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG13" t="n">
         <v>11</v>
       </c>
-      <c r="AD13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG13" t="n">
+      <c r="AH13" t="n">
         <v>20</v>
       </c>
-      <c r="AH13" t="n">
-        <v>23</v>
-      </c>
       <c r="AI13" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>55</v>
+        <v>18.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -2278,31 +2278,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G14" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="H14" t="n">
-        <v>1.94</v>
+        <v>2.16</v>
       </c>
       <c r="I14" t="n">
-        <v>1.97</v>
+        <v>2.28</v>
       </c>
       <c r="J14" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,23 +2317,23 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.76</v>
+        <v>1.96</v>
       </c>
       <c r="Q14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U14" t="n">
         <v>2.16</v>
       </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.05</v>
-      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
@@ -2341,58 +2341,58 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z14" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AB14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO14" t="n">
         <v>19</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -2413,37 +2413,37 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>KF Drita</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>4.4</v>
       </c>
       <c r="G15" t="n">
-        <v>6.8</v>
+        <v>4.6</v>
       </c>
       <c r="H15" t="n">
-        <v>1.72</v>
+        <v>1.96</v>
       </c>
       <c r="I15" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="J15" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.25</v>
+        <v>1.76</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.43</v>
+        <v>2.16</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2464,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.05</v>
+        <v>1.92</v>
       </c>
       <c r="U15" t="n">
-        <v>1.05</v>
+        <v>1.94</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2476,64 +2476,64 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AA15" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF15" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL15" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN15" t="n">
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,28 +2548,28 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>KF Drita</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="G16" t="n">
-        <v>3.55</v>
+        <v>5.4</v>
       </c>
       <c r="H16" t="n">
-        <v>2.22</v>
+        <v>1.83</v>
       </c>
       <c r="I16" t="n">
-        <v>2.28</v>
+        <v>1.95</v>
       </c>
       <c r="J16" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="K16" t="n">
         <v>3.8</v>
@@ -2578,31 +2578,31 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="U16" t="n">
-        <v>2.4</v>
+        <v>1.94</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2611,58 +2611,58 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA16" t="n">
         <v>24</v>
       </c>
-      <c r="Y16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>46</v>
-      </c>
       <c r="AB16" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC16" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG16" t="n">
         <v>23</v>
       </c>
-      <c r="AF16" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>15</v>
-      </c>
       <c r="AH16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>140</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO16" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>840</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -2683,61 +2683,61 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="G17" t="n">
-        <v>2.88</v>
+        <v>3.55</v>
       </c>
       <c r="H17" t="n">
-        <v>2.78</v>
+        <v>2.22</v>
       </c>
       <c r="I17" t="n">
-        <v>2.84</v>
+        <v>2.28</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>1.88</v>
+        <v>2.22</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="T17" t="n">
-        <v>1.79</v>
+        <v>1.66</v>
       </c>
       <c r="U17" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2746,58 +2746,58 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>950</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>990</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO17" t="n">
         <v>14</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>160</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -2818,61 +2818,61 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.68</v>
+        <v>2.82</v>
       </c>
       <c r="G18" t="n">
-        <v>1.7</v>
+        <v>2.88</v>
       </c>
       <c r="H18" t="n">
-        <v>5.7</v>
+        <v>2.78</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>2.84</v>
       </c>
       <c r="J18" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="K18" t="n">
-        <v>4.4</v>
+        <v>3.45</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.14</v>
+        <v>1.89</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="R18" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="U18" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,58 +2881,58 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH18" t="n">
         <v>18</v>
       </c>
-      <c r="Y18" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>23</v>
-      </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ18" t="n">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="AK18" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AL18" t="n">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>9.800000000000001</v>
+        <v>48</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -2953,61 +2953,61 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.56</v>
+        <v>1.68</v>
       </c>
       <c r="G19" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2</v>
+        <v>5.6</v>
       </c>
       <c r="I19" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="K19" t="n">
-        <v>3.35</v>
+        <v>4.4</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>1.68</v>
+        <v>2.14</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.34</v>
+        <v>1.81</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="U19" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3016,64 +3016,64 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Y19" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Z19" t="n">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="AA19" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH19" t="n">
         <v>20</v>
       </c>
       <c r="AI19" t="n">
-        <v>990</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>32</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO19" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,42 +3083,42 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.04</v>
+        <v>2.56</v>
       </c>
       <c r="G20" t="n">
-        <v>1000</v>
+        <v>2.6</v>
       </c>
       <c r="H20" t="n">
-        <v>1.04</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="J20" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="K20" t="n">
-        <v>950</v>
+        <v>3.35</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.24</v>
+        <v>1.68</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3139,10 +3139,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3151,192 +3151,327 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Union Magdalena</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K21" t="n">
+        <v>950</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>Brazilian Serie A</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>2026-02-19</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>19:30:00</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Athletico-PR</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Corinthians</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="F22" t="n">
         <v>2.58</v>
       </c>
-      <c r="G21" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M21" t="n">
+      <c r="G22" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M22" t="n">
         <v>1.11</v>
       </c>
-      <c r="N21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V21" t="n">
+      <c r="N22" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V22" t="n">
         <v>1.4</v>
       </c>
-      <c r="W21" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO21" t="n">
+      <c r="W22" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO22" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,7 +676,7 @@
         <v>1.91</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="J2" t="n">
         <v>3.35</v>
@@ -697,28 +697,28 @@
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U2" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="W2" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="X2" t="n">
         <v>17</v>
@@ -814,7 +814,7 @@
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
@@ -823,25 +823,25 @@
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
         <v>1.25</v>
       </c>
       <c r="O3" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1.37</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.36</v>
       </c>
       <c r="R3" t="n">
         <v>1.15</v>
       </c>
       <c r="S3" t="n">
-        <v>1.05</v>
+        <v>1.37</v>
       </c>
       <c r="T3" t="n">
         <v>1.05</v>
@@ -850,10 +850,10 @@
         <v>1.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,100 +937,100 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>3.45</v>
       </c>
       <c r="G4" t="n">
-        <v>980</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="I4" t="n">
-        <v>980</v>
+        <v>2.32</v>
       </c>
       <c r="J4" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>980</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1.89</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.9</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.08</v>
+        <v>1.35</v>
       </c>
       <c r="S4" t="n">
-        <v>1.95</v>
+        <v>3.25</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1039,16 +1039,16 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.3</v>
+        <v>9.6</v>
       </c>
       <c r="G5" t="n">
-        <v>2.34</v>
+        <v>12</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>1.37</v>
       </c>
       <c r="I5" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V5" t="n">
         <v>3.55</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X5" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>13</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z5" t="n">
-        <v>29</v>
+        <v>7.8</v>
       </c>
       <c r="AA5" t="n">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI5" t="n">
         <v>46</v>
       </c>
-      <c r="AF5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>60</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>36</v>
+        <v>490</v>
       </c>
       <c r="AK5" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="AL5" t="n">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="AM5" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="AN5" t="n">
-        <v>24</v>
+        <v>310</v>
       </c>
       <c r="AO5" t="n">
-        <v>46</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,61 +1198,61 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.66</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.4</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K6" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>1.94</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="R6" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="U6" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,64 +1261,64 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AB6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AJ6" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AL6" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AN6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO6" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,61 +1333,61 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="G7" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.89</v>
+        <v>1.68</v>
       </c>
       <c r="I7" t="n">
-        <v>1.91</v>
+        <v>1.69</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.76</v>
+        <v>2.02</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.16</v>
+        <v>1.85</v>
       </c>
       <c r="R7" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="U7" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,64 +1396,64 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD7" t="n">
         <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG7" t="n">
         <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AJ7" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AK7" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AL7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO7" t="n">
-        <v>19.5</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,37 +1468,37 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.56</v>
+        <v>3.7</v>
       </c>
       <c r="G8" t="n">
-        <v>2.6</v>
+        <v>3.85</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2.04</v>
       </c>
       <c r="I8" t="n">
-        <v>3.05</v>
+        <v>2.08</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>1.65</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1519,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,64 +1531,64 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="G9" t="n">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="H9" t="n">
-        <v>1.64</v>
+        <v>1.89</v>
       </c>
       <c r="I9" t="n">
-        <v>1.69</v>
+        <v>1.91</v>
       </c>
       <c r="J9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S9" t="n">
         <v>4</v>
       </c>
-      <c r="K9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
       <c r="T9" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE9" t="n">
         <v>22</v>
       </c>
-      <c r="AC9" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>19</v>
-      </c>
       <c r="AF9" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ9" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="AK9" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL9" t="n">
         <v>90</v>
       </c>
-      <c r="AL9" t="n">
-        <v>80</v>
-      </c>
       <c r="AM9" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AN9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AO9" t="n">
-        <v>9.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G10" t="n">
         <v>2.4</v>
       </c>
-      <c r="G10" t="n">
-        <v>2.6</v>
-      </c>
       <c r="H10" t="n">
-        <v>2.94</v>
+        <v>3.35</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P10" t="n">
         <v>1.94</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="T10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.71</v>
       </c>
-      <c r="U10" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AA10" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD10" t="n">
         <v>14.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AJ10" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AK10" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO10" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>9.6</v>
+        <v>2.3</v>
       </c>
       <c r="G11" t="n">
-        <v>12</v>
+        <v>2.34</v>
       </c>
       <c r="H11" t="n">
-        <v>1.38</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.4</v>
+        <v>3.55</v>
       </c>
       <c r="J11" t="n">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>5.5</v>
+        <v>3.55</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="T11" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U11" t="n">
         <v>2.16</v>
       </c>
-      <c r="U11" t="n">
-        <v>1.71</v>
-      </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.199999999999999</v>
+        <v>26</v>
       </c>
       <c r="AA11" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="AB11" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF11" t="n">
-        <v>110</v>
+        <v>14.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO11" t="n">
-        <v>6.8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,37 +2008,37 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="G12" t="n">
-        <v>3.9</v>
+        <v>2.62</v>
       </c>
       <c r="H12" t="n">
-        <v>2.04</v>
+        <v>2.98</v>
       </c>
       <c r="I12" t="n">
-        <v>2.08</v>
+        <v>3.05</v>
       </c>
       <c r="J12" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.22</v>
+        <v>1.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.57</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,64 +2071,64 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.93</v>
+        <v>2.44</v>
       </c>
       <c r="G13" t="n">
-        <v>2.02</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>2.36</v>
       </c>
       <c r="I13" t="n">
-        <v>4.8</v>
+        <v>3.35</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>2.56</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.81</v>
+        <v>1.24</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="T13" t="n">
-        <v>1.85</v>
+        <v>1.05</v>
       </c>
       <c r="U13" t="n">
-        <v>1.98</v>
+        <v>1.05</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X13" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="G14" t="n">
-        <v>3.8</v>
+        <v>8.4</v>
       </c>
       <c r="H14" t="n">
-        <v>2.16</v>
+        <v>1.75</v>
       </c>
       <c r="I14" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
-        <v>3.65</v>
+        <v>9</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P14" t="n">
-        <v>1.96</v>
+        <v>1.24</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.9</v>
+        <v>1.02</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T14" t="n">
-        <v>1.74</v>
+        <v>1.05</v>
       </c>
       <c r="U14" t="n">
-        <v>2.16</v>
+        <v>1.05</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X14" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
         <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,81 +2408,81 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Al-Anwar Club</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.4</v>
+        <v>3.05</v>
       </c>
       <c r="G15" t="n">
-        <v>4.6</v>
+        <v>7.6</v>
       </c>
       <c r="H15" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="I15" t="n">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>2.72</v>
       </c>
       <c r="K15" t="n">
-        <v>3.7</v>
+        <v>5.6</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.76</v>
       </c>
-      <c r="Q15" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
@@ -2491,16 +2491,16 @@
         <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
         <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
         <v>1000</v>
@@ -2509,31 +2509,31 @@
         <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
         <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>KF Drita</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Al-Raed (KSA)</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.7</v>
+        <v>1.02</v>
       </c>
       <c r="G16" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="H16" t="n">
-        <v>1.83</v>
+        <v>1.02</v>
       </c>
       <c r="I16" t="n">
-        <v>1.95</v>
+        <v>1000</v>
       </c>
       <c r="J16" t="n">
-        <v>3.45</v>
+        <v>1.04</v>
       </c>
       <c r="K16" t="n">
-        <v>3.8</v>
+        <v>950</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>1.81</v>
+        <v>1.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>1.02</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="T16" t="n">
-        <v>1.88</v>
+        <v>1.01</v>
       </c>
       <c r="U16" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X16" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
         <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="F17" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J17" t="n">
         <v>3.4</v>
       </c>
-      <c r="G17" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.7</v>
-      </c>
       <c r="K17" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>4.6</v>
+        <v>2.02</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P17" t="n">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="R17" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="S17" t="n">
-        <v>2.96</v>
+        <v>2.6</v>
       </c>
       <c r="T17" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="U17" t="n">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X17" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y17" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.82</v>
+        <v>1.89</v>
       </c>
       <c r="G18" t="n">
-        <v>2.88</v>
+        <v>2.48</v>
       </c>
       <c r="H18" t="n">
-        <v>2.78</v>
+        <v>1.35</v>
       </c>
       <c r="I18" t="n">
-        <v>2.84</v>
+        <v>980</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
-        <v>3.45</v>
+        <v>5.9</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P18" t="n">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="T18" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="X18" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,93 +2948,93 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.68</v>
+        <v>1.11</v>
       </c>
       <c r="G19" t="n">
-        <v>1.7</v>
+        <v>1.15</v>
       </c>
       <c r="H19" t="n">
-        <v>5.6</v>
+        <v>23</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="J19" t="n">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="K19" t="n">
-        <v>4.4</v>
+        <v>15</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>4.3</v>
+        <v>7.8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.28</v>
+        <v>1.09</v>
       </c>
       <c r="P19" t="n">
-        <v>2.14</v>
+        <v>3.35</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.81</v>
+        <v>1.33</v>
       </c>
       <c r="R19" t="n">
-        <v>1.45</v>
+        <v>1.87</v>
       </c>
       <c r="S19" t="n">
-        <v>3.1</v>
+        <v>1.33</v>
       </c>
       <c r="T19" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="U19" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="X19" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.199999999999999</v>
+        <v>15.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.4</v>
+        <v>44</v>
       </c>
       <c r="AD19" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
@@ -3043,28 +3043,28 @@
         <v>10.5</v>
       </c>
       <c r="AG19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AH19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AK19" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL19" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>9.199999999999999</v>
+        <v>3.45</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,42 +3083,42 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.56</v>
+        <v>1.01</v>
       </c>
       <c r="G20" t="n">
-        <v>2.6</v>
+        <v>1000</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="I20" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="J20" t="n">
-        <v>3.3</v>
+        <v>1.01</v>
       </c>
       <c r="K20" t="n">
-        <v>3.35</v>
+        <v>950</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.68</v>
+        <v>1.24</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3139,10 +3139,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3151,64 +3151,64 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>990</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,42 +3218,42 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="G21" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>1.04</v>
+        <v>4.2</v>
       </c>
       <c r="I21" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="J21" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>950</v>
+        <v>3.75</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.24</v>
+        <v>1.81</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3274,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3286,192 +3286,1272 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>UEFA Europa Conference League</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Jagiellonia Bialystock</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>UEFA Europa Conference League</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Shkendija</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>UEFA Europa Conference League</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>KF Drita</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NK Celje</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>140</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>UEFA Europa League</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>770</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>990</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>UEFA Europa League</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Ludogorets</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Ferencvaros</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>160</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>48</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>UEFA Europa League</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Crvena Zvezda</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N27" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>UEFA Europa League</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Plzen</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>990</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Union Magdalena</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K29" t="n">
+        <v>950</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>Brazilian Serie A</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>2026-02-19</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>19:30:00</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Athletico-PR</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>Corinthians</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="F30" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G30" t="n">
         <v>2.76</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H30" t="n">
         <v>3.2</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I30" t="n">
         <v>3.45</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J30" t="n">
         <v>3</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K30" t="n">
         <v>3.2</v>
       </c>
-      <c r="L22" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M22" t="n">
+      <c r="L30" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M30" t="n">
         <v>1.11</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N30" t="n">
         <v>2.84</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O30" t="n">
         <v>1.47</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P30" t="n">
         <v>1.62</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q30" t="n">
         <v>2.38</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R30" t="n">
         <v>1.22</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S30" t="n">
         <v>4.4</v>
       </c>
-      <c r="T22" t="n">
+      <c r="T30" t="n">
         <v>1.96</v>
       </c>
-      <c r="U22" t="n">
+      <c r="U30" t="n">
         <v>1.9</v>
       </c>
-      <c r="V22" t="n">
+      <c r="V30" t="n">
         <v>1.4</v>
       </c>
-      <c r="W22" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="X22" t="n">
+      <c r="W30" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X30" t="n">
         <v>10</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="Y30" t="n">
         <v>11</v>
       </c>
-      <c r="Z22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB22" t="n">
+      <c r="Z30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB30" t="n">
         <v>9</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AC30" t="n">
         <v>7.6</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AD30" t="n">
         <v>15</v>
       </c>
-      <c r="AE22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF22" t="n">
+      <c r="AE30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF30" t="n">
         <v>17</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AG30" t="n">
         <v>13</v>
       </c>
-      <c r="AH22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL22" t="n">
+      <c r="AH30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL30" t="n">
         <v>65</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AM30" t="n">
         <v>170</v>
       </c>
-      <c r="AN22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO22" t="n">
+      <c r="AN30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO30" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO30"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="G2" t="n">
         <v>5.1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="I2" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
         <v>3.35</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L2" t="n">
         <v>1.42</v>
@@ -700,25 +700,25 @@
         <v>1.84</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
         <v>3.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V2" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="W2" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X2" t="n">
         <v>17</v>
@@ -727,10 +727,10 @@
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB2" t="n">
         <v>18</v>
@@ -745,7 +745,7 @@
         <v>27</v>
       </c>
       <c r="AF2" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG2" t="n">
         <v>21</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,100 +802,100 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>2.86</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>2.72</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.09</v>
+        <v>2.36</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="O3" t="n">
         <v>1.38</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>1.66</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.37</v>
+        <v>2.02</v>
       </c>
       <c r="R3" t="n">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="S3" t="n">
-        <v>1.37</v>
+        <v>3.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.05</v>
+        <v>1.8</v>
       </c>
       <c r="U3" t="n">
-        <v>1.05</v>
+        <v>1.87</v>
       </c>
       <c r="V3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W3" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -940,46 +940,46 @@
         <v>3.45</v>
       </c>
       <c r="G4" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="n">
         <v>2.06</v>
       </c>
       <c r="I4" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J4" t="n">
         <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O4" t="n">
         <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S4" t="n">
         <v>3.25</v>
       </c>
       <c r="T4" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U4" t="n">
         <v>2.08</v>
@@ -988,10 +988,10 @@
         <v>1.76</v>
       </c>
       <c r="W4" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="X4" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
         <v>11.5</v>
@@ -1024,25 +1024,25 @@
         <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK4" t="n">
         <v>55</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="G5" t="n">
         <v>12</v>
       </c>
       <c r="H5" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="I5" t="n">
         <v>1.39</v>
       </c>
       <c r="J5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K5" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="L5" t="n">
         <v>1.36</v>
@@ -1099,7 +1099,7 @@
         <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P5" t="n">
         <v>2.08</v>
@@ -1114,10 +1114,10 @@
         <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="U5" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V5" t="n">
         <v>3.55</v>
@@ -1132,7 +1132,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z5" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AA5" t="n">
         <v>11</v>
@@ -1153,31 +1153,31 @@
         <v>110</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AH5" t="n">
         <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="n">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="AK5" t="n">
         <v>200</v>
       </c>
       <c r="AL5" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AM5" t="n">
         <v>210</v>
       </c>
       <c r="AN5" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.6</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="6">
@@ -1207,34 +1207,34 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G6" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H6" t="n">
         <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
         <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
         <v>1.94</v>
@@ -1243,10 +1243,10 @@
         <v>1.89</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T6" t="n">
         <v>1.71</v>
@@ -1255,13 +1255,13 @@
         <v>2.32</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1273,7 +1273,7 @@
         <v>980</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
         <v>8.4</v>
@@ -1288,31 +1288,31 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
         <v>980</v>
       </c>
       <c r="AJ6" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AK6" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN6" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
     </row>
     <row r="7">
@@ -1342,67 +1342,67 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="H7" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="I7" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="J7" t="n">
         <v>4.2</v>
       </c>
       <c r="K7" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T7" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U7" t="n">
         <v>1.99</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="X7" t="n">
         <v>16.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AA7" t="n">
         <v>16.5</v>
@@ -1417,10 +1417,10 @@
         <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF7" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AG7" t="n">
         <v>23</v>
@@ -1495,28 +1495,28 @@
         <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
         <v>2.26</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="T8" t="n">
         <v>1.6</v>
@@ -1525,19 +1525,19 @@
         <v>2.36</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
         <v>25</v>
@@ -1546,7 +1546,7 @@
         <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD8" t="n">
         <v>11</v>
@@ -1558,10 +1558,10 @@
         <v>30</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AI8" t="n">
         <v>30</v>
@@ -1573,7 +1573,7 @@
         <v>40</v>
       </c>
       <c r="AL8" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>75</v>
@@ -1582,7 +1582,7 @@
         <v>980</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="9">
@@ -1615,7 +1615,7 @@
         <v>4.9</v>
       </c>
       <c r="G9" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H9" t="n">
         <v>1.89</v>
@@ -1630,34 +1630,34 @@
         <v>3.65</v>
       </c>
       <c r="L9" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M9" t="n">
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O9" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
         <v>1.28</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V9" t="n">
         <v>2.08</v>
@@ -1666,10 +1666,10 @@
         <v>1.24</v>
       </c>
       <c r="X9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z9" t="n">
         <v>10.5</v>
@@ -1678,7 +1678,7 @@
         <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC9" t="n">
         <v>8</v>
@@ -1690,7 +1690,7 @@
         <v>22</v>
       </c>
       <c r="AF9" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG9" t="n">
         <v>19.5</v>
@@ -1705,10 +1705,10 @@
         <v>130</v>
       </c>
       <c r="AK9" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AL9" t="n">
-        <v>90</v>
+        <v>510</v>
       </c>
       <c r="AM9" t="n">
         <v>150</v>
@@ -1750,13 +1750,13 @@
         <v>2.34</v>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H10" t="n">
         <v>3.35</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J10" t="n">
         <v>3.5</v>
@@ -1765,13 +1765,13 @@
         <v>3.55</v>
       </c>
       <c r="L10" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O10" t="n">
         <v>1.34</v>
@@ -1789,16 +1789,16 @@
         <v>3.65</v>
       </c>
       <c r="T10" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U10" t="n">
         <v>2.16</v>
       </c>
       <c r="V10" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W10" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X10" t="n">
         <v>13.5</v>
@@ -1813,16 +1813,16 @@
         <v>60</v>
       </c>
       <c r="AB10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC10" t="n">
         <v>7.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF10" t="n">
         <v>14.5</v>
@@ -1831,7 +1831,7 @@
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AI10" t="n">
         <v>50</v>
@@ -1843,10 +1843,10 @@
         <v>26</v>
       </c>
       <c r="AL10" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM10" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN10" t="n">
         <v>20</v>
@@ -1891,7 +1891,7 @@
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J11" t="n">
         <v>3.5</v>
@@ -1900,28 +1900,28 @@
         <v>3.55</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O11" t="n">
         <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R11" t="n">
         <v>1.35</v>
       </c>
       <c r="S11" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T11" t="n">
         <v>1.79</v>
@@ -1930,7 +1930,7 @@
         <v>2.16</v>
       </c>
       <c r="V11" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W11" t="n">
         <v>1.74</v>
@@ -1942,13 +1942,13 @@
         <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA11" t="n">
         <v>65</v>
       </c>
       <c r="AB11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC11" t="n">
         <v>7.8</v>
@@ -1972,22 +1972,22 @@
         <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AK11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM11" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO11" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -2035,94 +2035,94 @@
         <v>3.55</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -2143,55 +2143,55 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>Al-Anwar Club</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.44</v>
+        <v>3.5</v>
       </c>
       <c r="G13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="J13" t="n">
         <v>3.2</v>
       </c>
-      <c r="H13" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.56</v>
-      </c>
       <c r="K13" t="n">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.69</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
         <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.24</v>
+        <v>1.88</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="R13" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S13" t="n">
-        <v>1.92</v>
+        <v>2.6</v>
       </c>
       <c r="T13" t="n">
         <v>1.05</v>
@@ -2200,10 +2200,10 @@
         <v>1.05</v>
       </c>
       <c r="V13" t="n">
-        <v>1.42</v>
+        <v>1.74</v>
       </c>
       <c r="W13" t="n">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2278,55 +2278,55 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Al Batin</t>
+          <t>Al-Raed (KSA)</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="G14" t="n">
-        <v>8.4</v>
+        <v>6.2</v>
       </c>
       <c r="H14" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1.75</v>
       </c>
-      <c r="I14" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>9</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.02</v>
-      </c>
       <c r="R14" t="n">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="S14" t="n">
-        <v>2.46</v>
+        <v>2.86</v>
       </c>
       <c r="T14" t="n">
         <v>1.05</v>
@@ -2335,10 +2335,10 @@
         <v>1.05</v>
       </c>
       <c r="V14" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="W14" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Al-Anwar Club</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K15" t="n">
+        <v>60</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S15" t="n">
         <v>3.05</v>
       </c>
-      <c r="G15" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.85</v>
-      </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V15" t="n">
-        <v>1.76</v>
+        <v>1.47</v>
       </c>
       <c r="W15" t="n">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -2548,67 +2548,67 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Al-Raed (KSA)</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.02</v>
+        <v>3.35</v>
       </c>
       <c r="G16" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="H16" t="n">
-        <v>1.02</v>
+        <v>1.96</v>
       </c>
       <c r="I16" t="n">
-        <v>1000</v>
+        <v>2.22</v>
       </c>
       <c r="J16" t="n">
-        <v>1.04</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>950</v>
+        <v>4.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>1.24</v>
+        <v>3.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>1.24</v>
+        <v>1.85</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.02</v>
+        <v>1.76</v>
       </c>
       <c r="R16" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S16" t="n">
-        <v>2.56</v>
+        <v>2.96</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V16" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="W16" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.32</v>
+        <v>1.99</v>
       </c>
       <c r="G17" t="n">
-        <v>2.54</v>
+        <v>2.2</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="I17" t="n">
-        <v>3.65</v>
+        <v>4.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
         <v>3.95</v>
       </c>
       <c r="L17" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U17" t="n">
         <v>2.02</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.01</v>
-      </c>
       <c r="V17" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="W17" t="n">
-        <v>1.64</v>
+        <v>1.84</v>
       </c>
       <c r="X17" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -2818,118 +2818,118 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.89</v>
+        <v>1.11</v>
       </c>
       <c r="G18" t="n">
-        <v>2.48</v>
+        <v>1.15</v>
       </c>
       <c r="H18" t="n">
-        <v>1.35</v>
+        <v>20</v>
       </c>
       <c r="I18" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="K18" t="n">
-        <v>5.9</v>
+        <v>15.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>1.73</v>
+        <v>7.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.31</v>
+        <v>1.11</v>
       </c>
       <c r="P18" t="n">
-        <v>1.73</v>
+        <v>3.35</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.84</v>
+        <v>1.33</v>
       </c>
       <c r="R18" t="n">
-        <v>1.09</v>
+        <v>1.94</v>
       </c>
       <c r="S18" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="V18" t="n">
-        <v>1.31</v>
+        <v>1.03</v>
       </c>
       <c r="W18" t="n">
-        <v>1.78</v>
+        <v>7.8</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>2.78</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.11</v>
+        <v>2.32</v>
       </c>
       <c r="G19" t="n">
-        <v>1.15</v>
+        <v>2.72</v>
       </c>
       <c r="H19" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>32</v>
+        <v>3.45</v>
       </c>
       <c r="J19" t="n">
-        <v>12</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
-        <v>15</v>
+        <v>3.9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>7.8</v>
+        <v>3.95</v>
       </c>
       <c r="O19" t="n">
-        <v>1.09</v>
+        <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>3.35</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="R19" t="n">
-        <v>1.87</v>
+        <v>1.39</v>
       </c>
       <c r="S19" t="n">
-        <v>1.33</v>
+        <v>3.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="V19" t="n">
-        <v>1.03</v>
+        <v>1.4</v>
       </c>
       <c r="W19" t="n">
-        <v>7.8</v>
+        <v>1.62</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB19" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>44</v>
+        <v>9.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF19" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9.800000000000001</v>
+        <v>38</v>
       </c>
       <c r="AK19" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.45</v>
+        <v>21</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Pharco FC</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="G20" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="H20" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="I20" t="n">
-        <v>1000</v>
+        <v>2.76</v>
       </c>
       <c r="J20" t="n">
-        <v>1.01</v>
+        <v>2.82</v>
       </c>
       <c r="K20" t="n">
-        <v>950</v>
+        <v>3.25</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="P20" t="n">
-        <v>1.24</v>
+        <v>1.48</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.01</v>
+        <v>2.66</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.98</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>3.85</v>
       </c>
       <c r="H21" t="n">
-        <v>4.2</v>
+        <v>2.24</v>
       </c>
       <c r="I21" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>2.32</v>
       </c>
       <c r="K21" t="n">
-        <v>3.75</v>
+        <v>500</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P21" t="n">
-        <v>1.81</v>
+        <v>1.61</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="U21" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="X21" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Y21" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AA21" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AD21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG21" t="n">
         <v>19</v>
       </c>
-      <c r="AE21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>11</v>
-      </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AI21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN21" t="n">
         <v>70</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AO21" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Al Ahly Cairo</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>El Gounah</t>
         </is>
       </c>
       <c r="F22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>17</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N22" t="n">
         <v>3.6</v>
       </c>
-      <c r="G22" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T22" t="n">
-        <v>1.74</v>
+        <v>2.48</v>
       </c>
       <c r="U22" t="n">
-        <v>2.18</v>
+        <v>1.55</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="X22" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y22" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>180</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>440</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG22" t="n">
         <v>12</v>
       </c>
-      <c r="Z22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>17</v>
-      </c>
       <c r="AH22" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AI22" t="n">
-        <v>42</v>
+        <v>340</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="AL22" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM22" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="AN22" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="AO22" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,81 +3488,81 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.4</v>
+        <v>2.26</v>
       </c>
       <c r="G23" t="n">
-        <v>4.8</v>
+        <v>2.74</v>
       </c>
       <c r="H23" t="n">
-        <v>1.96</v>
+        <v>2.82</v>
       </c>
       <c r="I23" t="n">
-        <v>1.98</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="K23" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P23" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T23" t="n">
-        <v>1.94</v>
+        <v>1.05</v>
       </c>
       <c r="U23" t="n">
-        <v>1.94</v>
+        <v>1.05</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
@@ -3577,10 +3577,10 @@
         <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
         <v>1000</v>
@@ -3589,31 +3589,31 @@
         <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
         <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
         <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>KF Drita</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="G24" t="n">
-        <v>5.4</v>
+        <v>3.5</v>
       </c>
       <c r="H24" t="n">
-        <v>1.83</v>
+        <v>2.24</v>
       </c>
       <c r="I24" t="n">
-        <v>1.96</v>
+        <v>2.28</v>
       </c>
       <c r="J24" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="K24" t="n">
         <v>3.8</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P24" t="n">
-        <v>1.81</v>
+        <v>2.22</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="T24" t="n">
-        <v>1.86</v>
+        <v>1.66</v>
       </c>
       <c r="U24" t="n">
-        <v>1.92</v>
+        <v>2.42</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X24" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO24" t="n">
         <v>14</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>44</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>100</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>16.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.4</v>
+        <v>1.94</v>
       </c>
       <c r="G25" t="n">
-        <v>3.5</v>
+        <v>2.02</v>
       </c>
       <c r="H25" t="n">
-        <v>2.24</v>
+        <v>4.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2.26</v>
+        <v>4.8</v>
       </c>
       <c r="J25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.7</v>
       </c>
-      <c r="K25" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="O25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R25" t="n">
         <v>1.26</v>
       </c>
-      <c r="P25" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.47</v>
-      </c>
       <c r="S25" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="T25" t="n">
-        <v>1.66</v>
+        <v>1.84</v>
       </c>
       <c r="U25" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="V25" t="n">
-        <v>1.79</v>
+        <v>1.27</v>
       </c>
       <c r="W25" t="n">
-        <v>1.4</v>
+        <v>1.98</v>
       </c>
       <c r="X25" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD25" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AE25" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AF25" t="n">
-        <v>36</v>
+        <v>13.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AJ25" t="n">
-        <v>770</v>
+        <v>27</v>
       </c>
       <c r="AK25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AO25" t="n">
         <v>70</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>990</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,127 +3898,127 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="G26" t="n">
-        <v>2.88</v>
+        <v>3.8</v>
       </c>
       <c r="H26" t="n">
-        <v>2.78</v>
+        <v>2.2</v>
       </c>
       <c r="I26" t="n">
-        <v>2.86</v>
+        <v>2.28</v>
       </c>
       <c r="J26" t="n">
         <v>3.4</v>
       </c>
       <c r="K26" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P26" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T26" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="U26" t="n">
         <v>2.16</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X26" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB26" t="n">
         <v>14</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AC26" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD26" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z26" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>13</v>
-      </c>
       <c r="AE26" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AG26" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AL26" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.68</v>
+        <v>4.5</v>
       </c>
       <c r="G27" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H27" t="n">
-        <v>5.6</v>
+        <v>1.97</v>
       </c>
       <c r="I27" t="n">
-        <v>6</v>
+        <v>1.98</v>
       </c>
       <c r="J27" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="K27" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>4.3</v>
+        <v>3.25</v>
       </c>
       <c r="O27" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W27" t="n">
         <v>1.27</v>
       </c>
-      <c r="P27" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
       <c r="X27" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Y27" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH27" t="n">
         <v>22</v>
       </c>
-      <c r="Z27" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH27" t="n">
+      <c r="AI27" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>85</v>
+      </c>
+      <c r="AO27" t="n">
         <v>19.5</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>KF Drita</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.56</v>
+        <v>4.7</v>
       </c>
       <c r="G28" t="n">
-        <v>2.6</v>
+        <v>5.4</v>
       </c>
       <c r="H28" t="n">
-        <v>3.2</v>
+        <v>1.83</v>
       </c>
       <c r="I28" t="n">
-        <v>3.3</v>
+        <v>1.97</v>
       </c>
       <c r="J28" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N28" t="n">
         <v>3.35</v>
       </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P28" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.34</v>
+        <v>2.02</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T28" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="U28" t="n">
         <v>1.94</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X28" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD28" t="n">
         <v>11</v>
       </c>
-      <c r="Y28" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z28" t="n">
+      <c r="AE28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG28" t="n">
         <v>21</v>
       </c>
-      <c r="AA28" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
-        <v>990</v>
+        <v>42</v>
       </c>
       <c r="AJ28" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="AK28" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN28" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="AO28" t="n">
-        <v>180</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,260 +4298,1205 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.04</v>
+        <v>2.8</v>
       </c>
       <c r="G29" t="n">
-        <v>1000</v>
+        <v>2.88</v>
       </c>
       <c r="H29" t="n">
-        <v>1.04</v>
+        <v>2.78</v>
       </c>
       <c r="I29" t="n">
-        <v>1000</v>
+        <v>2.86</v>
       </c>
       <c r="J29" t="n">
-        <v>1.03</v>
+        <v>3.4</v>
       </c>
       <c r="K29" t="n">
-        <v>950</v>
+        <v>3.45</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P29" t="n">
-        <v>1.24</v>
+        <v>1.89</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>UEFA Europa League</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Crvena Zvezda</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W30" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="X30" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>UEFA Europa League</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Plzen</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Estudiantes Rio Cuarto</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H32" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I32" t="n">
+        <v>9</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S32" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W32" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="X32" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>490</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>310</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>380</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>640</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Belgrano</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X33" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Union Magdalena</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K34" t="n">
+        <v>950</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Independiente Rivadavia</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Instituto</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Atl Tucuman</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>Brazilian Serie A</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>2026-02-19</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>19:30:00</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>Athletico-PR</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>Corinthians</t>
         </is>
       </c>
-      <c r="F30" t="n">
+      <c r="F37" t="n">
         <v>2.6</v>
       </c>
-      <c r="G30" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="H30" t="n">
+      <c r="G37" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3</v>
+      </c>
+      <c r="K37" t="n">
         <v>3.2</v>
       </c>
-      <c r="I30" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L30" t="n">
+      <c r="L37" t="n">
         <v>1.45</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M37" t="n">
         <v>1.11</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N37" t="n">
         <v>2.84</v>
       </c>
-      <c r="O30" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P30" t="n">
+      <c r="O37" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P37" t="n">
         <v>1.62</v>
       </c>
-      <c r="Q30" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R30" t="n">
+      <c r="Q37" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R37" t="n">
         <v>1.22</v>
       </c>
-      <c r="S30" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U30" t="n">
+      <c r="S37" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U37" t="n">
         <v>1.9</v>
       </c>
-      <c r="V30" t="n">
+      <c r="V37" t="n">
         <v>1.4</v>
       </c>
-      <c r="W30" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X30" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y30" t="n">
+      <c r="W37" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y37" t="n">
         <v>11</v>
       </c>
-      <c r="Z30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC30" t="n">
+      <c r="Z37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC37" t="n">
         <v>7.6</v>
       </c>
-      <c r="AD30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF30" t="n">
+      <c r="AD37" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF37" t="n">
         <v>17</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="AG37" t="n">
         <v>13</v>
       </c>
-      <c r="AH30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM30" t="n">
+      <c r="AH37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM37" t="n">
         <v>170</v>
       </c>
-      <c r="AN30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO30" t="n">
+      <c r="AN37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO37" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO37"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G2" t="n">
         <v>5.1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
         <v>3.95</v>
@@ -694,16 +694,16 @@
         <v>3.5</v>
       </c>
       <c r="O2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.32</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.31</v>
       </c>
       <c r="S2" t="n">
         <v>3.5</v>
@@ -712,25 +712,25 @@
         <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W2" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
         <v>18</v>
@@ -745,7 +745,7 @@
         <v>27</v>
       </c>
       <c r="AF2" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG2" t="n">
         <v>21</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -802,100 +802,100 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.98</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>2.86</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>2.72</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>2.36</v>
+        <v>1.09</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="O3" t="n">
         <v>1.38</v>
       </c>
       <c r="P3" t="n">
-        <v>1.66</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.02</v>
+        <v>1.38</v>
       </c>
       <c r="R3" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="S3" t="n">
-        <v>3.2</v>
+        <v>1.38</v>
       </c>
       <c r="T3" t="n">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="U3" t="n">
-        <v>1.87</v>
+        <v>1.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -940,7 +940,7 @@
         <v>3.45</v>
       </c>
       <c r="G4" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H4" t="n">
         <v>2.06</v>
@@ -949,7 +949,7 @@
         <v>2.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
         <v>3.95</v>
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>85</v>
       </c>
       <c r="AK4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
         <v>65</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO4" t="n">
         <v>19.5</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>9.4</v>
+        <v>2.6</v>
       </c>
       <c r="G5" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y5" t="n">
         <v>12</v>
       </c>
-      <c r="H5" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V5" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="Z5" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB5" t="n">
         <v>11</v>
       </c>
-      <c r="AB5" t="n">
-        <v>980</v>
-      </c>
       <c r="AC5" t="n">
-        <v>12.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>15.5</v>
+        <v>34</v>
       </c>
       <c r="AF5" t="n">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL5" t="n">
         <v>40</v>
       </c>
-      <c r="AH5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>510</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>180</v>
-      </c>
       <c r="AM5" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="AN5" t="n">
-        <v>300</v>
+        <v>23</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.62</v>
+        <v>2.36</v>
       </c>
       <c r="G6" t="n">
-        <v>2.64</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L6" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="P6" t="n">
         <v>1.94</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S6" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="T6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W6" t="n">
         <v>1.71</v>
       </c>
-      <c r="U6" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.6</v>
-      </c>
       <c r="X6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH6" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>19</v>
-      </c>
       <c r="AI6" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AJ6" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM6" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO6" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="G7" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.65</v>
+        <v>1.89</v>
       </c>
       <c r="I7" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="J7" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.82</v>
+        <v>2.18</v>
       </c>
       <c r="R7" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="S7" t="n">
-        <v>3.05</v>
+        <v>4.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="U7" t="n">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="V7" t="n">
-        <v>2.48</v>
+        <v>2.08</v>
       </c>
       <c r="W7" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="X7" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="Z7" t="n">
         <v>10.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE7" t="n">
         <v>21</v>
       </c>
-      <c r="AC7" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>18</v>
-      </c>
       <c r="AF7" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AG7" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH7" t="n">
         <v>23</v>
       </c>
-      <c r="AH7" t="n">
-        <v>21</v>
-      </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AJ7" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AK7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL7" t="n">
         <v>85</v>
       </c>
-      <c r="AL7" t="n">
-        <v>80</v>
-      </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AN7" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="G8" t="n">
-        <v>3.85</v>
+        <v>2.34</v>
       </c>
       <c r="H8" t="n">
-        <v>2.04</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.08</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>2.26</v>
+        <v>1.93</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.64</v>
+        <v>2.02</v>
       </c>
       <c r="R8" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="S8" t="n">
-        <v>2.42</v>
+        <v>3.65</v>
       </c>
       <c r="T8" t="n">
-        <v>1.6</v>
+        <v>1.79</v>
       </c>
       <c r="U8" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="V8" t="n">
-        <v>1.93</v>
+        <v>1.4</v>
       </c>
       <c r="W8" t="n">
-        <v>1.35</v>
+        <v>1.74</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD8" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD8" t="n">
+      <c r="AE8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG8" t="n">
         <v>11</v>
       </c>
-      <c r="AE8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AH8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>30</v>
       </c>
-      <c r="AG8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>80</v>
-      </c>
       <c r="AK8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL8" t="n">
         <v>40</v>
       </c>
-      <c r="AL8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM8" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AN8" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>11.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="H9" t="n">
-        <v>1.89</v>
+        <v>1.65</v>
       </c>
       <c r="I9" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="K9" t="n">
-        <v>3.65</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="R9" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>4.2</v>
+        <v>3.05</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="U9" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="V9" t="n">
-        <v>2.08</v>
+        <v>2.48</v>
       </c>
       <c r="W9" t="n">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z9" t="n">
         <v>10.5</v>
       </c>
       <c r="AA9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB9" t="n">
         <v>21</v>
       </c>
-      <c r="AB9" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG9" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AJ9" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AK9" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AL9" t="n">
-        <v>510</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AO9" t="n">
-        <v>16</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.34</v>
+        <v>2.62</v>
       </c>
       <c r="G10" t="n">
-        <v>2.38</v>
+        <v>2.66</v>
       </c>
       <c r="H10" t="n">
-        <v>3.35</v>
+        <v>2.92</v>
       </c>
       <c r="I10" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O10" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="P10" t="n">
         <v>1.94</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="R10" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S10" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="U10" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="V10" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="W10" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="X10" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB10" t="n">
         <v>13</v>
       </c>
-      <c r="Z10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>10</v>
-      </c>
       <c r="AC10" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ10" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN10" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>2.34</v>
+        <v>11.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>1.39</v>
       </c>
       <c r="I11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V11" t="n">
         <v>3.5</v>
       </c>
-      <c r="J11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.4</v>
-      </c>
       <c r="W11" t="n">
-        <v>1.74</v>
+        <v>1.1</v>
       </c>
       <c r="X11" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z11" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AA11" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="AB11" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.8</v>
+        <v>12.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>42</v>
+        <v>15.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>14.5</v>
+        <v>110</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AI11" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ11" t="n">
-        <v>30</v>
+        <v>460</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="AL11" t="n">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="AM11" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="AN11" t="n">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="AO11" t="n">
-        <v>40</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.6</v>
+        <v>3.65</v>
       </c>
       <c r="G12" t="n">
-        <v>2.62</v>
+        <v>3.85</v>
       </c>
       <c r="H12" t="n">
-        <v>2.98</v>
+        <v>2.04</v>
       </c>
       <c r="I12" t="n">
-        <v>3.05</v>
+        <v>2.08</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>1.93</v>
+        <v>2.22</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="R12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.35</v>
       </c>
-      <c r="S12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.61</v>
-      </c>
       <c r="X12" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Z12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB12" t="n">
         <v>21</v>
       </c>
-      <c r="AA12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB12" t="n">
+      <c r="AC12" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD12" t="n">
         <v>11</v>
       </c>
-      <c r="AC12" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AE12" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AG12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO12" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="G14" t="n">
         <v>6.2</v>
@@ -2296,10 +2296,10 @@
         <v>1.66</v>
       </c>
       <c r="I14" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>2.82</v>
       </c>
       <c r="K14" t="n">
         <v>4.6</v>
@@ -2335,10 +2335,10 @@
         <v>1.05</v>
       </c>
       <c r="V14" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W14" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2428,19 +2428,19 @@
         <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="I15" t="n">
         <v>3.4</v>
       </c>
       <c r="J15" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>60</v>
+        <v>950</v>
       </c>
       <c r="L15" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
@@ -2452,28 +2452,28 @@
         <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q15" t="n">
         <v>1.81</v>
       </c>
       <c r="R15" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S15" t="n">
         <v>3.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U15" t="n">
         <v>2.16</v>
       </c>
       <c r="V15" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="W15" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X15" t="n">
         <v>970</v>
@@ -2512,19 +2512,19 @@
         <v>50</v>
       </c>
       <c r="AJ15" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK15" t="n">
         <v>34</v>
       </c>
       <c r="AL15" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO15" t="n">
         <v>34</v>
@@ -2557,25 +2557,25 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
         <v>4.5</v>
       </c>
       <c r="H16" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="I16" t="n">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>4.5</v>
+        <v>7.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
@@ -2584,10 +2584,10 @@
         <v>3.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Q16" t="n">
         <v>1.76</v>
@@ -2599,16 +2599,16 @@
         <v>2.96</v>
       </c>
       <c r="T16" t="n">
-        <v>1.72</v>
+        <v>1.05</v>
       </c>
       <c r="U16" t="n">
         <v>1.05</v>
       </c>
       <c r="V16" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="W16" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.99</v>
+        <v>2.28</v>
       </c>
       <c r="G17" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H17" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>4.4</v>
+        <v>3.35</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
         <v>3.95</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="P17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1.83</v>
       </c>
-      <c r="Q17" t="n">
-        <v>1.96</v>
-      </c>
       <c r="R17" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="S17" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="T17" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="U17" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="V17" t="n">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="W17" t="n">
-        <v>1.84</v>
+        <v>1.66</v>
       </c>
       <c r="X17" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="Z17" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AA17" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AB17" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
-        <v>970</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD17" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AF17" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AJ17" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AK17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AN17" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AO17" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -2818,82 +2818,82 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.11</v>
+        <v>1.98</v>
       </c>
       <c r="G18" t="n">
-        <v>1.15</v>
+        <v>2.22</v>
       </c>
       <c r="H18" t="n">
-        <v>20</v>
+        <v>3.75</v>
       </c>
       <c r="I18" t="n">
-        <v>36</v>
+        <v>4.5</v>
       </c>
       <c r="J18" t="n">
-        <v>12</v>
+        <v>3.35</v>
       </c>
       <c r="K18" t="n">
-        <v>15.5</v>
+        <v>3.95</v>
       </c>
       <c r="L18" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>7.8</v>
+        <v>3.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>3.35</v>
+        <v>1.83</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.33</v>
+        <v>1.96</v>
       </c>
       <c r="R18" t="n">
-        <v>1.94</v>
+        <v>1.32</v>
       </c>
       <c r="S18" t="n">
-        <v>1.8</v>
+        <v>3.45</v>
       </c>
       <c r="T18" t="n">
-        <v>2.28</v>
+        <v>1.79</v>
       </c>
       <c r="U18" t="n">
-        <v>1.62</v>
+        <v>2.02</v>
       </c>
       <c r="V18" t="n">
-        <v>1.03</v>
+        <v>1.31</v>
       </c>
       <c r="W18" t="n">
-        <v>7.8</v>
+        <v>1.82</v>
       </c>
       <c r="X18" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="Y18" t="n">
         <v>970</v>
       </c>
       <c r="Z18" t="n">
-        <v>340</v>
+        <v>32</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB18" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AC18" t="n">
         <v>970</v>
@@ -2902,37 +2902,37 @@
         <v>970</v>
       </c>
       <c r="AE18" t="n">
-        <v>550</v>
+        <v>55</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AG18" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AH18" t="n">
         <v>970</v>
       </c>
       <c r="AI18" t="n">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8.6</v>
+        <v>27</v>
       </c>
       <c r="AK18" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="n">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="AN18" t="n">
-        <v>2.78</v>
+        <v>970</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.32</v>
+        <v>1.11</v>
       </c>
       <c r="G19" t="n">
-        <v>2.72</v>
+        <v>1.15</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I19" t="n">
-        <v>3.45</v>
+        <v>34</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>12</v>
       </c>
       <c r="K19" t="n">
-        <v>3.9</v>
+        <v>15.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>3.95</v>
+        <v>7.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="P19" t="n">
-        <v>2</v>
+        <v>3.35</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.83</v>
+        <v>1.29</v>
       </c>
       <c r="R19" t="n">
-        <v>1.39</v>
+        <v>1.92</v>
       </c>
       <c r="S19" t="n">
-        <v>3.05</v>
+        <v>1.87</v>
       </c>
       <c r="T19" t="n">
-        <v>1.68</v>
+        <v>2.3</v>
       </c>
       <c r="U19" t="n">
-        <v>2.22</v>
+        <v>1.62</v>
       </c>
       <c r="V19" t="n">
-        <v>1.4</v>
+        <v>1.03</v>
       </c>
       <c r="W19" t="n">
-        <v>1.62</v>
+        <v>7.8</v>
       </c>
       <c r="X19" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="Y19" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="Z19" t="n">
-        <v>24</v>
+        <v>340</v>
       </c>
       <c r="AA19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
         <v>13.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AE19" t="n">
-        <v>40</v>
+        <v>540</v>
       </c>
       <c r="AF19" t="n">
-        <v>19</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG19" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AI19" t="n">
-        <v>50</v>
+        <v>340</v>
       </c>
       <c r="AJ19" t="n">
-        <v>38</v>
+        <v>8.6</v>
       </c>
       <c r="AK19" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AL19" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AM19" t="n">
-        <v>95</v>
+        <v>400</v>
       </c>
       <c r="AN19" t="n">
-        <v>21</v>
+        <v>2.78</v>
       </c>
       <c r="AO19" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Pharco FC</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.3</v>
+        <v>2.08</v>
       </c>
       <c r="G20" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="H20" t="n">
-        <v>2.46</v>
+        <v>2.82</v>
       </c>
       <c r="I20" t="n">
-        <v>2.76</v>
+        <v>4.4</v>
       </c>
       <c r="J20" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="K20" t="n">
-        <v>3.25</v>
+        <v>6.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.58</v>
+        <v>1.05</v>
       </c>
       <c r="P20" t="n">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.66</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>5.6</v>
+        <v>2.62</v>
       </c>
       <c r="T20" t="n">
-        <v>2.08</v>
+        <v>1.05</v>
       </c>
       <c r="U20" t="n">
-        <v>1.73</v>
+        <v>1.05</v>
       </c>
       <c r="V20" t="n">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="W20" t="n">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="X20" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Al Ahly Cairo</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Al-Masry</t>
+          <t>El Gounah</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>1.29</v>
       </c>
       <c r="G21" t="n">
-        <v>3.85</v>
+        <v>1.37</v>
       </c>
       <c r="H21" t="n">
-        <v>2.24</v>
+        <v>13.5</v>
       </c>
       <c r="I21" t="n">
-        <v>3.2</v>
+        <v>17</v>
       </c>
       <c r="J21" t="n">
-        <v>2.32</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M21" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>2.84</v>
+        <v>3.55</v>
       </c>
       <c r="O21" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>1.61</v>
+        <v>1.85</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.2</v>
+        <v>1.97</v>
       </c>
       <c r="R21" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="S21" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="T21" t="n">
-        <v>1.92</v>
+        <v>2.48</v>
       </c>
       <c r="U21" t="n">
-        <v>1.86</v>
+        <v>1.55</v>
       </c>
       <c r="V21" t="n">
-        <v>1.45</v>
+        <v>1.06</v>
       </c>
       <c r="W21" t="n">
-        <v>1.39</v>
+        <v>3.7</v>
       </c>
       <c r="X21" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="Y21" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>180</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>440</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG21" t="n">
         <v>12</v>
       </c>
-      <c r="Z21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>19</v>
-      </c>
       <c r="AH21" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AI21" t="n">
-        <v>75</v>
+        <v>340</v>
       </c>
       <c r="AJ21" t="n">
-        <v>80</v>
+        <v>10.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="AL21" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AN21" t="n">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="AO21" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Al Ahly Cairo</t>
+          <t>Pharco FC</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>El Gounah</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="G22" t="n">
-        <v>1.37</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>13.5</v>
+        <v>2.38</v>
       </c>
       <c r="I22" t="n">
-        <v>17</v>
+        <v>2.68</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>2.84</v>
       </c>
       <c r="K22" t="n">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="L22" t="n">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N22" t="n">
-        <v>3.6</v>
+        <v>2.46</v>
       </c>
       <c r="O22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W22" t="n">
         <v>1.33</v>
       </c>
-      <c r="P22" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W22" t="n">
-        <v>3.7</v>
-      </c>
       <c r="X22" t="n">
-        <v>17.5</v>
+        <v>8.6</v>
       </c>
       <c r="Y22" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z22" t="n">
         <v>970</v>
       </c>
-      <c r="Z22" t="n">
-        <v>180</v>
-      </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB22" t="n">
-        <v>6.8</v>
+        <v>970</v>
       </c>
       <c r="AC22" t="n">
-        <v>13.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD22" t="n">
         <v>970</v>
       </c>
       <c r="AE22" t="n">
-        <v>440</v>
+        <v>40</v>
       </c>
       <c r="AF22" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AH22" t="n">
         <v>970</v>
       </c>
       <c r="AI22" t="n">
-        <v>340</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10.5</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="AL22" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AM22" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="AN22" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.26</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>2.74</v>
+        <v>3.7</v>
       </c>
       <c r="H23" t="n">
-        <v>2.82</v>
+        <v>2.5</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="K23" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S23" t="n">
         <v>4.2</v>
       </c>
-      <c r="L23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3.55</v>
-      </c>
       <c r="T23" t="n">
-        <v>1.05</v>
+        <v>1.92</v>
       </c>
       <c r="U23" t="n">
-        <v>1.05</v>
+        <v>1.86</v>
       </c>
       <c r="V23" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="W23" t="n">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.4</v>
+        <v>2.56</v>
       </c>
       <c r="G24" t="n">
-        <v>3.5</v>
+        <v>2.58</v>
       </c>
       <c r="H24" t="n">
-        <v>2.24</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>2.28</v>
+        <v>3.3</v>
       </c>
       <c r="J24" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="K24" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="L24" t="n">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S24" t="n">
         <v>4.5</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.96</v>
-      </c>
       <c r="T24" t="n">
-        <v>1.66</v>
+        <v>1.97</v>
       </c>
       <c r="U24" t="n">
-        <v>2.42</v>
+        <v>1.94</v>
       </c>
       <c r="V24" t="n">
-        <v>1.78</v>
+        <v>1.43</v>
       </c>
       <c r="W24" t="n">
-        <v>1.4</v>
+        <v>1.63</v>
       </c>
       <c r="X24" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF24" t="n">
         <v>15</v>
       </c>
-      <c r="AA24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>26</v>
-      </c>
       <c r="AG24" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK24" t="n">
         <v>32</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>36</v>
-      </c>
       <c r="AL24" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AM24" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AN24" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO24" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -3772,13 +3772,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G25" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H25" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I25" t="n">
         <v>4.8</v>
@@ -3823,7 +3823,7 @@
         <v>1.27</v>
       </c>
       <c r="W25" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="X25" t="n">
         <v>14</v>
@@ -3910,7 +3910,7 @@
         <v>3.6</v>
       </c>
       <c r="G26" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H26" t="n">
         <v>2.2</v>
@@ -3931,7 +3931,7 @@
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="O26" t="n">
         <v>1.31</v>
@@ -3982,7 +3982,7 @@
         <v>11.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF26" t="n">
         <v>30</v>
@@ -3991,10 +3991,10 @@
         <v>15.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ26" t="n">
         <v>1000</v>
@@ -4045,10 +4045,10 @@
         <v>4.5</v>
       </c>
       <c r="G27" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H27" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="I27" t="n">
         <v>1.98</v>
@@ -4069,16 +4069,16 @@
         <v>3.25</v>
       </c>
       <c r="O27" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P27" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q27" t="n">
         <v>2.18</v>
       </c>
       <c r="R27" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="S27" t="n">
         <v>4</v>
@@ -4099,16 +4099,16 @@
         <v>12</v>
       </c>
       <c r="Y27" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA27" t="n">
         <v>24</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC27" t="n">
         <v>8</v>
@@ -4129,13 +4129,13 @@
         <v>22</v>
       </c>
       <c r="AI27" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AJ27" t="n">
         <v>120</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL27" t="n">
         <v>1000</v>
@@ -4147,7 +4147,7 @@
         <v>85</v>
       </c>
       <c r="AO27" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="28">
@@ -4180,7 +4180,7 @@
         <v>4.7</v>
       </c>
       <c r="G28" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H28" t="n">
         <v>1.83</v>
@@ -4210,7 +4210,7 @@
         <v>1.81</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
         <v>1.31</v>
@@ -4219,16 +4219,16 @@
         <v>3.6</v>
       </c>
       <c r="T28" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="U28" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V28" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W28" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X28" t="n">
         <v>14</v>
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.8</v>
+        <v>3.45</v>
       </c>
       <c r="G29" t="n">
-        <v>2.88</v>
+        <v>3.55</v>
       </c>
       <c r="H29" t="n">
-        <v>2.78</v>
+        <v>2.22</v>
       </c>
       <c r="I29" t="n">
-        <v>2.86</v>
+        <v>2.26</v>
       </c>
       <c r="J29" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K29" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="L29" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="M29" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="O29" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="P29" t="n">
-        <v>1.89</v>
+        <v>2.22</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.04</v>
+        <v>1.78</v>
       </c>
       <c r="R29" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="S29" t="n">
-        <v>3.7</v>
+        <v>2.96</v>
       </c>
       <c r="T29" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V29" t="n">
         <v>1.79</v>
       </c>
-      <c r="U29" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.54</v>
-      </c>
       <c r="W29" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="X29" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="Y29" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AA29" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AB29" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI29" t="n">
         <v>32</v>
       </c>
-      <c r="AF29" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>46</v>
-      </c>
       <c r="AJ29" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AK29" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AL29" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM29" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AN29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO29" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.69</v>
+        <v>2.8</v>
       </c>
       <c r="G30" t="n">
-        <v>1.7</v>
+        <v>2.88</v>
       </c>
       <c r="H30" t="n">
-        <v>5.6</v>
+        <v>2.78</v>
       </c>
       <c r="I30" t="n">
-        <v>5.9</v>
+        <v>2.84</v>
       </c>
       <c r="J30" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="K30" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="L30" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O30" t="n">
         <v>1.35</v>
       </c>
-      <c r="M30" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N30" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.27</v>
-      </c>
       <c r="P30" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="R30" t="n">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="S30" t="n">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="T30" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U30" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V30" t="n">
-        <v>1.2</v>
+        <v>1.54</v>
       </c>
       <c r="W30" t="n">
-        <v>2.42</v>
+        <v>1.53</v>
       </c>
       <c r="X30" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="Z30" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI30" t="n">
         <v>46</v>
       </c>
-      <c r="AA30" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>75</v>
-      </c>
       <c r="AJ30" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="AK30" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AL30" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AM30" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN30" t="n">
-        <v>9.199999999999999</v>
+        <v>29</v>
       </c>
       <c r="AO30" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.6</v>
+        <v>1.69</v>
       </c>
       <c r="G31" t="n">
-        <v>2.64</v>
+        <v>1.71</v>
       </c>
       <c r="H31" t="n">
-        <v>3.2</v>
+        <v>5.6</v>
       </c>
       <c r="I31" t="n">
-        <v>3.25</v>
+        <v>5.8</v>
       </c>
       <c r="J31" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="K31" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="L31" t="n">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="M31" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="P31" t="n">
-        <v>1.7</v>
+        <v>2.14</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.34</v>
+        <v>1.82</v>
       </c>
       <c r="R31" t="n">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="S31" t="n">
-        <v>4.5</v>
+        <v>3.05</v>
       </c>
       <c r="T31" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="U31" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="V31" t="n">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="W31" t="n">
-        <v>1.61</v>
+        <v>2.4</v>
       </c>
       <c r="X31" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="Z31" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="AA31" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AB31" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AH31" t="n">
         <v>20</v>
       </c>
       <c r="AI31" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AJ31" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="AK31" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AL31" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AM31" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN31" t="n">
-        <v>32</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO31" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
@@ -4720,16 +4720,16 @@
         <v>1.66</v>
       </c>
       <c r="G32" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="H32" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="I32" t="n">
         <v>9</v>
       </c>
       <c r="J32" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K32" t="n">
         <v>3.6</v>
@@ -4741,10 +4741,10 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="O32" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P32" t="n">
         <v>1.42</v>
@@ -4759,7 +4759,7 @@
         <v>7.2</v>
       </c>
       <c r="T32" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="U32" t="n">
         <v>1.4</v>
@@ -4768,7 +4768,7 @@
         <v>1.13</v>
       </c>
       <c r="W32" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="X32" t="n">
         <v>8.4</v>
@@ -4852,19 +4852,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="G33" t="n">
         <v>3.15</v>
       </c>
       <c r="H33" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="I33" t="n">
         <v>2.88</v>
       </c>
       <c r="J33" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K33" t="n">
         <v>3.25</v>
@@ -4882,10 +4882,10 @@
         <v>1.01</v>
       </c>
       <c r="P33" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="R33" t="n">
         <v>1.14</v>
@@ -4903,7 +4903,7 @@
         <v>1.53</v>
       </c>
       <c r="W33" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X33" t="n">
         <v>10</v>
@@ -4963,7 +4963,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,48 +4973,48 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>Sportivo San Lorenzo</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P34" t="n">
         <v>1.24</v>
@@ -5023,82 +5023,82 @@
         <v>1.01</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,126 +5108,126 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Union Magdalena</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.74</v>
+        <v>1.04</v>
       </c>
       <c r="G35" t="n">
-        <v>2.96</v>
+        <v>1000</v>
       </c>
       <c r="H35" t="n">
-        <v>3.1</v>
+        <v>1.04</v>
       </c>
       <c r="I35" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="J35" t="n">
-        <v>2.82</v>
+        <v>1.09</v>
       </c>
       <c r="K35" t="n">
-        <v>3.05</v>
+        <v>950</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P35" t="n">
-        <v>1.46</v>
+        <v>1.24</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.94</v>
+        <v>1.4</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Atl Tucuman</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.04</v>
+        <v>2.74</v>
       </c>
       <c r="G36" t="n">
-        <v>2.16</v>
+        <v>2.96</v>
       </c>
       <c r="H36" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="I36" t="n">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
       <c r="J36" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="K36" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P36" t="n">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.48</v>
+        <v>2.94</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
@@ -5392,10 +5392,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G37" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H37" t="n">
         <v>3.25</v>
@@ -5404,19 +5404,19 @@
         <v>3.45</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K37" t="n">
         <v>3.2</v>
       </c>
       <c r="L37" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="M37" t="n">
         <v>1.11</v>
       </c>
       <c r="N37" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="O37" t="n">
         <v>1.46</v>
@@ -5425,25 +5425,25 @@
         <v>1.62</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R37" t="n">
         <v>1.22</v>
       </c>
       <c r="S37" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T37" t="n">
         <v>1.94</v>
       </c>
       <c r="U37" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V37" t="n">
         <v>1.4</v>
       </c>
       <c r="W37" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X37" t="n">
         <v>10.5</v>
@@ -5498,6 +5498,276 @@
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Instituto</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Atl Tucuman</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="X38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Nacional (Par)</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Club Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-19.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="G2" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H2" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="I2" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="J2" t="n">
         <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>3.95</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -697,10 +697,10 @@
         <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="R2" t="n">
         <v>1.32</v>
@@ -715,10 +715,10 @@
         <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="W2" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="X2" t="n">
         <v>16.5</v>
@@ -727,10 +727,10 @@
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB2" t="n">
         <v>18</v>
@@ -745,7 +745,7 @@
         <v>27</v>
       </c>
       <c r="AF2" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG2" t="n">
         <v>21</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="3">
@@ -805,10 +805,10 @@
         <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I3" t="n">
         <v>1000</v>
@@ -826,22 +826,22 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.38</v>
       </c>
       <c r="P3" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q3" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.15</v>
-      </c>
       <c r="S3" t="n">
-        <v>1.38</v>
+        <v>2.02</v>
       </c>
       <c r="T3" t="n">
         <v>1.05</v>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.45</v>
+        <v>1.98</v>
       </c>
       <c r="G4" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="I4" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>980</v>
       </c>
       <c r="L4" t="n">
         <v>1.39</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.3</v>
@@ -979,70 +979,70 @@
         <v>3.25</v>
       </c>
       <c r="T4" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U4" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V4" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="W4" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1081,7 +1081,7 @@
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J5" t="n">
         <v>3.45</v>
@@ -1213,10 +1213,10 @@
         <v>2.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J6" t="n">
         <v>3.5</v>
@@ -1228,7 +1228,7 @@
         <v>1.42</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
         <v>3.8</v>
@@ -1255,7 +1255,7 @@
         <v>2.16</v>
       </c>
       <c r="V6" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W6" t="n">
         <v>1.71</v>
@@ -1264,7 +1264,7 @@
         <v>13.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z6" t="n">
         <v>23</v>
@@ -1309,7 +1309,7 @@
         <v>95</v>
       </c>
       <c r="AN6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO6" t="n">
         <v>38</v>
@@ -1381,13 +1381,13 @@
         <v>1.3</v>
       </c>
       <c r="S7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T7" t="n">
         <v>1.98</v>
       </c>
       <c r="U7" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
         <v>2.08</v>
@@ -1423,10 +1423,10 @@
         <v>36</v>
       </c>
       <c r="AG7" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
         <v>44</v>
@@ -1444,7 +1444,7 @@
         <v>140</v>
       </c>
       <c r="AN7" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AO7" t="n">
         <v>16</v>
@@ -1492,7 +1492,7 @@
         <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.42</v>
@@ -1513,7 +1513,7 @@
         <v>2.02</v>
       </c>
       <c r="R8" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S8" t="n">
         <v>3.65</v>
@@ -1633,10 +1633,10 @@
         <v>1.34</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O9" t="n">
         <v>1.28</v>
@@ -1648,10 +1648,10 @@
         <v>1.85</v>
       </c>
       <c r="R9" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S9" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T9" t="n">
         <v>1.86</v>
@@ -1669,7 +1669,7 @@
         <v>16.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="Z9" t="n">
         <v>10.5</v>
@@ -1759,7 +1759,7 @@
         <v>3.05</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
         <v>3.6</v>
@@ -1780,28 +1780,28 @@
         <v>1.94</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R10" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T10" t="n">
         <v>1.71</v>
       </c>
       <c r="U10" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="V10" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W10" t="n">
         <v>1.6</v>
       </c>
       <c r="X10" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
         <v>1000</v>
@@ -1813,13 +1813,13 @@
         <v>980</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC10" t="n">
         <v>8.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
         <v>980</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="G11" t="n">
         <v>11.5</v>
@@ -1897,7 +1897,7 @@
         <v>5.4</v>
       </c>
       <c r="K11" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L11" t="n">
         <v>1.36</v>
@@ -1948,7 +1948,7 @@
         <v>12</v>
       </c>
       <c r="AB11" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AC11" t="n">
         <v>12.5</v>
@@ -2035,28 +2035,28 @@
         <v>4.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q12" t="n">
         <v>1.64</v>
       </c>
       <c r="R12" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S12" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="T12" t="n">
         <v>1.6</v>
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="G13" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="H13" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="I13" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
@@ -2182,10 +2182,10 @@
         <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="R13" t="n">
         <v>1.26</v>
@@ -2200,10 +2200,10 @@
         <v>1.05</v>
       </c>
       <c r="V13" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="W13" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="G14" t="n">
         <v>6.2</v>
@@ -2296,10 +2296,10 @@
         <v>1.66</v>
       </c>
       <c r="I14" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="J14" t="n">
-        <v>2.82</v>
+        <v>3.9</v>
       </c>
       <c r="K14" t="n">
         <v>4.6</v>
@@ -2311,10 +2311,10 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.05</v>
       </c>
       <c r="P14" t="n">
         <v>2.12</v>
@@ -2326,7 +2326,7 @@
         <v>1.44</v>
       </c>
       <c r="S14" t="n">
-        <v>2.86</v>
+        <v>2.62</v>
       </c>
       <c r="T14" t="n">
         <v>1.05</v>
@@ -2335,10 +2335,10 @@
         <v>1.05</v>
       </c>
       <c r="V14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W14" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2422,28 +2422,28 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H15" t="n">
-        <v>2.74</v>
+        <v>2.56</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="J15" t="n">
         <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>950</v>
+        <v>5.1</v>
       </c>
       <c r="L15" t="n">
         <v>1.35</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
         <v>3.3</v>
@@ -2452,13 +2452,13 @@
         <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R15" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S15" t="n">
         <v>3.05</v>
@@ -2470,10 +2470,10 @@
         <v>2.16</v>
       </c>
       <c r="V15" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W15" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X15" t="n">
         <v>970</v>
@@ -2560,19 +2560,19 @@
         <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="H16" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="I16" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="L16" t="n">
         <v>1.3</v>
@@ -2584,19 +2584,19 @@
         <v>3.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="R16" t="n">
         <v>1.37</v>
       </c>
       <c r="S16" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="T16" t="n">
         <v>1.05</v>
@@ -2608,7 +2608,7 @@
         <v>1.71</v>
       </c>
       <c r="W16" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2743,19 +2743,19 @@
         <v>1.42</v>
       </c>
       <c r="W17" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X17" t="n">
         <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AA17" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB17" t="n">
         <v>12</v>
@@ -2764,10 +2764,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AF17" t="n">
         <v>17</v>
@@ -2779,7 +2779,7 @@
         <v>17.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ17" t="n">
         <v>34</v>
@@ -2797,7 +2797,7 @@
         <v>19</v>
       </c>
       <c r="AO17" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -2827,25 +2827,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G18" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
         <v>3.75</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K18" t="n">
         <v>3.95</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -2860,13 +2860,13 @@
         <v>1.83</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R18" t="n">
         <v>1.32</v>
       </c>
       <c r="S18" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T18" t="n">
         <v>1.79</v>
@@ -2878,7 +2878,7 @@
         <v>1.31</v>
       </c>
       <c r="W18" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="X18" t="n">
         <v>16.5</v>
@@ -2896,7 +2896,7 @@
         <v>970</v>
       </c>
       <c r="AC18" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD18" t="n">
         <v>970</v>
@@ -2914,7 +2914,7 @@
         <v>970</v>
       </c>
       <c r="AI18" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="n">
         <v>27</v>
@@ -2923,7 +2923,7 @@
         <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AM18" t="n">
         <v>130</v>
@@ -2932,7 +2932,7 @@
         <v>970</v>
       </c>
       <c r="AO18" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -2971,13 +2971,13 @@
         <v>20</v>
       </c>
       <c r="I19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J19" t="n">
         <v>12</v>
       </c>
       <c r="K19" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="L19" t="n">
         <v>1.17</v>
@@ -2995,7 +2995,7 @@
         <v>3.35</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="R19" t="n">
         <v>1.92</v>
@@ -3007,7 +3007,7 @@
         <v>2.3</v>
       </c>
       <c r="U19" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="V19" t="n">
         <v>1.03</v>
@@ -3037,7 +3037,7 @@
         <v>970</v>
       </c>
       <c r="AE19" t="n">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="AF19" t="n">
         <v>9.199999999999999</v>
@@ -3049,10 +3049,10 @@
         <v>970</v>
       </c>
       <c r="AI19" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AJ19" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK19" t="n">
         <v>15</v>
@@ -3100,28 +3100,28 @@
         <v>2.08</v>
       </c>
       <c r="G20" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H20" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I20" t="n">
         <v>4.4</v>
       </c>
       <c r="J20" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="K20" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="O20" t="n">
         <v>1.05</v>
@@ -3130,7 +3130,7 @@
         <v>1.59</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="R20" t="n">
         <v>1.18</v>
@@ -3334,7 +3334,7 @@
         <v>400</v>
       </c>
       <c r="AN21" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H22" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="I22" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J22" t="n">
         <v>2.84</v>
@@ -3385,7 +3385,7 @@
         <v>3.25</v>
       </c>
       <c r="L22" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
         <v>1.11</v>
@@ -3400,7 +3400,7 @@
         <v>1.49</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="R22" t="n">
         <v>1.17</v>
@@ -3409,7 +3409,7 @@
         <v>5.6</v>
       </c>
       <c r="T22" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U22" t="n">
         <v>1.73</v>
@@ -3424,7 +3424,7 @@
         <v>8.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z22" t="n">
         <v>970</v>
@@ -3433,7 +3433,7 @@
         <v>42</v>
       </c>
       <c r="AB22" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AC22" t="n">
         <v>7.4</v>
@@ -3442,10 +3442,10 @@
         <v>970</v>
       </c>
       <c r="AE22" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AF22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
         <v>970</v>
@@ -3454,10 +3454,10 @@
         <v>970</v>
       </c>
       <c r="AI22" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ22" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AK22" t="n">
         <v>65</v>
@@ -3469,7 +3469,7 @@
         <v>240</v>
       </c>
       <c r="AN22" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AO22" t="n">
         <v>44</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G23" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="H23" t="n">
-        <v>2.5</v>
+        <v>2.26</v>
       </c>
       <c r="I23" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J23" t="n">
-        <v>2.76</v>
+        <v>2.24</v>
       </c>
       <c r="K23" t="n">
-        <v>3.45</v>
+        <v>950</v>
       </c>
       <c r="L23" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M23" t="n">
         <v>1.1</v>
@@ -3532,28 +3532,28 @@
         <v>1.47</v>
       </c>
       <c r="P23" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.34</v>
+        <v>1.97</v>
       </c>
       <c r="R23" t="n">
         <v>1.22</v>
       </c>
       <c r="S23" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U23" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V23" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="W23" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="X23" t="n">
         <v>11.5</v>
@@ -3649,7 +3649,7 @@
         <v>3.3</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K24" t="n">
         <v>3.35</v>
@@ -3670,28 +3670,28 @@
         <v>1.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R24" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S24" t="n">
         <v>4.5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="U24" t="n">
         <v>1.94</v>
       </c>
       <c r="V24" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W24" t="n">
         <v>1.63</v>
       </c>
       <c r="X24" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y24" t="n">
         <v>10.5</v>
@@ -3796,28 +3796,28 @@
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="P25" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R25" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="S25" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="T25" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U25" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V25" t="n">
         <v>1.27</v>
@@ -3826,19 +3826,19 @@
         <v>1.96</v>
       </c>
       <c r="X25" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA25" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC25" t="n">
         <v>8.199999999999999</v>
@@ -3850,34 +3850,34 @@
         <v>60</v>
       </c>
       <c r="AF25" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG25" t="n">
         <v>10.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI25" t="n">
         <v>70</v>
       </c>
       <c r="AJ25" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL25" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM25" t="n">
         <v>120</v>
       </c>
       <c r="AN25" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26">
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J26" t="n">
         <v>3.6</v>
       </c>
-      <c r="G26" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K26" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L26" t="n">
         <v>1.4</v>
@@ -3931,37 +3931,37 @@
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="O26" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="Q26" t="n">
         <v>1.95</v>
       </c>
       <c r="R26" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="S26" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="T26" t="n">
         <v>1.76</v>
       </c>
       <c r="U26" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V26" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="W26" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="X26" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y26" t="n">
         <v>10.5</v>
@@ -3970,49 +3970,49 @@
         <v>15</v>
       </c>
       <c r="AA26" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB26" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD26" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF26" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AG26" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH26" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK26" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AL26" t="n">
         <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
@@ -4069,19 +4069,19 @@
         <v>3.25</v>
       </c>
       <c r="O27" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P27" t="n">
         <v>1.76</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="R27" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T27" t="n">
         <v>1.95</v>
@@ -4096,10 +4096,10 @@
         <v>1.27</v>
       </c>
       <c r="X27" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z27" t="n">
         <v>11</v>
@@ -4108,7 +4108,7 @@
         <v>24</v>
       </c>
       <c r="AB27" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC27" t="n">
         <v>8</v>
@@ -4117,7 +4117,7 @@
         <v>10.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF27" t="n">
         <v>32</v>
@@ -4129,10 +4129,10 @@
         <v>22</v>
       </c>
       <c r="AI27" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK27" t="n">
         <v>70</v>
@@ -4141,13 +4141,13 @@
         <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN27" t="n">
         <v>85</v>
       </c>
       <c r="AO27" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -4183,10 +4183,10 @@
         <v>5.3</v>
       </c>
       <c r="H28" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I28" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="J28" t="n">
         <v>3.45</v>
@@ -4204,7 +4204,7 @@
         <v>3.35</v>
       </c>
       <c r="O28" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P28" t="n">
         <v>1.81</v>
@@ -4219,10 +4219,10 @@
         <v>3.6</v>
       </c>
       <c r="T28" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U28" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V28" t="n">
         <v>2.04</v>
@@ -4237,7 +4237,7 @@
         <v>8.6</v>
       </c>
       <c r="Z28" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA28" t="n">
         <v>22</v>
@@ -4246,7 +4246,7 @@
         <v>16.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
         <v>11</v>
@@ -4261,7 +4261,7 @@
         <v>21</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI28" t="n">
         <v>42</v>
@@ -4348,7 +4348,7 @@
         <v>1.78</v>
       </c>
       <c r="R29" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S29" t="n">
         <v>2.96</v>
@@ -4363,7 +4363,7 @@
         <v>1.79</v>
       </c>
       <c r="W29" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X29" t="n">
         <v>17</v>
@@ -4378,7 +4378,7 @@
         <v>28</v>
       </c>
       <c r="AB29" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC29" t="n">
         <v>8.4</v>
@@ -4402,7 +4402,7 @@
         <v>32</v>
       </c>
       <c r="AJ29" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK29" t="n">
         <v>36</v>
@@ -4414,7 +4414,7 @@
         <v>75</v>
       </c>
       <c r="AN29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO29" t="n">
         <v>14</v>
@@ -4471,16 +4471,16 @@
         <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O30" t="n">
         <v>1.35</v>
       </c>
       <c r="P30" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R30" t="n">
         <v>1.34</v>
@@ -4489,10 +4489,10 @@
         <v>3.75</v>
       </c>
       <c r="T30" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U30" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V30" t="n">
         <v>1.54</v>
@@ -4504,7 +4504,7 @@
         <v>12.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z30" t="n">
         <v>17.5</v>
@@ -4525,7 +4525,7 @@
         <v>32</v>
       </c>
       <c r="AF30" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG30" t="n">
         <v>13</v>
@@ -4609,19 +4609,19 @@
         <v>4.4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P31" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q31" t="n">
         <v>1.82</v>
       </c>
       <c r="R31" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S31" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T31" t="n">
         <v>1.83</v>
@@ -4630,7 +4630,7 @@
         <v>2.12</v>
       </c>
       <c r="V31" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W31" t="n">
         <v>2.4</v>
@@ -4645,7 +4645,7 @@
         <v>46</v>
       </c>
       <c r="AA31" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB31" t="n">
         <v>9.199999999999999</v>
@@ -4666,10 +4666,10 @@
         <v>9.6</v>
       </c>
       <c r="AH31" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ31" t="n">
         <v>17</v>
@@ -4681,7 +4681,7 @@
         <v>34</v>
       </c>
       <c r="AM31" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN31" t="n">
         <v>9.199999999999999</v>
@@ -4720,13 +4720,13 @@
         <v>1.66</v>
       </c>
       <c r="G32" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H32" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I32" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="J32" t="n">
         <v>3.45</v>
@@ -4738,13 +4738,13 @@
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="N32" t="n">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="O32" t="n">
-        <v>1.4</v>
+        <v>1.69</v>
       </c>
       <c r="P32" t="n">
         <v>1.42</v>
@@ -4753,7 +4753,7 @@
         <v>3.1</v>
       </c>
       <c r="R32" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="S32" t="n">
         <v>7.2</v>
@@ -4762,7 +4762,7 @@
         <v>2.58</v>
       </c>
       <c r="U32" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="V32" t="n">
         <v>1.13</v>
@@ -4771,34 +4771,34 @@
         <v>2.36</v>
       </c>
       <c r="X32" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Z32" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA32" t="n">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="AB32" t="n">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="AC32" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD32" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AE32" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="AF32" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AG32" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH32" t="n">
         <v>55</v>
@@ -4807,19 +4807,19 @@
         <v>380</v>
       </c>
       <c r="AJ32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL32" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM32" t="n">
         <v>640</v>
       </c>
       <c r="AN32" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO32" t="n">
         <v>770</v>
@@ -4855,7 +4855,7 @@
         <v>2.9</v>
       </c>
       <c r="G33" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H33" t="n">
         <v>2.8</v>
@@ -4873,13 +4873,13 @@
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N33" t="n">
-        <v>2.22</v>
+        <v>2.52</v>
       </c>
       <c r="O33" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="P33" t="n">
         <v>1.52</v>
@@ -4888,16 +4888,16 @@
         <v>2.7</v>
       </c>
       <c r="R33" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="S33" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="T33" t="n">
-        <v>1.05</v>
+        <v>2.1</v>
       </c>
       <c r="U33" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="V33" t="n">
         <v>1.53</v>
@@ -4906,58 +4906,58 @@
         <v>1.47</v>
       </c>
       <c r="X33" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z33" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AA33" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AB33" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC33" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD33" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG33" t="n">
         <v>17</v>
       </c>
-      <c r="AE33" t="n">
+      <c r="AH33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK33" t="n">
         <v>50</v>
       </c>
-      <c r="AF33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>55</v>
-      </c>
       <c r="AL33" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN33" t="n">
         <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
@@ -5014,7 +5014,7 @@
         <v>1.1</v>
       </c>
       <c r="O34" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P34" t="n">
         <v>1.24</v>
@@ -5026,7 +5026,7 @@
         <v>1.18</v>
       </c>
       <c r="S34" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="T34" t="n">
         <v>1.05</v>
@@ -5149,7 +5149,7 @@
         <v>1.25</v>
       </c>
       <c r="O35" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P35" t="n">
         <v>1.24</v>
@@ -5260,13 +5260,13 @@
         <v>2.74</v>
       </c>
       <c r="G36" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H36" t="n">
         <v>3.1</v>
       </c>
       <c r="I36" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="J36" t="n">
         <v>2.82</v>
@@ -5278,13 +5278,13 @@
         <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N36" t="n">
-        <v>2.08</v>
+        <v>2.38</v>
       </c>
       <c r="O36" t="n">
-        <v>1.34</v>
+        <v>1.64</v>
       </c>
       <c r="P36" t="n">
         <v>1.46</v>
@@ -5293,70 +5293,70 @@
         <v>2.94</v>
       </c>
       <c r="R36" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="S36" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="T36" t="n">
-        <v>1.89</v>
+        <v>2.22</v>
       </c>
       <c r="U36" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W36" t="n">
         <v>1.52</v>
       </c>
-      <c r="V36" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.51</v>
-      </c>
       <c r="X36" t="n">
-        <v>9.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="Y36" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="Z36" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AA36" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AB36" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AD36" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE36" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AF36" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AG36" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AH36" t="n">
         <v>970</v>
       </c>
       <c r="AI36" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ36" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AK36" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AL36" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN36" t="n">
         <v>1000</v>
@@ -5392,16 +5392,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G37" t="n">
         <v>2.76</v>
       </c>
       <c r="H37" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I37" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J37" t="n">
         <v>3.05</v>
@@ -5416,13 +5416,13 @@
         <v>1.11</v>
       </c>
       <c r="N37" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="O37" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P37" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q37" t="n">
         <v>2.38</v>
@@ -5434,40 +5434,40 @@
         <v>4.3</v>
       </c>
       <c r="T37" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U37" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V37" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W37" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X37" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y37" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD37" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE37" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF37" t="n">
         <v>17</v>
@@ -5530,19 +5530,19 @@
         <v>2.04</v>
       </c>
       <c r="G38" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H38" t="n">
         <v>4.5</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J38" t="n">
         <v>3.1</v>
       </c>
       <c r="K38" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L38" t="n">
         <v>1.53</v>
@@ -5560,7 +5560,7 @@
         <v>1.56</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R38" t="n">
         <v>1.2</v>
@@ -5569,58 +5569,58 @@
         <v>5.1</v>
       </c>
       <c r="T38" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U38" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V38" t="n">
         <v>1.25</v>
       </c>
       <c r="W38" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="X38" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z38" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA38" t="n">
         <v>140</v>
       </c>
       <c r="AB38" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD38" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AE38" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AF38" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AG38" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AI38" t="n">
         <v>120</v>
       </c>
       <c r="AJ38" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AK38" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AL38" t="n">
         <v>65</v>
@@ -5629,7 +5629,7 @@
         <v>220</v>
       </c>
       <c r="AN38" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AO38" t="n">
         <v>140</v>
@@ -5680,16 +5680,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P39" t="n">
         <v>1.24</v>
@@ -5698,76 +5698,76 @@
         <v>1.01</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO39"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,114 +653,114 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>12:34:41</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sariyer G.K.</t>
+          <t>FC Voluntari</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Amed Sportif Faaliyetler</t>
+          <t>CSA Steaua Bucuresti</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.5</v>
+        <v>1.21</v>
       </c>
       <c r="G2" t="n">
-        <v>4.9</v>
+        <v>1.22</v>
       </c>
       <c r="H2" t="n">
-        <v>1.83</v>
+        <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>2.3</v>
+        <v>80</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.01</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.32</v>
-      </c>
       <c r="S2" t="n">
-        <v>3.5</v>
+        <v>60</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>3.95</v>
       </c>
       <c r="U2" t="n">
-        <v>2.04</v>
+        <v>1.26</v>
       </c>
       <c r="V2" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.26</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>38</v>
+        <v>1.69</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK2" t="n">
         <v>1000</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>70</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -772,13 +772,13 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Romanian Liga II</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:02:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FC Voluntari</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CSA Steaua Bucuresti</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>3.85</v>
       </c>
       <c r="G3" t="n">
-        <v>110</v>
+        <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.09</v>
+        <v>2.22</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>2.32</v>
       </c>
       <c r="J3" t="n">
-        <v>1.09</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>3.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1</v>
+        <v>2.76</v>
       </c>
       <c r="O3" t="n">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="P3" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.02</v>
+        <v>2.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="S3" t="n">
-        <v>2.02</v>
+        <v>5.7</v>
       </c>
       <c r="T3" t="n">
-        <v>1.05</v>
+        <v>2.12</v>
       </c>
       <c r="U3" t="n">
-        <v>1.05</v>
+        <v>1.77</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.98</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>13.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.83</v>
+        <v>1.31</v>
       </c>
       <c r="I4" t="n">
-        <v>2.28</v>
+        <v>1.32</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
-        <v>980</v>
+        <v>6.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>1.9</v>
+        <v>2.22</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="R4" t="n">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
       <c r="S4" t="n">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="T4" t="n">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="U4" t="n">
-        <v>2.06</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>1.78</v>
+        <v>4.1</v>
       </c>
       <c r="W4" t="n">
-        <v>1.25</v>
+        <v>1.08</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G5" t="n">
         <v>2.6</v>
       </c>
-      <c r="G5" t="n">
-        <v>2.64</v>
-      </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I5" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L5" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="P5" t="n">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="R5" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="S5" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="U5" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="V5" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="W5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X5" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
         <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB5" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD5" t="n">
         <v>13.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN5" t="n">
         <v>28</v>
       </c>
-      <c r="AL5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>23</v>
-      </c>
       <c r="AO5" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.36</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>8.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3.35</v>
+        <v>1.47</v>
       </c>
       <c r="I6" t="n">
-        <v>3.45</v>
+        <v>1.49</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="K6" t="n">
-        <v>3.55</v>
+        <v>4.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>1.94</v>
+        <v>2.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="R6" t="n">
-        <v>1.35</v>
+        <v>1.51</v>
       </c>
       <c r="S6" t="n">
-        <v>3.65</v>
+        <v>2.9</v>
       </c>
       <c r="T6" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="U6" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="W6" t="n">
-        <v>1.71</v>
+        <v>1.13</v>
       </c>
       <c r="X6" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA6" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AB6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH6" t="n">
         <v>23</v>
       </c>
-      <c r="AA6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AI6" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
-        <v>32</v>
+        <v>700</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="AL6" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AM6" t="n">
-        <v>95</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>19.5</v>
+        <v>700</v>
       </c>
       <c r="AO6" t="n">
-        <v>38</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="G7" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="I7" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S7" t="n">
         <v>3.4</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="T7" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U7" t="n">
         <v>2.18</v>
       </c>
-      <c r="R7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V7" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="W7" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="X7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z7" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB7" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI7" t="n">
         <v>36</v>
       </c>
-      <c r="AG7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>44</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AK7" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AL7" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="AN7" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AO7" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="8">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="G8" t="n">
-        <v>2.34</v>
+        <v>4.8</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>1.96</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
         <v>3.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P8" t="n">
         <v>1.93</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R8" t="n">
         <v>1.36</v>
       </c>
       <c r="S8" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="U8" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="V8" t="n">
-        <v>1.4</v>
+        <v>2.02</v>
       </c>
       <c r="W8" t="n">
-        <v>1.74</v>
+        <v>1.26</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>8.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="AB8" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC8" t="n">
         <v>7.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>14.5</v>
+        <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="AH8" t="n">
         <v>18</v>
       </c>
       <c r="AI8" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="AK8" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AL8" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AM8" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>19.5</v>
+        <v>85</v>
       </c>
       <c r="AO8" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>2.84</v>
       </c>
       <c r="G9" t="n">
-        <v>6.2</v>
+        <v>2.86</v>
       </c>
       <c r="H9" t="n">
-        <v>1.65</v>
+        <v>2.86</v>
       </c>
       <c r="I9" t="n">
-        <v>1.67</v>
+        <v>2.88</v>
       </c>
       <c r="J9" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>4.4</v>
+        <v>3.35</v>
       </c>
       <c r="L9" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.85</v>
+        <v>2.18</v>
       </c>
       <c r="R9" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="S9" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U9" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>2.48</v>
+        <v>1.51</v>
       </c>
       <c r="W9" t="n">
-        <v>1.19</v>
+        <v>1.54</v>
       </c>
       <c r="X9" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y9" t="n">
         <v>10.5</v>
       </c>
       <c r="Z9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB9" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>21</v>
-      </c>
       <c r="AC9" t="n">
-        <v>9.4</v>
+        <v>7</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AF9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI9" t="n">
         <v>48</v>
       </c>
-      <c r="AG9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="AK9" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="AL9" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="AO9" t="n">
-        <v>9.6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.62</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.66</v>
+        <v>2.02</v>
       </c>
       <c r="H10" t="n">
-        <v>2.92</v>
+        <v>4.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.05</v>
+        <v>4.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="O10" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="R10" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S10" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="T10" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="U10" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.49</v>
+        <v>1.29</v>
       </c>
       <c r="W10" t="n">
-        <v>1.6</v>
+        <v>1.98</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AA10" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AB10" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
         <v>90</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>2.96</v>
       </c>
       <c r="G11" t="n">
-        <v>11.5</v>
+        <v>2.98</v>
       </c>
       <c r="H11" t="n">
-        <v>1.39</v>
+        <v>2.84</v>
       </c>
       <c r="I11" t="n">
-        <v>1.4</v>
+        <v>2.86</v>
       </c>
       <c r="J11" t="n">
-        <v>5.4</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>5.7</v>
+        <v>3.25</v>
       </c>
       <c r="L11" t="n">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>2.96</v>
       </c>
       <c r="O11" t="n">
-        <v>1.27</v>
+        <v>1.49</v>
       </c>
       <c r="P11" t="n">
-        <v>2.08</v>
+        <v>1.64</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.79</v>
+        <v>2.52</v>
       </c>
       <c r="R11" t="n">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="V11" t="n">
-        <v>3.5</v>
+        <v>1.54</v>
       </c>
       <c r="W11" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="X11" t="n">
-        <v>18.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z11" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AA11" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="AB11" t="n">
-        <v>32</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>12.5</v>
+        <v>6.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
-        <v>15.5</v>
+        <v>36</v>
       </c>
       <c r="AF11" t="n">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="AG11" t="n">
-        <v>40</v>
+        <v>13.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>460</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="n">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="AL11" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="AM11" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AN11" t="n">
-        <v>280</v>
+        <v>44</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,123 +2003,123 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Al-Anwar Club</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="G12" t="n">
-        <v>3.85</v>
+        <v>5.3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.04</v>
+        <v>1.78</v>
       </c>
       <c r="I12" t="n">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
         <v>4.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.64</v>
+        <v>1.85</v>
       </c>
       <c r="R12" t="n">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="S12" t="n">
-        <v>2.62</v>
+        <v>3.15</v>
       </c>
       <c r="T12" t="n">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="U12" t="n">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="V12" t="n">
-        <v>1.92</v>
+        <v>2.16</v>
       </c>
       <c r="W12" t="n">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="X12" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AB12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH12" t="n">
         <v>21</v>
       </c>
-      <c r="AC12" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AI12" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AK12" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM12" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AN12" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AO12" t="n">
         <v>11.5</v>
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Al-Anwar Club</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>Al-Raed (KSA)</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.3</v>
+        <v>5.3</v>
       </c>
       <c r="G13" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="I13" t="n">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="J13" t="n">
-        <v>3.05</v>
+        <v>4.1</v>
       </c>
       <c r="K13" t="n">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>1.75</v>
+        <v>2.24</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="S13" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="T13" t="n">
-        <v>1.05</v>
+        <v>1.76</v>
       </c>
       <c r="U13" t="n">
-        <v>1.05</v>
+        <v>2.18</v>
       </c>
       <c r="V13" t="n">
-        <v>1.71</v>
+        <v>2.32</v>
       </c>
       <c r="W13" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Al-Raed (KSA)</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.8</v>
+        <v>2.04</v>
       </c>
       <c r="G14" t="n">
-        <v>6.2</v>
+        <v>2.14</v>
       </c>
       <c r="H14" t="n">
-        <v>1.66</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
-        <v>1.82</v>
+        <v>4.2</v>
       </c>
       <c r="J14" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N14" t="n">
         <v>3.9</v>
       </c>
-      <c r="K14" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.2</v>
-      </c>
       <c r="O14" t="n">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="R14" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="S14" t="n">
-        <v>2.62</v>
+        <v>3.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.05</v>
+        <v>1.77</v>
       </c>
       <c r="U14" t="n">
-        <v>1.05</v>
+        <v>2.16</v>
       </c>
       <c r="V14" t="n">
-        <v>2.2</v>
+        <v>1.31</v>
       </c>
       <c r="W14" t="n">
-        <v>1.19</v>
+        <v>1.87</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.44</v>
+        <v>3.7</v>
       </c>
       <c r="G15" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>2.56</v>
+        <v>2.02</v>
       </c>
       <c r="I15" t="n">
-        <v>3.65</v>
+        <v>2.12</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="W15" t="n">
         <v>1.35</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.47</v>
-      </c>
       <c r="X15" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>24</v>
+        <v>14.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AB15" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AC15" t="n">
-        <v>970</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN15" t="n">
         <v>40</v>
       </c>
-      <c r="AF15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>27</v>
-      </c>
       <c r="AO15" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,126 +2543,126 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Al Batin</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>2.22</v>
       </c>
       <c r="G16" t="n">
-        <v>4.9</v>
+        <v>2.26</v>
       </c>
       <c r="H16" t="n">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.4</v>
+        <v>3.65</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
-        <v>7.8</v>
+        <v>3.75</v>
       </c>
       <c r="L16" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P16" t="n">
-        <v>1.81</v>
+        <v>2.1</v>
       </c>
       <c r="Q16" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.73</v>
       </c>
-      <c r="R16" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.05</v>
-      </c>
       <c r="U16" t="n">
-        <v>1.05</v>
+        <v>2.34</v>
       </c>
       <c r="V16" t="n">
-        <v>1.71</v>
+        <v>1.38</v>
       </c>
       <c r="W16" t="n">
-        <v>1.26</v>
+        <v>1.79</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.28</v>
+        <v>1.11</v>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>1.12</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="I17" t="n">
-        <v>3.35</v>
+        <v>36</v>
       </c>
       <c r="J17" t="n">
-        <v>3.5</v>
+        <v>13.5</v>
       </c>
       <c r="K17" t="n">
-        <v>3.95</v>
+        <v>15.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>3.95</v>
+        <v>9.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.28</v>
+        <v>1.1</v>
       </c>
       <c r="P17" t="n">
-        <v>2.02</v>
+        <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.83</v>
+        <v>1.34</v>
       </c>
       <c r="R17" t="n">
-        <v>1.41</v>
+        <v>2.08</v>
       </c>
       <c r="S17" t="n">
-        <v>3.05</v>
+        <v>1.91</v>
       </c>
       <c r="T17" t="n">
-        <v>1.68</v>
+        <v>2.34</v>
       </c>
       <c r="U17" t="n">
-        <v>2.22</v>
+        <v>1.66</v>
       </c>
       <c r="V17" t="n">
-        <v>1.42</v>
+        <v>1.03</v>
       </c>
       <c r="W17" t="n">
-        <v>1.65</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X17" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>360</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG17" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>12</v>
-      </c>
       <c r="AH17" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AI17" t="n">
-        <v>46</v>
+        <v>350</v>
       </c>
       <c r="AJ17" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AL17" t="n">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="AM17" t="n">
-        <v>85</v>
+        <v>410</v>
       </c>
       <c r="AN17" t="n">
-        <v>19</v>
+        <v>2.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.99</v>
+        <v>2.66</v>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>2.74</v>
       </c>
       <c r="H18" t="n">
-        <v>3.75</v>
+        <v>2.72</v>
       </c>
       <c r="I18" t="n">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="J18" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K18" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="P18" t="n">
-        <v>1.83</v>
+        <v>2.22</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.97</v>
+        <v>1.77</v>
       </c>
       <c r="R18" t="n">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
       <c r="S18" t="n">
-        <v>3.5</v>
+        <v>2.96</v>
       </c>
       <c r="T18" t="n">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="U18" t="n">
-        <v>2.02</v>
+        <v>2.44</v>
       </c>
       <c r="V18" t="n">
-        <v>1.31</v>
+        <v>1.55</v>
       </c>
       <c r="W18" t="n">
-        <v>1.84</v>
+        <v>1.57</v>
       </c>
       <c r="X18" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="Z18" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AA18" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="AB18" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="AF18" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AI18" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AJ18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK18" t="n">
         <v>27</v>
       </c>
-      <c r="AK18" t="n">
-        <v>24</v>
-      </c>
       <c r="AL18" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AM18" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Pharco FC</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.11</v>
+        <v>3.6</v>
       </c>
       <c r="G19" t="n">
-        <v>1.15</v>
+        <v>3.75</v>
       </c>
       <c r="H19" t="n">
-        <v>20</v>
+        <v>2.46</v>
       </c>
       <c r="I19" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X19" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE19" t="n">
         <v>36</v>
       </c>
-      <c r="J19" t="n">
-        <v>12</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="AF19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG19" t="n">
         <v>16</v>
       </c>
-      <c r="L19" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N19" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W19" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="X19" t="n">
-        <v>970</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>340</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>550</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH19" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9.800000000000001</v>
+        <v>110</v>
       </c>
       <c r="AK19" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AL19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>80</v>
+      </c>
+      <c r="AO19" t="n">
         <v>48</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>400</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.08</v>
+        <v>3.65</v>
       </c>
       <c r="G20" t="n">
-        <v>2.88</v>
+        <v>3.85</v>
       </c>
       <c r="H20" t="n">
-        <v>2.88</v>
+        <v>2.48</v>
       </c>
       <c r="I20" t="n">
-        <v>4.4</v>
+        <v>2.56</v>
       </c>
       <c r="J20" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K20" t="n">
-        <v>5.8</v>
+        <v>3.05</v>
       </c>
       <c r="L20" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="W20" t="n">
         <v>1.35</v>
       </c>
-      <c r="M20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.53</v>
-      </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="21">
@@ -3232,118 +3232,118 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="G21" t="n">
         <v>1.37</v>
       </c>
       <c r="H21" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="I21" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P21" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="R21" t="n">
         <v>1.32</v>
       </c>
       <c r="S21" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="T21" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="U21" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="V21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W21" t="n">
         <v>3.7</v>
       </c>
       <c r="X21" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="Z21" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB21" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AD21" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AE21" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="AF21" t="n">
         <v>7</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AI21" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="AJ21" t="n">
         <v>10.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM21" t="n">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="AN21" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>730</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Pharco FC</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.45</v>
+        <v>2.62</v>
       </c>
       <c r="G22" t="n">
-        <v>3.95</v>
+        <v>2.86</v>
       </c>
       <c r="H22" t="n">
-        <v>2.34</v>
+        <v>2.86</v>
       </c>
       <c r="I22" t="n">
-        <v>2.66</v>
+        <v>3.15</v>
       </c>
       <c r="J22" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M22" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>2.46</v>
+        <v>3.4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.57</v>
+        <v>1.35</v>
       </c>
       <c r="P22" t="n">
-        <v>1.49</v>
+        <v>1.79</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.64</v>
+        <v>2.08</v>
       </c>
       <c r="R22" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="S22" t="n">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="T22" t="n">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="U22" t="n">
-        <v>1.73</v>
+        <v>2.06</v>
       </c>
       <c r="V22" t="n">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="W22" t="n">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
       <c r="X22" t="n">
-        <v>8.6</v>
+        <v>22</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.800000000000001</v>
+        <v>28</v>
       </c>
       <c r="Z22" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.4</v>
+        <v>13</v>
       </c>
       <c r="AD22" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AE22" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AH22" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AI22" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="AK22" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AO22" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>KF Drita</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Al-Masry</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.05</v>
+        <v>4.7</v>
       </c>
       <c r="G23" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="H23" t="n">
-        <v>2.26</v>
+        <v>1.89</v>
       </c>
       <c r="I23" t="n">
-        <v>3.2</v>
+        <v>1.91</v>
       </c>
       <c r="J23" t="n">
-        <v>2.24</v>
+        <v>3.7</v>
       </c>
       <c r="K23" t="n">
-        <v>950</v>
+        <v>3.75</v>
       </c>
       <c r="L23" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M23" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>2.84</v>
+        <v>3.55</v>
       </c>
       <c r="O23" t="n">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>1.53</v>
+        <v>1.86</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="R23" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="S23" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="T23" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U23" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="V23" t="n">
-        <v>1.46</v>
+        <v>2.08</v>
       </c>
       <c r="W23" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="X23" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z23" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AA23" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="AB23" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC23" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>14.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE23" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="AF23" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AG23" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AJ23" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK23" t="n">
         <v>70</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>55</v>
       </c>
       <c r="AL23" t="n">
         <v>75</v>
       </c>
       <c r="AM23" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="AN23" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AO23" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.56</v>
+        <v>1.95</v>
       </c>
       <c r="G24" t="n">
-        <v>2.58</v>
+        <v>1.98</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3</v>
+        <v>4.9</v>
       </c>
       <c r="J24" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K24" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="L24" t="n">
         <v>1.49</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O24" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P24" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="R24" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S24" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="T24" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="U24" t="n">
         <v>1.94</v>
       </c>
       <c r="V24" t="n">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="W24" t="n">
-        <v>1.63</v>
+        <v>2.02</v>
       </c>
       <c r="X24" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="Y24" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG24" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z24" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>12</v>
-      </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AJ24" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AK24" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AL24" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AM24" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN24" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>48</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.95</v>
+        <v>2.98</v>
       </c>
       <c r="G25" t="n">
-        <v>2.04</v>
+        <v>3.05</v>
       </c>
       <c r="H25" t="n">
-        <v>4.1</v>
+        <v>2.62</v>
       </c>
       <c r="I25" t="n">
-        <v>4.8</v>
+        <v>2.64</v>
       </c>
       <c r="J25" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K25" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="P25" t="n">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="R25" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="S25" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="U25" t="n">
-        <v>1.99</v>
+        <v>2.26</v>
       </c>
       <c r="V25" t="n">
-        <v>1.27</v>
+        <v>1.6</v>
       </c>
       <c r="W25" t="n">
-        <v>1.96</v>
+        <v>1.48</v>
       </c>
       <c r="X25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG25" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y25" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z25" t="n">
+      <c r="AH25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK25" t="n">
         <v>34</v>
       </c>
-      <c r="AA25" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK25" t="n">
+      <c r="AL25" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO25" t="n">
         <v>22</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>65</v>
       </c>
     </row>
     <row r="26">
@@ -3898,25 +3898,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="G26" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="H26" t="n">
-        <v>2.28</v>
+        <v>1.91</v>
       </c>
       <c r="I26" t="n">
-        <v>2.36</v>
+        <v>1.93</v>
       </c>
       <c r="J26" t="n">
         <v>3.6</v>
@@ -3925,100 +3925,100 @@
         <v>3.7</v>
       </c>
       <c r="L26" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="O26" t="n">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="P26" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.95</v>
+        <v>2.34</v>
       </c>
       <c r="R26" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="S26" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="T26" t="n">
-        <v>1.76</v>
+        <v>2.06</v>
       </c>
       <c r="U26" t="n">
-        <v>2.14</v>
+        <v>1.86</v>
       </c>
       <c r="V26" t="n">
-        <v>1.73</v>
+        <v>2.06</v>
       </c>
       <c r="W26" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="X26" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y26" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z26" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z26" t="n">
-        <v>15</v>
-      </c>
       <c r="AA26" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AB26" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC26" t="n">
         <v>8</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF26" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AG26" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AI26" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AJ26" t="n">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="AK26" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM26" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="AN26" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="G27" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N27" t="n">
+        <v>6</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="V27" t="n">
         <v>1.98</v>
       </c>
-      <c r="J27" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S27" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2.02</v>
-      </c>
       <c r="W27" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="X27" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB27" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AC27" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD27" t="n">
         <v>10.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AF27" t="n">
         <v>32</v>
       </c>
       <c r="AG27" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AH27" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AJ27" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AK27" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM27" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="AN27" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="AO27" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>KF Drita</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4.7</v>
+        <v>2.84</v>
       </c>
       <c r="G28" t="n">
-        <v>5.3</v>
+        <v>2.88</v>
       </c>
       <c r="H28" t="n">
-        <v>1.84</v>
+        <v>2.84</v>
       </c>
       <c r="I28" t="n">
-        <v>1.96</v>
+        <v>2.88</v>
       </c>
       <c r="J28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N28" t="n">
         <v>3.45</v>
       </c>
-      <c r="K28" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3.35</v>
-      </c>
       <c r="O28" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="P28" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="R28" t="n">
         <v>1.31</v>
       </c>
       <c r="S28" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="U28" t="n">
-        <v>1.94</v>
+        <v>2.14</v>
       </c>
       <c r="V28" t="n">
-        <v>2.04</v>
+        <v>1.53</v>
       </c>
       <c r="W28" t="n">
-        <v>1.23</v>
+        <v>1.53</v>
       </c>
       <c r="X28" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="AB28" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AF28" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AG28" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AJ28" t="n">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL28" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AM28" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AN28" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="AO28" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.45</v>
+        <v>1.67</v>
       </c>
       <c r="G29" t="n">
-        <v>3.55</v>
+        <v>1.68</v>
       </c>
       <c r="H29" t="n">
-        <v>2.22</v>
+        <v>5.9</v>
       </c>
       <c r="I29" t="n">
-        <v>2.26</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="K29" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="L29" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M29" t="n">
         <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O29" t="n">
         <v>1.26</v>
       </c>
       <c r="P29" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R29" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S29" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="T29" t="n">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="U29" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="V29" t="n">
-        <v>1.79</v>
+        <v>1.2</v>
       </c>
       <c r="W29" t="n">
-        <v>1.39</v>
+        <v>2.48</v>
       </c>
       <c r="X29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y29" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Z29" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="AA29" t="n">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="AB29" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>16</v>
       </c>
-      <c r="AC29" t="n">
+      <c r="AK29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN29" t="n">
         <v>8.4</v>
       </c>
-      <c r="AD29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM29" t="n">
+      <c r="AO29" t="n">
         <v>75</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.8</v>
+        <v>2.34</v>
       </c>
       <c r="G30" t="n">
-        <v>2.88</v>
+        <v>2.36</v>
       </c>
       <c r="H30" t="n">
-        <v>2.78</v>
+        <v>3.65</v>
       </c>
       <c r="I30" t="n">
-        <v>2.84</v>
+        <v>3.7</v>
       </c>
       <c r="J30" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K30" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L30" t="n">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="M30" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N30" t="n">
-        <v>3.65</v>
+        <v>3.05</v>
       </c>
       <c r="O30" t="n">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="P30" t="n">
-        <v>1.87</v>
+        <v>1.66</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.08</v>
+        <v>2.48</v>
       </c>
       <c r="R30" t="n">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="S30" t="n">
-        <v>3.75</v>
+        <v>4.9</v>
       </c>
       <c r="T30" t="n">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="U30" t="n">
-        <v>2.14</v>
+        <v>1.92</v>
       </c>
       <c r="V30" t="n">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="W30" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="X30" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y30" t="n">
         <v>11</v>
       </c>
       <c r="Z30" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AA30" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AB30" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG30" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC30" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE30" t="n">
+      <c r="AH30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>32</v>
       </c>
-      <c r="AF30" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>44</v>
-      </c>
       <c r="AK30" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL30" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM30" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AN30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO30" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Sportivo San Lorenzo</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.69</v>
+        <v>3.05</v>
       </c>
       <c r="G31" t="n">
-        <v>1.71</v>
+        <v>3.2</v>
       </c>
       <c r="H31" t="n">
-        <v>5.6</v>
+        <v>2.6</v>
       </c>
       <c r="I31" t="n">
-        <v>5.8</v>
+        <v>2.76</v>
       </c>
       <c r="J31" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="K31" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="M31" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>4.4</v>
+        <v>2.98</v>
       </c>
       <c r="O31" t="n">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="P31" t="n">
-        <v>2.16</v>
+        <v>1.64</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.82</v>
+        <v>2.44</v>
       </c>
       <c r="R31" t="n">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="S31" t="n">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="T31" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="U31" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="V31" t="n">
-        <v>1.21</v>
+        <v>1.58</v>
       </c>
       <c r="W31" t="n">
-        <v>2.4</v>
+        <v>1.46</v>
       </c>
       <c r="X31" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="Y31" t="n">
-        <v>21</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z31" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="AA31" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AF31" t="n">
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>9.6</v>
+        <v>13.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AI31" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="n">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="AK31" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="AL31" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="AM31" t="n">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>9.199999999999999</v>
+        <v>600</v>
       </c>
       <c r="AO31" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Union Magdalena</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Estudiantes Rio Cuarto</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F32" t="n">
         <v>1.66</v>
       </c>
       <c r="G32" t="n">
-        <v>1.73</v>
+        <v>2.92</v>
       </c>
       <c r="H32" t="n">
-        <v>7.2</v>
+        <v>2.54</v>
       </c>
       <c r="I32" t="n">
-        <v>8.6</v>
+        <v>17</v>
       </c>
       <c r="J32" t="n">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="K32" t="n">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.16</v>
+        <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>2.28</v>
+        <v>1.1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.69</v>
+        <v>1.47</v>
       </c>
       <c r="P32" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.1</v>
+        <v>1.47</v>
       </c>
       <c r="R32" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="S32" t="n">
-        <v>7.2</v>
+        <v>1.05</v>
       </c>
       <c r="T32" t="n">
-        <v>2.58</v>
+        <v>1.05</v>
       </c>
       <c r="U32" t="n">
-        <v>1.47</v>
+        <v>1.05</v>
       </c>
       <c r="V32" t="n">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="W32" t="n">
-        <v>2.36</v>
+        <v>1.53</v>
       </c>
       <c r="X32" t="n">
-        <v>7.4</v>
+        <v>500</v>
       </c>
       <c r="Y32" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="AD32" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>640</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>770</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,123 +4838,123 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.9</v>
+        <v>2.58</v>
       </c>
       <c r="G33" t="n">
-        <v>3.1</v>
+        <v>2.62</v>
       </c>
       <c r="H33" t="n">
-        <v>2.8</v>
+        <v>3.35</v>
       </c>
       <c r="I33" t="n">
-        <v>2.88</v>
+        <v>3.45</v>
       </c>
       <c r="J33" t="n">
         <v>3.1</v>
       </c>
       <c r="K33" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M33" t="n">
         <v>1.12</v>
       </c>
       <c r="N33" t="n">
-        <v>2.52</v>
+        <v>3</v>
       </c>
       <c r="O33" t="n">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="P33" t="n">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="R33" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="S33" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="T33" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="U33" t="n">
-        <v>1.72</v>
+        <v>1.93</v>
       </c>
       <c r="V33" t="n">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="W33" t="n">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
       <c r="X33" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Y33" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB33" t="n">
         <v>8.4</v>
       </c>
-      <c r="Z33" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AC33" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AD33" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE33" t="n">
         <v>46</v>
       </c>
       <c r="AF33" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AG33" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI33" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ33" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK33" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AL33" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AM33" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO33" t="n">
         <v>60</v>
@@ -4973,801 +4973,126 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Sportivo San Lorenzo</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M34" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N34" t="n">
-        <v>1.1</v>
+        <v>2.84</v>
       </c>
       <c r="O34" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="P34" t="n">
-        <v>1.24</v>
+        <v>1.59</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.01</v>
+        <v>2.58</v>
       </c>
       <c r="R34" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S34" t="n">
-        <v>1.05</v>
+        <v>5.1</v>
       </c>
       <c r="T34" t="n">
-        <v>1.05</v>
+        <v>2.1</v>
       </c>
       <c r="U34" t="n">
-        <v>1.05</v>
+        <v>1.79</v>
       </c>
       <c r="V34" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="W34" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="X34" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Y34" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB34" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC34" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD34" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AF34" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH34" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK34" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2026-02-19</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Union Magdalena</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Envigado</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K35" t="n">
-        <v>950</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2026-02-19</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>19:30:00</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Independiente Rivadavia</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>CA Independiente</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="G36" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="H36" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N36" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S36" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="T36" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X36" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2026-02-19</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>19:30:00</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Athletico-PR</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Corinthians</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="H37" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="X37" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2026-02-19</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>19:30:00</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Instituto</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Atl Tucuman</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="H38" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I38" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K38" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T38" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="X38" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Paraguayan Primera Division</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2026-02-19</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Nacional (Par)</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Club Sportivo Ameliano</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W39" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO34"/>
+  <dimension ref="A1:AP32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,11 +639,16 @@
           <t>Odd_CS_Goleada_A_Lay</t>
         </is>
       </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>SnapshotTS</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Romanian Liga II</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,114 +658,114 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:34:41</t>
+          <t>14:02:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FC Voluntari</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CSA Steaua Bucuresti</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.21</v>
+        <v>4.1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.22</v>
+        <v>4.3</v>
       </c>
       <c r="H2" t="n">
-        <v>48</v>
+        <v>2.76</v>
       </c>
       <c r="I2" t="n">
-        <v>80</v>
+        <v>2.86</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>2.42</v>
       </c>
       <c r="K2" t="n">
-        <v>6.6</v>
+        <v>2.52</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="N2" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>2.56</v>
       </c>
       <c r="P2" t="n">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.2</v>
+        <v>6.8</v>
       </c>
       <c r="R2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="S2" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="T2" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="U2" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.69</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11.5</v>
+        <v>200</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -772,13 +777,18 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>260</v>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +798,131 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:02:30</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.85</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>4.1</v>
+        <v>14</v>
       </c>
       <c r="H3" t="n">
-        <v>2.22</v>
+        <v>1.32</v>
       </c>
       <c r="I3" t="n">
-        <v>2.32</v>
+        <v>1.33</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>5.7</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>5.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.82</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>2.76</v>
+        <v>4.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.55</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>1.59</v>
+        <v>2.08</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.6</v>
+        <v>1.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="S3" t="n">
-        <v>5.7</v>
+        <v>3.45</v>
       </c>
       <c r="T3" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="U3" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="V3" t="n">
-        <v>1.78</v>
+        <v>4</v>
       </c>
       <c r="W3" t="n">
-        <v>1.33</v>
+        <v>1.07</v>
       </c>
       <c r="X3" t="n">
-        <v>9.4</v>
+        <v>18</v>
       </c>
       <c r="Y3" t="n">
         <v>7.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AB3" t="n">
         <v>36</v>
       </c>
-      <c r="AB3" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AC3" t="n">
-        <v>7.2</v>
+        <v>12.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AI3" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ3" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="AL3" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AM3" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="AN3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>34</v>
+        <v>6</v>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -928,121 +943,126 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
+        <v>2.5</v>
       </c>
       <c r="G4" t="n">
-        <v>13.5</v>
+        <v>2.56</v>
       </c>
       <c r="H4" t="n">
-        <v>1.31</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>1.32</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>6.2</v>
+        <v>3.35</v>
       </c>
       <c r="L4" t="n">
-        <v>1.35</v>
+        <v>1.51</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>4.7</v>
+        <v>3.15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="P4" t="n">
-        <v>2.22</v>
+        <v>1.69</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.78</v>
+        <v>2.38</v>
       </c>
       <c r="R4" t="n">
-        <v>1.49</v>
+        <v>1.26</v>
       </c>
       <c r="S4" t="n">
-        <v>2.98</v>
+        <v>4.6</v>
       </c>
       <c r="T4" t="n">
-        <v>2.3</v>
+        <v>1.96</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.97</v>
       </c>
       <c r="V4" t="n">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="W4" t="n">
-        <v>1.08</v>
+        <v>1.66</v>
       </c>
       <c r="X4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH4" t="n">
         <v>21</v>
       </c>
-      <c r="Y4" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>130</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>48</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>34</v>
-      </c>
       <c r="AI4" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="n">
-        <v>610</v>
+        <v>42</v>
       </c>
       <c r="AK4" t="n">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="AL4" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="AN4" t="n">
-        <v>450</v>
+        <v>32</v>
       </c>
       <c r="AO4" t="n">
-        <v>5.4</v>
+        <v>55</v>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1063,121 +1083,126 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.54</v>
+        <v>7.2</v>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>7.4</v>
       </c>
       <c r="H5" t="n">
-        <v>3.15</v>
+        <v>1.49</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>3.35</v>
+        <v>5.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>1.78</v>
+        <v>2.48</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.24</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
-        <v>1.29</v>
+        <v>1.6</v>
       </c>
       <c r="S5" t="n">
-        <v>4.2</v>
+        <v>2.56</v>
       </c>
       <c r="T5" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="n">
         <v>2.06</v>
       </c>
       <c r="V5" t="n">
-        <v>1.44</v>
+        <v>2.84</v>
       </c>
       <c r="W5" t="n">
-        <v>1.62</v>
+        <v>1.15</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="Y5" t="n">
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>55</v>
+        <v>13.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.199999999999999</v>
+        <v>28</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.2</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="AF5" t="n">
-        <v>15.5</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AH5" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AJ5" t="n">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="AK5" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="AL5" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="n">
         <v>120</v>
       </c>
       <c r="AN5" t="n">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="AO5" t="n">
-        <v>42</v>
+        <v>5.9</v>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1198,127 +1223,132 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8.199999999999999</v>
+        <v>3.95</v>
       </c>
       <c r="G6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y6" t="n">
         <v>8.6</v>
       </c>
-      <c r="H6" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>3</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH6" t="n">
         <v>21</v>
       </c>
-      <c r="Y6" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>23</v>
-      </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AJ6" t="n">
-        <v>700</v>
+        <v>110</v>
       </c>
       <c r="AK6" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AL6" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="AN6" t="n">
-        <v>700</v>
+        <v>80</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.4</v>
+        <v>20</v>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,121 +1363,126 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="G7" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="P7" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="R7" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T7" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="U7" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="V7" t="n">
         <v>2.04</v>
       </c>
       <c r="W7" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="X7" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
         <v>11.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AO7" t="n">
         <v>16.5</v>
       </c>
-      <c r="AC7" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>13.5</v>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1503,126 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.7</v>
+        <v>3.05</v>
       </c>
       <c r="G8" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.95</v>
+        <v>2.68</v>
       </c>
       <c r="I8" t="n">
-        <v>1.96</v>
+        <v>2.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="L8" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="P8" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="R8" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U8" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>2.02</v>
+        <v>1.58</v>
       </c>
       <c r="W8" t="n">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AA8" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AB8" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>570</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO8" t="n">
         <v>34</v>
       </c>
-      <c r="AG8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>85</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>14</v>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1643,126 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.84</v>
+        <v>2.04</v>
       </c>
       <c r="G9" t="n">
-        <v>2.86</v>
+        <v>2.06</v>
       </c>
       <c r="H9" t="n">
-        <v>2.86</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.88</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R9" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
-        <v>1.51</v>
+        <v>1.31</v>
       </c>
       <c r="W9" t="n">
-        <v>1.54</v>
+        <v>1.96</v>
       </c>
       <c r="X9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF9" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AG9" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AJ9" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="AK9" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AO9" t="n">
-        <v>32</v>
+        <v>75</v>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1738,127 +1783,132 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>3.05</v>
       </c>
       <c r="G10" t="n">
-        <v>2.02</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
-        <v>4.3</v>
+        <v>2.74</v>
       </c>
       <c r="I10" t="n">
-        <v>4.4</v>
+        <v>2.78</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="L10" t="n">
-        <v>1.43</v>
+        <v>1.69</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>3.95</v>
+        <v>2.72</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="P10" t="n">
-        <v>1.98</v>
+        <v>1.57</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.99</v>
+        <v>2.74</v>
       </c>
       <c r="R10" t="n">
-        <v>1.37</v>
+        <v>1.19</v>
       </c>
       <c r="S10" t="n">
-        <v>3.55</v>
+        <v>5.9</v>
       </c>
       <c r="T10" t="n">
-        <v>1.81</v>
+        <v>2.2</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>1.78</v>
       </c>
       <c r="V10" t="n">
-        <v>1.29</v>
+        <v>1.55</v>
       </c>
       <c r="W10" t="n">
-        <v>1.98</v>
+        <v>1.48</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>8.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>16</v>
+        <v>7.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>30</v>
+        <v>15.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="AB10" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF10" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.800000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO10" t="n">
         <v>55</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>60</v>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,126 +1918,131 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Al-Anwar Club</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.96</v>
+        <v>5.8</v>
       </c>
       <c r="G11" t="n">
-        <v>2.98</v>
+        <v>6.8</v>
       </c>
       <c r="H11" t="n">
-        <v>2.84</v>
+        <v>1.65</v>
       </c>
       <c r="I11" t="n">
-        <v>2.86</v>
+        <v>1.69</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.56</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>2.96</v>
+        <v>4.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.49</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>1.64</v>
+        <v>2.14</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.52</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>3.05</v>
       </c>
       <c r="T11" t="n">
-        <v>2.06</v>
+        <v>1.79</v>
       </c>
       <c r="U11" t="n">
-        <v>1.91</v>
+        <v>1.05</v>
       </c>
       <c r="V11" t="n">
-        <v>1.54</v>
+        <v>2.44</v>
       </c>
       <c r="W11" t="n">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="X11" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD11" t="n">
         <v>9.6</v>
       </c>
-      <c r="Y11" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>13</v>
-      </c>
       <c r="AE11" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="AG11" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AJ11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AN11" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2063,126 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Al-Anwar Club</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>Al-Raed (KSA)</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N12" t="n">
         <v>4.7</v>
       </c>
-      <c r="G12" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4.2</v>
-      </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="P12" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="R12" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="S12" t="n">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="T12" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="U12" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V12" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="W12" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="X12" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="Z12" t="n">
         <v>11.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD12" t="n">
         <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
         <v>46</v>
       </c>
       <c r="AG12" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ12" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AL12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN12" t="n">
         <v>70</v>
       </c>
-      <c r="AM12" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>65</v>
-      </c>
       <c r="AO12" t="n">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2203,126 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al-Raed (KSA)</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.3</v>
+        <v>2.08</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>2.14</v>
       </c>
       <c r="H13" t="n">
-        <v>1.68</v>
+        <v>3.85</v>
       </c>
       <c r="I13" t="n">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="J13" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>2.24</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="R13" t="n">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="S13" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U13" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="V13" t="n">
-        <v>2.32</v>
+        <v>1.31</v>
       </c>
       <c r="W13" t="n">
-        <v>1.2</v>
+        <v>1.87</v>
       </c>
       <c r="X13" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH13" t="n">
         <v>21</v>
       </c>
-      <c r="Y13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF13" t="n">
+      <c r="AI13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AO13" t="n">
         <v>46</v>
       </c>
-      <c r="AG13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>280</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>8.6</v>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2278,127 +2343,132 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.04</v>
+        <v>3.7</v>
       </c>
       <c r="G14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P14" t="n">
         <v>2.14</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2</v>
-      </c>
       <c r="Q14" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="R14" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="S14" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="T14" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="U14" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V14" t="n">
-        <v>1.31</v>
+        <v>1.89</v>
       </c>
       <c r="W14" t="n">
-        <v>1.87</v>
+        <v>1.35</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH14" t="n">
         <v>17.5</v>
       </c>
-      <c r="Z14" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>21</v>
-      </c>
       <c r="AI14" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AJ14" t="n">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="AK14" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="AL14" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AM14" t="n">
         <v>200</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AO14" t="n">
-        <v>50</v>
+        <v>13</v>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,42 +2478,42 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Al Batin</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J15" t="n">
         <v>3.7</v>
       </c>
-      <c r="G15" t="n">
-        <v>4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.75</v>
-      </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
         <v>4.3</v>
@@ -2452,82 +2522,87 @@
         <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="R15" t="n">
         <v>1.43</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="T15" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="U15" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="V15" t="n">
-        <v>1.89</v>
+        <v>1.38</v>
       </c>
       <c r="W15" t="n">
-        <v>1.35</v>
+        <v>1.81</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG15" t="n">
         <v>11</v>
       </c>
-      <c r="Z15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AH15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK15" t="n">
         <v>22</v>
       </c>
-      <c r="AF15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI15" t="n">
+      <c r="AL15" t="n">
         <v>34</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>50</v>
-      </c>
       <c r="AM15" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AN15" t="n">
-        <v>40</v>
+        <v>15.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2623,126 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.22</v>
+        <v>1.11</v>
       </c>
       <c r="G16" t="n">
-        <v>2.26</v>
+        <v>1.12</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>29</v>
       </c>
       <c r="I16" t="n">
-        <v>3.65</v>
+        <v>34</v>
       </c>
       <c r="J16" t="n">
-        <v>3.55</v>
+        <v>14</v>
       </c>
       <c r="K16" t="n">
+        <v>15</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P16" t="n">
         <v>3.75</v>
       </c>
-      <c r="L16" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N16" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.1</v>
-      </c>
       <c r="Q16" t="n">
-        <v>1.86</v>
+        <v>1.33</v>
       </c>
       <c r="R16" t="n">
-        <v>1.43</v>
+        <v>2.06</v>
       </c>
       <c r="S16" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="T16" t="n">
-        <v>1.73</v>
+        <v>2.3</v>
       </c>
       <c r="U16" t="n">
-        <v>2.34</v>
+        <v>1.68</v>
       </c>
       <c r="V16" t="n">
-        <v>1.38</v>
+        <v>1.03</v>
       </c>
       <c r="W16" t="n">
-        <v>1.79</v>
+        <v>9.4</v>
       </c>
       <c r="X16" t="n">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>26</v>
+        <v>410</v>
       </c>
       <c r="AA16" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>590</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG16" t="n">
         <v>14</v>
       </c>
-      <c r="AE16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>11</v>
-      </c>
       <c r="AH16" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>46</v>
+        <v>370</v>
       </c>
       <c r="AJ16" t="n">
-        <v>30</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AL16" t="n">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c r="AM16" t="n">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="AN16" t="n">
-        <v>15.5</v>
+        <v>2.64</v>
       </c>
       <c r="AO16" t="n">
-        <v>34</v>
+        <v>1000</v>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2683,127 +2763,132 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.11</v>
+        <v>2.66</v>
       </c>
       <c r="G17" t="n">
-        <v>1.12</v>
+        <v>2.76</v>
       </c>
       <c r="H17" t="n">
-        <v>29</v>
+        <v>2.76</v>
       </c>
       <c r="I17" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X17" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI17" t="n">
         <v>36</v>
       </c>
-      <c r="J17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N17" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W17" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>360</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>350</v>
-      </c>
       <c r="AJ17" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="AK17" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="AM17" t="n">
-        <v>410</v>
+        <v>70</v>
       </c>
       <c r="AN17" t="n">
-        <v>2.6</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>21</v>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,126 +2898,131 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Pharco FC</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.66</v>
+        <v>3.6</v>
       </c>
       <c r="G18" t="n">
-        <v>2.74</v>
+        <v>3.75</v>
       </c>
       <c r="H18" t="n">
-        <v>2.72</v>
+        <v>2.46</v>
       </c>
       <c r="I18" t="n">
-        <v>2.8</v>
+        <v>2.56</v>
       </c>
       <c r="J18" t="n">
-        <v>3.65</v>
+        <v>2.98</v>
       </c>
       <c r="K18" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.37</v>
+        <v>1.57</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="N18" t="n">
-        <v>4.7</v>
+        <v>2.94</v>
       </c>
       <c r="O18" t="n">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="P18" t="n">
-        <v>2.22</v>
+        <v>1.61</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.77</v>
+        <v>2.52</v>
       </c>
       <c r="R18" t="n">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
       <c r="S18" t="n">
-        <v>2.96</v>
+        <v>5</v>
       </c>
       <c r="T18" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.64</v>
       </c>
-      <c r="U18" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.55</v>
-      </c>
       <c r="W18" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="X18" t="n">
-        <v>18.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y18" t="n">
-        <v>14</v>
+        <v>8.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AA18" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB18" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AF18" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>600</v>
+      </c>
+      <c r="AO18" t="n">
         <v>36</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>21</v>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +3043,126 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Pharco FC</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="G19" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H19" t="n">
         <v>2.46</v>
       </c>
       <c r="I19" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="J19" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="K19" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L19" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="M19" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N19" t="n">
-        <v>2.94</v>
+        <v>2.74</v>
       </c>
       <c r="O19" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="P19" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="R19" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="T19" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="U19" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="V19" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W19" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="X19" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z19" t="n">
         <v>15</v>
       </c>
       <c r="AA19" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD19" t="n">
         <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AF19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="AJ19" t="n">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="AK19" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AL19" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AM19" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="AN19" t="n">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="AO19" t="n">
-        <v>48</v>
+        <v>600</v>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -3088,127 +3183,132 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Al Ahly Cairo</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Al-Masry</t>
+          <t>El Gounah</t>
         </is>
       </c>
       <c r="F20" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H20" t="n">
+        <v>13</v>
+      </c>
+      <c r="I20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W20" t="n">
         <v>3.65</v>
       </c>
-      <c r="G20" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.35</v>
-      </c>
       <c r="X20" t="n">
-        <v>8.6</v>
+        <v>14</v>
       </c>
       <c r="Y20" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="Z20" t="n">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="AA20" t="n">
-        <v>100</v>
+        <v>770</v>
       </c>
       <c r="AB20" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>330</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AG20" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF20" t="n">
+      <c r="AH20" t="n">
         <v>44</v>
       </c>
-      <c r="AG20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>23</v>
-      </c>
       <c r="AI20" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="AJ20" t="n">
-        <v>500</v>
+        <v>10.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>65</v>
+        <v>17.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AM20" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="AN20" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AO20" t="n">
         <v>600</v>
       </c>
-      <c r="AO20" t="n">
-        <v>970</v>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,127 +3323,132 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Al Ahly Cairo</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>El Gounah</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.34</v>
+        <v>2.62</v>
       </c>
       <c r="G21" t="n">
-        <v>1.37</v>
+        <v>2.82</v>
       </c>
       <c r="H21" t="n">
-        <v>12.5</v>
+        <v>2.88</v>
       </c>
       <c r="I21" t="n">
-        <v>14.5</v>
+        <v>3.15</v>
       </c>
       <c r="J21" t="n">
-        <v>5.1</v>
+        <v>3.2</v>
       </c>
       <c r="K21" t="n">
-        <v>5.5</v>
+        <v>3.45</v>
       </c>
       <c r="L21" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R21" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S21" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T21" t="n">
-        <v>2.52</v>
+        <v>1.87</v>
       </c>
       <c r="U21" t="n">
-        <v>1.58</v>
+        <v>2.06</v>
       </c>
       <c r="V21" t="n">
-        <v>1.07</v>
+        <v>1.46</v>
       </c>
       <c r="W21" t="n">
-        <v>3.7</v>
+        <v>1.55</v>
       </c>
       <c r="X21" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="AA21" t="n">
-        <v>900</v>
+        <v>190</v>
       </c>
       <c r="AB21" t="n">
-        <v>6.2</v>
+        <v>11</v>
       </c>
       <c r="AC21" t="n">
-        <v>12</v>
+        <v>7.8</v>
       </c>
       <c r="AD21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN21" t="n">
         <v>55</v>
       </c>
-      <c r="AE21" t="n">
-        <v>340</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>44</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>280</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>410</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AO21" t="n">
-        <v>730</v>
+        <v>600</v>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,126 +3458,131 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.62</v>
+        <v>1.97</v>
       </c>
       <c r="G22" t="n">
-        <v>2.86</v>
+        <v>2.02</v>
       </c>
       <c r="H22" t="n">
-        <v>2.86</v>
+        <v>4.5</v>
       </c>
       <c r="I22" t="n">
-        <v>3.15</v>
+        <v>4.7</v>
       </c>
       <c r="J22" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="K22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="P22" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="R22" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S22" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="U22" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="V22" t="n">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="W22" t="n">
-        <v>1.54</v>
+        <v>1.99</v>
       </c>
       <c r="X22" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>28</v>
+        <v>14.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB22" t="n">
-        <v>500</v>
+        <v>8</v>
       </c>
       <c r="AC22" t="n">
-        <v>13</v>
+        <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>34</v>
+        <v>18.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH22" t="n">
         <v>21</v>
       </c>
-      <c r="AH22" t="n">
-        <v>500</v>
-      </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="n">
-        <v>900</v>
+        <v>23</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN22" t="n">
-        <v>55</v>
+        <v>17.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>85</v>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3603,126 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>KF Drita</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>4.9</v>
+        <v>3.05</v>
       </c>
       <c r="H23" t="n">
-        <v>1.89</v>
+        <v>2.62</v>
       </c>
       <c r="I23" t="n">
-        <v>1.91</v>
+        <v>2.66</v>
       </c>
       <c r="J23" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="K23" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="P23" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="R23" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="S23" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.93</v>
+        <v>1.74</v>
       </c>
       <c r="U23" t="n">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="V23" t="n">
-        <v>2.08</v>
+        <v>1.6</v>
       </c>
       <c r="W23" t="n">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="X23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG23" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y23" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AI23" t="n">
         <v>40</v>
       </c>
       <c r="AJ23" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AK23" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AL23" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AM23" t="n">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="AN23" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3743,126 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.95</v>
+        <v>4.8</v>
       </c>
       <c r="G24" t="n">
-        <v>1.98</v>
+        <v>4.9</v>
       </c>
       <c r="H24" t="n">
-        <v>4.7</v>
+        <v>1.91</v>
       </c>
       <c r="I24" t="n">
-        <v>4.9</v>
+        <v>1.92</v>
       </c>
       <c r="J24" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K24" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L24" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="O24" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P24" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="R24" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="S24" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="T24" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U24" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="V24" t="n">
-        <v>1.26</v>
+        <v>2.08</v>
       </c>
       <c r="W24" t="n">
-        <v>2.02</v>
+        <v>1.25</v>
       </c>
       <c r="X24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y24" t="n">
-        <v>15</v>
+        <v>7.2</v>
       </c>
       <c r="Z24" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="AB24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC24" t="n">
         <v>8</v>
       </c>
-      <c r="AC24" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AD24" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AF24" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="AG24" t="n">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AJ24" t="n">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="AK24" t="n">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="AL24" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AM24" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AN24" t="n">
-        <v>17.5</v>
+        <v>150</v>
       </c>
       <c r="AO24" t="n">
-        <v>90</v>
+        <v>18</v>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3763,127 +3883,132 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>KF Drita</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.98</v>
+        <v>4.7</v>
       </c>
       <c r="G25" t="n">
-        <v>3.05</v>
+        <v>4.9</v>
       </c>
       <c r="H25" t="n">
-        <v>2.62</v>
+        <v>1.9</v>
       </c>
       <c r="I25" t="n">
-        <v>2.64</v>
+        <v>1.93</v>
       </c>
       <c r="J25" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="K25" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L25" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="O25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R25" t="n">
         <v>1.32</v>
       </c>
-      <c r="P25" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.39</v>
-      </c>
       <c r="S25" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="T25" t="n">
-        <v>1.74</v>
+        <v>1.93</v>
       </c>
       <c r="U25" t="n">
-        <v>2.26</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.6</v>
+        <v>2.06</v>
       </c>
       <c r="W25" t="n">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="X25" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>12</v>
+        <v>8.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AA25" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AB25" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD25" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE25" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AF25" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AG25" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="AH25" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AI25" t="n">
         <v>40</v>
       </c>
       <c r="AJ25" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AK25" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AL25" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AM25" t="n">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="AN25" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AO25" t="n">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,121 +4023,126 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="G26" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="I26" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="M26" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.43</v>
+        <v>1.19</v>
       </c>
       <c r="P26" t="n">
-        <v>1.72</v>
+        <v>2.58</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.34</v>
+        <v>1.61</v>
       </c>
       <c r="R26" t="n">
-        <v>1.26</v>
+        <v>1.62</v>
       </c>
       <c r="S26" t="n">
-        <v>4.5</v>
+        <v>2.56</v>
       </c>
       <c r="T26" t="n">
-        <v>2.06</v>
+        <v>1.58</v>
       </c>
       <c r="U26" t="n">
-        <v>1.86</v>
+        <v>2.66</v>
       </c>
       <c r="V26" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="W26" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="X26" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.4</v>
+        <v>13.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA26" t="n">
         <v>23</v>
       </c>
       <c r="AB26" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AC26" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD26" t="n">
         <v>10.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AF26" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG26" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AH26" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="AJ26" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="AK26" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL26" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="AM26" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AN26" t="n">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="AO26" t="n">
-        <v>18</v>
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4163,126 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.95</v>
+        <v>2.84</v>
       </c>
       <c r="G27" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S27" t="n">
         <v>4</v>
       </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N27" t="n">
-        <v>6</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2.54</v>
-      </c>
       <c r="T27" t="n">
-        <v>1.58</v>
+        <v>1.86</v>
       </c>
       <c r="U27" t="n">
-        <v>2.68</v>
+        <v>2.12</v>
       </c>
       <c r="V27" t="n">
-        <v>1.98</v>
+        <v>1.53</v>
       </c>
       <c r="W27" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="X27" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="Y27" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="AB27" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AF27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK27" t="n">
         <v>32</v>
       </c>
-      <c r="AG27" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>38</v>
-      </c>
       <c r="AL27" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AM27" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AN27" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO27" t="n">
-        <v>9</v>
+        <v>34</v>
+      </c>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -4168,121 +4303,126 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.84</v>
+        <v>1.66</v>
       </c>
       <c r="G28" t="n">
-        <v>2.88</v>
+        <v>1.67</v>
       </c>
       <c r="H28" t="n">
-        <v>2.84</v>
+        <v>5.9</v>
       </c>
       <c r="I28" t="n">
-        <v>2.88</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="K28" t="n">
-        <v>3.35</v>
+        <v>4.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="M28" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>3.45</v>
+        <v>4.7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="P28" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="T28" t="n">
         <v>1.83</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="U28" t="n">
         <v>2.18</v>
       </c>
-      <c r="R28" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2.14</v>
-      </c>
       <c r="V28" t="n">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="W28" t="n">
-        <v>1.53</v>
+        <v>2.48</v>
       </c>
       <c r="X28" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Y28" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF28" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z28" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>17</v>
-      </c>
       <c r="AG28" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH28" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AI28" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="AJ28" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="AK28" t="n">
-        <v>32</v>
+        <v>15.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AM28" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN28" t="n">
-        <v>30</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO28" t="n">
-        <v>34</v>
+        <v>80</v>
+      </c>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -4303,127 +4443,132 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="F29" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P29" t="n">
         <v>1.67</v>
       </c>
-      <c r="G29" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="H29" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="I29" t="n">
-        <v>6</v>
-      </c>
-      <c r="J29" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K29" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L29" t="n">
+      <c r="Q29" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V29" t="n">
         <v>1.37</v>
       </c>
-      <c r="M29" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N29" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.2</v>
-      </c>
       <c r="W29" t="n">
-        <v>2.48</v>
+        <v>1.73</v>
       </c>
       <c r="X29" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Y29" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Z29" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AA29" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AB29" t="n">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AD29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH29" t="n">
         <v>21</v>
       </c>
-      <c r="AE29" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>19</v>
-      </c>
       <c r="AI29" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ29" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AK29" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AL29" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AM29" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="AN29" t="n">
-        <v>8.4</v>
+        <v>28</v>
       </c>
       <c r="AO29" t="n">
-        <v>75</v>
+        <v>65</v>
+      </c>
+      <c r="AP29" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4578,137 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Sportivo San Lorenzo</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.34</v>
+        <v>3.05</v>
       </c>
       <c r="G30" t="n">
-        <v>2.36</v>
+        <v>3.2</v>
       </c>
       <c r="H30" t="n">
-        <v>3.65</v>
+        <v>2.6</v>
       </c>
       <c r="I30" t="n">
-        <v>3.7</v>
+        <v>2.76</v>
       </c>
       <c r="J30" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K30" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="L30" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="M30" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="O30" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P30" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="R30" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S30" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="T30" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="U30" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V30" t="n">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="W30" t="n">
-        <v>1.73</v>
+        <v>1.46</v>
       </c>
       <c r="X30" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="Y30" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z30" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AA30" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AB30" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC30" t="n">
         <v>7.8</v>
       </c>
-      <c r="AC30" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AD30" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE30" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>160</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>160</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN30" t="n">
         <v>55</v>
       </c>
-      <c r="AF30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>28</v>
-      </c>
       <c r="AO30" t="n">
-        <v>65</v>
+        <v>38</v>
+      </c>
+      <c r="AP30" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4718,137 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Sportivo San Lorenzo</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.05</v>
+        <v>2.58</v>
       </c>
       <c r="G31" t="n">
-        <v>3.2</v>
+        <v>2.62</v>
       </c>
       <c r="H31" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>2.76</v>
+        <v>3.4</v>
       </c>
       <c r="J31" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K31" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="L31" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="M31" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N31" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O31" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="P31" t="n">
         <v>1.64</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="R31" t="n">
         <v>1.23</v>
       </c>
       <c r="S31" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T31" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U31" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="V31" t="n">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="W31" t="n">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
       <c r="X31" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="Z31" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO31" t="n">
         <v>60</v>
       </c>
-      <c r="AB31" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>160</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>600</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>42</v>
+      <c r="AP31" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,396 +4858,131 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.66</v>
+        <v>2.08</v>
       </c>
       <c r="G32" t="n">
-        <v>2.92</v>
+        <v>2.16</v>
       </c>
       <c r="H32" t="n">
-        <v>2.54</v>
+        <v>4.3</v>
       </c>
       <c r="I32" t="n">
-        <v>17</v>
+        <v>4.7</v>
       </c>
       <c r="J32" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="K32" t="n">
-        <v>7</v>
+        <v>3.35</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M32" t="n">
-        <v>1.02</v>
+        <v>1.12</v>
       </c>
       <c r="N32" t="n">
-        <v>1.1</v>
+        <v>2.84</v>
       </c>
       <c r="O32" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P32" t="n">
-        <v>1.25</v>
+        <v>1.59</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.47</v>
+        <v>2.56</v>
       </c>
       <c r="R32" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S32" t="n">
-        <v>1.05</v>
+        <v>5.1</v>
       </c>
       <c r="T32" t="n">
-        <v>1.05</v>
+        <v>2.1</v>
       </c>
       <c r="U32" t="n">
-        <v>1.05</v>
+        <v>1.78</v>
       </c>
       <c r="V32" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="W32" t="n">
-        <v>1.53</v>
+        <v>1.86</v>
       </c>
       <c r="X32" t="n">
-        <v>500</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC32" t="n">
-        <v>42</v>
+        <v>7.8</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2026-02-19</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>19:30:00</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Athletico-PR</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Corinthians</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="G33" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="H33" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N33" t="n">
-        <v>3</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="X33" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Paraguayan Primera Division</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2026-02-19</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Nacional (Par)</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Club Sportivo Ameliano</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="G34" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="H34" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I34" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="X34" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>240</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>230</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>27</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>500</v>
+        <v>600</v>
+      </c>
+      <c r="AP32" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:55:22</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP32"/>
+  <dimension ref="A1:BH32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,6 +641,96 @@
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0x0_Back</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0x1_Back</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0x2_Back</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0x3_Back</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1x0_Back</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1x1_Back</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1x2_Back</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1x3_Back</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2x0_Back</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2x1_Back</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2x2_Back</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2x3_Back</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3x0_Back</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3x1_Back</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3x2_Back</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3x3_Back</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_Goleada_H_Back</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_Goleada_A_Back</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
           <t>SnapshotTS</t>
         </is>
       </c>
@@ -672,100 +762,100 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3</v>
+        <v>13.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.76</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>2.86</v>
+        <v>6.2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.42</v>
+        <v>1.4</v>
       </c>
       <c r="K2" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.35</v>
+        <v>2.36</v>
       </c>
       <c r="N2" t="n">
-        <v>1.61</v>
+        <v>1.05</v>
       </c>
       <c r="O2" t="n">
-        <v>2.56</v>
+        <v>19</v>
       </c>
       <c r="P2" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.8</v>
+        <v>100</v>
       </c>
       <c r="R2" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>22</v>
+        <v>1.1</v>
       </c>
       <c r="T2" t="n">
-        <v>3.9</v>
+        <v>17.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.3</v>
+        <v>1.02</v>
       </c>
       <c r="V2" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>3.85</v>
+        <v>1.75</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.1</v>
+        <v>850</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.2</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AD2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>510</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -777,11 +867,65 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>260</v>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+        <v>1000</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -812,116 +956,170 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="G3" t="n">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="H3" t="n">
-        <v>1.32</v>
+        <v>1.12</v>
       </c>
       <c r="I3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.33</v>
       </c>
-      <c r="J3" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.64</v>
-      </c>
       <c r="V3" t="n">
-        <v>4</v>
+        <v>8.6</v>
       </c>
       <c r="W3" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AA3" t="n">
         <v>7.4</v>
       </c>
-      <c r="Z3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AB3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
         <v>12.5</v>
       </c>
       <c r="AD3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>240</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AU3" t="n">
         <v>11</v>
       </c>
-      <c r="AE3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>140</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>300</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>250</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>270</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+      <c r="AV3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>55</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>130</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>38</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>95</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>38</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>38</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -952,116 +1150,170 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.5</v>
+        <v>7.2</v>
       </c>
       <c r="G4" t="n">
-        <v>2.56</v>
+        <v>7.4</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>1.7</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>1.71</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K4" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="L4" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.15</v>
+        <v>4.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="R4" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="S4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y4" t="n">
         <v>4.6</v>
       </c>
-      <c r="T4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="X4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>11</v>
-      </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>7.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.2</v>
+        <v>4.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>8.4</v>
       </c>
       <c r="AE4" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AF4" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AJ4" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AM4" t="n">
-        <v>140</v>
+        <v>310</v>
       </c>
       <c r="AN4" t="n">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="AO4" t="n">
         <v>55</v>
       </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+      <c r="AP4" t="n">
+        <v>250</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>250</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>250</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>42</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>65</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>210</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>90</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>44</v>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -1092,116 +1344,170 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.2</v>
+        <v>370</v>
       </c>
       <c r="G5" t="n">
-        <v>7.4</v>
+        <v>870</v>
       </c>
       <c r="H5" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="I5" t="n">
-        <v>1.5</v>
+        <v>1.02</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>5.1</v>
+        <v>130</v>
       </c>
       <c r="L5" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.48</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.65</v>
+        <v>1.13</v>
       </c>
       <c r="R5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.6</v>
       </c>
-      <c r="S5" t="n">
-        <v>2.56</v>
-      </c>
       <c r="T5" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="U5" t="n">
-        <v>2.06</v>
+        <v>1.4</v>
       </c>
       <c r="V5" t="n">
-        <v>2.84</v>
+        <v>80</v>
       </c>
       <c r="W5" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AA5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE5" t="n">
         <v>13.5</v>
       </c>
-      <c r="AB5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>14</v>
-      </c>
       <c r="AF5" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="AI5" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="AN5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+        <v>1.94</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>250</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>250</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>250</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>65</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>40</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>150</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>65</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>130</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -1232,116 +1538,170 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="G6" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="H6" t="n">
-        <v>2.12</v>
+        <v>2.44</v>
       </c>
       <c r="I6" t="n">
-        <v>2.14</v>
+        <v>2.48</v>
       </c>
       <c r="J6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="S6" t="n">
+        <v>17</v>
+      </c>
+      <c r="T6" t="n">
         <v>3.55</v>
       </c>
-      <c r="K6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.9</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.98</v>
+        <v>1.36</v>
       </c>
       <c r="V6" t="n">
-        <v>1.87</v>
+        <v>1.66</v>
       </c>
       <c r="W6" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.6</v>
+        <v>5</v>
       </c>
       <c r="Z6" t="n">
         <v>12</v>
       </c>
       <c r="AA6" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AB6" t="n">
-        <v>14</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC6" t="n">
         <v>7.6</v>
       </c>
       <c r="AD6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>310</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>220</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>220</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>520</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>600</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>130</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AR6" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AS6" t="n">
+        <v>36</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AX6" t="n">
         <v>25</v>
       </c>
-      <c r="AF6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM6" t="n">
+      <c r="AY6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>210</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>140</v>
+      </c>
+      <c r="BC6" t="n">
         <v>150</v>
       </c>
-      <c r="AN6" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+      <c r="BD6" t="n">
+        <v>340</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>17</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>70</v>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -1372,116 +1732,170 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="J7" t="n">
         <v>4.5</v>
       </c>
-      <c r="G7" t="n">
+      <c r="K7" t="n">
         <v>4.6</v>
       </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L7" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="P7" t="n">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.04</v>
+        <v>2.32</v>
       </c>
       <c r="R7" t="n">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="S7" t="n">
-        <v>3.75</v>
+        <v>5.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U7" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V7" t="n">
-        <v>2.04</v>
+        <v>3.15</v>
       </c>
       <c r="W7" t="n">
-        <v>1.26</v>
+        <v>1.09</v>
       </c>
       <c r="X7" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>4.6</v>
       </c>
       <c r="Z7" t="n">
-        <v>11.5</v>
+        <v>5.9</v>
       </c>
       <c r="AA7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE7" t="n">
         <v>24</v>
       </c>
-      <c r="AB7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AF7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>300</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AW7" t="n">
         <v>21</v>
       </c>
-      <c r="AF7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+      <c r="AX7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>80</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>85</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>250</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>160</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>28</v>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -1512,116 +1926,170 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.05</v>
+        <v>50</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>55</v>
       </c>
       <c r="H8" t="n">
-        <v>2.68</v>
+        <v>1.09</v>
       </c>
       <c r="I8" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>13.5</v>
       </c>
       <c r="K8" t="n">
-        <v>3.35</v>
+        <v>14</v>
       </c>
       <c r="L8" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.75</v>
+        <v>4.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.26</v>
+        <v>1.28</v>
       </c>
       <c r="R8" t="n">
-        <v>1.28</v>
+        <v>1.79</v>
       </c>
       <c r="S8" t="n">
-        <v>4.3</v>
+        <v>2.24</v>
       </c>
       <c r="T8" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="U8" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V8" t="n">
-        <v>1.58</v>
+        <v>11</v>
       </c>
       <c r="W8" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>16</v>
+        <v>4.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>55</v>
+        <v>5.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>12.5</v>
+        <v>6.8</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
         <v>19</v>
       </c>
       <c r="AI8" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="AJ8" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>570</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+        <v>5.4</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>70</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>75</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>170</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -1652,116 +2120,170 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.04</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>2.06</v>
+        <v>5.1</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>1.86</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>1.87</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
         <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1.35</v>
+        <v>6</v>
       </c>
       <c r="S9" t="n">
-        <v>3.8</v>
+        <v>1.19</v>
       </c>
       <c r="T9" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1.31</v>
+        <v>2.14</v>
       </c>
       <c r="W9" t="n">
-        <v>1.96</v>
+        <v>1.24</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BE9" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF9" t="n">
+      <c r="BF9" t="n">
         <v>11.5</v>
       </c>
-      <c r="AG9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>75</v>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+      <c r="BG9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -1792,116 +2314,170 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.05</v>
+        <v>46</v>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>48</v>
       </c>
       <c r="H10" t="n">
-        <v>2.74</v>
+        <v>1.11</v>
       </c>
       <c r="I10" t="n">
-        <v>2.78</v>
+        <v>1.12</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>12</v>
       </c>
       <c r="K10" t="n">
-        <v>3.25</v>
+        <v>12.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.57</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.74</v>
+        <v>1.32</v>
       </c>
       <c r="R10" t="n">
-        <v>1.19</v>
+        <v>1.68</v>
       </c>
       <c r="S10" t="n">
-        <v>5.9</v>
+        <v>2.42</v>
       </c>
       <c r="T10" t="n">
-        <v>2.2</v>
+        <v>1.92</v>
       </c>
       <c r="U10" t="n">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>1.55</v>
+        <v>9.6</v>
       </c>
       <c r="W10" t="n">
-        <v>1.48</v>
+        <v>1.02</v>
       </c>
       <c r="X10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
         <v>8.6</v>
       </c>
-      <c r="Y10" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC10" t="n">
+      <c r="AF10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>340</v>
+      </c>
+      <c r="AO10" t="n">
         <v>7</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AP10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE10" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+      <c r="BA10" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>60</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>95</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>170</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -1932,100 +2508,100 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="I11" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="K11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
         <v>4.5</v>
       </c>
-      <c r="L11" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4.3</v>
-      </c>
       <c r="O11" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R11" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="S11" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="U11" t="n">
-        <v>1.05</v>
+        <v>2.02</v>
       </c>
       <c r="V11" t="n">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="W11" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X11" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC11" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF11" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
         <v>25</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
         <v>1000</v>
@@ -2037,11 +2613,65 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AV11" t="n">
         <v>9</v>
       </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+      <c r="AW11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>60</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>80</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>60</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>50</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -2072,116 +2702,170 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H12" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="I12" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="J12" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="R12" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="S12" t="n">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="T12" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V12" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="W12" t="n">
         <v>1.2</v>
       </c>
       <c r="X12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB12" t="n">
         <v>21</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AC12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD12" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>10</v>
-      </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="n">
         <v>46</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="AL12" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="AM12" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>70</v>
+        <v>280</v>
       </c>
       <c r="AO12" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+        <v>10.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>24</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>60</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>48</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -2212,116 +2896,170 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="G13" t="n">
-        <v>2.14</v>
+        <v>1.95</v>
       </c>
       <c r="H13" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="I13" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="O13" t="n">
         <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R13" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="S13" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T13" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="U13" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V13" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="W13" t="n">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z13" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="AA13" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>500</v>
+        <v>85</v>
       </c>
       <c r="AF13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG13" t="n">
         <v>10.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AJ13" t="n">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="n">
         <v>200</v>
       </c>
       <c r="AN13" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AO13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+        <v>260</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>20</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>30</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>70</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>50</v>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -2352,25 +3090,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="G14" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="H14" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2379,89 +3117,143 @@
         <v>4.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P14" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="R14" t="n">
         <v>1.43</v>
       </c>
       <c r="S14" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T14" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U14" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="V14" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="W14" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="X14" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA14" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AB14" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
         <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF14" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
         <v>34</v>
       </c>
       <c r="AJ14" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AL14" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM14" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AO14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR14" t="n">
         <v>13</v>
       </c>
-      <c r="AP14" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+      <c r="AS14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>48</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>32</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>38</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>38</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>28</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -2492,22 +3284,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="G15" t="n">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="I15" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L15" t="n">
         <v>1.39</v>
@@ -2519,13 +3311,13 @@
         <v>4.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
         <v>2.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R15" t="n">
         <v>1.43</v>
@@ -2534,34 +3326,34 @@
         <v>3.15</v>
       </c>
       <c r="T15" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="U15" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="V15" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="W15" t="n">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="X15" t="n">
         <v>15.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA15" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AB15" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD15" t="n">
         <v>14</v>
@@ -2570,7 +3362,7 @@
         <v>38</v>
       </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG15" t="n">
         <v>11</v>
@@ -2579,29 +3371,83 @@
         <v>16.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="AJ15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM15" t="n">
         <v>80</v>
       </c>
       <c r="AN15" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP15" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+        <v>30</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>40</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>28</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>22</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>30</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>65</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>16</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>26</v>
+      </c>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -2632,22 +3478,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="G16" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="H16" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I16" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K16" t="n">
         <v>14</v>
-      </c>
-      <c r="K16" t="n">
-        <v>15</v>
       </c>
       <c r="L16" t="n">
         <v>1.2</v>
@@ -2656,7 +3502,7 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="O16" t="n">
         <v>1.1</v>
@@ -2665,7 +3511,7 @@
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="R16" t="n">
         <v>2.06</v>
@@ -2674,74 +3520,128 @@
         <v>1.9</v>
       </c>
       <c r="T16" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="U16" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="V16" t="n">
         <v>1.03</v>
       </c>
       <c r="W16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="X16" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>110</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>130</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>540</v>
+      </c>
+      <c r="AF16" t="n">
         <v>9.4</v>
-      </c>
-      <c r="X16" t="n">
-        <v>90</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>410</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>590</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>8.6</v>
       </c>
       <c r="AG16" t="n">
         <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AI16" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AK16" t="n">
         <v>14</v>
       </c>
       <c r="AL16" t="n">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="AM16" t="n">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="AN16" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP16" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+        <v>600</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>36</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>20</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>14</v>
+      </c>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -2772,116 +3672,170 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="G17" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="H17" t="n">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="I17" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="J17" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K17" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="R17" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="T17" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="U17" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="V17" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="W17" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X17" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN17" t="n">
         <v>18</v>
       </c>
-      <c r="Y17" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB17" t="n">
+      <c r="AO17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AT17" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC17" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI17" t="n">
+      <c r="AU17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB17" t="n">
         <v>36</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP17" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+      <c r="BC17" t="n">
+        <v>23</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>29</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>50</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>16</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>15</v>
+      </c>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -2918,16 +3872,16 @@
         <v>3.75</v>
       </c>
       <c r="H18" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="I18" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="J18" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="K18" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L18" t="n">
         <v>1.57</v>
@@ -2936,64 +3890,64 @@
         <v>1.12</v>
       </c>
       <c r="N18" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="O18" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="P18" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="R18" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T18" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U18" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V18" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W18" t="n">
         <v>1.36</v>
       </c>
       <c r="X18" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y18" t="n">
         <v>8.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="n">
         <v>11</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG18" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
         <v>22</v>
@@ -3002,26 +3956,80 @@
         <v>60</v>
       </c>
       <c r="AJ18" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK18" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AL18" t="n">
         <v>75</v>
       </c>
       <c r="AM18" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="AN18" t="n">
-        <v>600</v>
+        <v>75</v>
       </c>
       <c r="AO18" t="n">
         <v>36</v>
       </c>
-      <c r="AP18" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+      <c r="AP18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>44</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>48</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>36</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>16</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>17</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>36</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>29</v>
+      </c>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -3052,13 +4060,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G19" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H19" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="I19" t="n">
         <v>2.52</v>
@@ -3067,7 +4075,7 @@
         <v>2.9</v>
       </c>
       <c r="K19" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="L19" t="n">
         <v>1.59</v>
@@ -3076,7 +4084,7 @@
         <v>1.14</v>
       </c>
       <c r="N19" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="O19" t="n">
         <v>1.55</v>
@@ -3085,7 +4093,7 @@
         <v>1.54</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="R19" t="n">
         <v>1.2</v>
@@ -3097,40 +4105,40 @@
         <v>2.1</v>
       </c>
       <c r="U19" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="V19" t="n">
         <v>1.65</v>
       </c>
       <c r="W19" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X19" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Y19" t="n">
         <v>7.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AB19" t="n">
         <v>10.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD19" t="n">
         <v>13</v>
       </c>
       <c r="AE19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF19" t="n">
         <v>44</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>26</v>
       </c>
       <c r="AG19" t="n">
         <v>17.5</v>
@@ -3151,17 +4159,71 @@
         <v>500</v>
       </c>
       <c r="AM19" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN19" t="n">
         <v>600</v>
       </c>
       <c r="AO19" t="n">
-        <v>600</v>
-      </c>
-      <c r="AP19" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+        <v>42</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>20</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>24</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>70</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BH19" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -3192,16 +4254,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="G20" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="H20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="J20" t="n">
         <v>5</v>
@@ -3222,7 +4284,7 @@
         <v>1.37</v>
       </c>
       <c r="P20" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="Q20" t="n">
         <v>2.1</v>
@@ -3231,19 +4293,19 @@
         <v>1.32</v>
       </c>
       <c r="S20" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T20" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="U20" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W20" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="X20" t="n">
         <v>14</v>
@@ -3252,25 +4314,25 @@
         <v>34</v>
       </c>
       <c r="Z20" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA20" t="n">
-        <v>770</v>
+        <v>720</v>
       </c>
       <c r="AB20" t="n">
         <v>6.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE20" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="AF20" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AG20" t="n">
         <v>10.5</v>
@@ -3282,7 +4344,7 @@
         <v>300</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK20" t="n">
         <v>17.5</v>
@@ -3291,17 +4353,71 @@
         <v>60</v>
       </c>
       <c r="AM20" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="AN20" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO20" t="n">
-        <v>600</v>
-      </c>
-      <c r="AP20" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+        <v>1000</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>36</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>40</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>18</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="BH20" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -3332,13 +4448,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G21" t="n">
         <v>2.82</v>
       </c>
       <c r="H21" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I21" t="n">
         <v>3.15</v>
@@ -3350,85 +4466,85 @@
         <v>3.45</v>
       </c>
       <c r="L21" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M21" t="n">
         <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R21" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S21" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T21" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="U21" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W21" t="n">
         <v>1.55</v>
       </c>
       <c r="X21" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Z21" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="n">
         <v>190</v>
       </c>
       <c r="AB21" t="n">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="AC21" t="n">
         <v>7.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AE21" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AI21" t="n">
         <v>190</v>
       </c>
       <c r="AJ21" t="n">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="AK21" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AL21" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
@@ -3437,11 +4553,65 @@
         <v>55</v>
       </c>
       <c r="AO21" t="n">
-        <v>600</v>
-      </c>
-      <c r="AP21" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+        <v>1000</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>24</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>28</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH21" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -3472,22 +4642,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="G22" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I22" t="n">
         <v>4.5</v>
       </c>
-      <c r="I22" t="n">
-        <v>4.7</v>
-      </c>
       <c r="J22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.55</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.6</v>
       </c>
       <c r="L22" t="n">
         <v>1.49</v>
@@ -3499,16 +4669,16 @@
         <v>3.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R22" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S22" t="n">
         <v>4.2</v>
@@ -3517,40 +4687,40 @@
         <v>2</v>
       </c>
       <c r="U22" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="V22" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W22" t="n">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="X22" t="n">
         <v>12.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA22" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="AB22" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC22" t="n">
         <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AE22" t="n">
         <v>70</v>
       </c>
       <c r="AF22" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG22" t="n">
         <v>10.5</v>
@@ -3559,29 +4729,83 @@
         <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL22" t="n">
         <v>44</v>
       </c>
       <c r="AM22" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN22" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>85</v>
-      </c>
-      <c r="AP22" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+        <v>90</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>80</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>21</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>21</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>38</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>60</v>
+      </c>
+      <c r="BH22" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -3612,16 +4836,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G23" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H23" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="I23" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="J23" t="n">
         <v>3.45</v>
@@ -3642,13 +4866,13 @@
         <v>1.32</v>
       </c>
       <c r="P23" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q23" t="n">
         <v>1.98</v>
       </c>
       <c r="R23" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="S23" t="n">
         <v>3.5</v>
@@ -3660,10 +4884,10 @@
         <v>2.28</v>
       </c>
       <c r="V23" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W23" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="X23" t="n">
         <v>14.5</v>
@@ -3693,7 +4917,7 @@
         <v>21</v>
       </c>
       <c r="AG23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH23" t="n">
         <v>16.5</v>
@@ -3702,7 +4926,7 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK23" t="n">
         <v>34</v>
@@ -3711,7 +4935,7 @@
         <v>44</v>
       </c>
       <c r="AM23" t="n">
-        <v>330</v>
+        <v>90</v>
       </c>
       <c r="AN23" t="n">
         <v>40</v>
@@ -3719,9 +4943,63 @@
       <c r="AO23" t="n">
         <v>22</v>
       </c>
-      <c r="AP23" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+      <c r="AP23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>42</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>30</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>36</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>80</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>27</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>20</v>
+      </c>
+      <c r="BH23" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -3752,16 +5030,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="G24" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H24" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="I24" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="J24" t="n">
         <v>3.6</v>
@@ -3779,10 +5057,10 @@
         <v>3.15</v>
       </c>
       <c r="O24" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P24" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q24" t="n">
         <v>2.34</v>
@@ -3794,16 +5072,16 @@
         <v>4.5</v>
       </c>
       <c r="T24" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U24" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="V24" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="W24" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X24" t="n">
         <v>12</v>
@@ -3818,10 +5096,10 @@
         <v>21</v>
       </c>
       <c r="AB24" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD24" t="n">
         <v>10.5</v>
@@ -3857,11 +5135,65 @@
         <v>150</v>
       </c>
       <c r="AO24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AY24" t="n">
         <v>18</v>
       </c>
-      <c r="AP24" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+      <c r="AZ24" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>44</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>95</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>70</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>70</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>65</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>95</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BH24" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -3907,7 +5239,7 @@
         <v>3.7</v>
       </c>
       <c r="K25" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L25" t="n">
         <v>1.46</v>
@@ -3919,37 +5251,37 @@
         <v>3.65</v>
       </c>
       <c r="O25" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P25" t="n">
         <v>1.87</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R25" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S25" t="n">
         <v>3.85</v>
       </c>
       <c r="T25" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V25" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="W25" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X25" t="n">
         <v>13.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Z25" t="n">
         <v>11</v>
@@ -3973,7 +5305,7 @@
         <v>34</v>
       </c>
       <c r="AG25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH25" t="n">
         <v>20</v>
@@ -3985,7 +5317,7 @@
         <v>120</v>
       </c>
       <c r="AK25" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AL25" t="n">
         <v>75</v>
@@ -3997,11 +5329,65 @@
         <v>80</v>
       </c>
       <c r="AO25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP25" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+        <v>14</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>65</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>55</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>60</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>110</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>34</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>13</v>
+      </c>
+      <c r="BH25" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -4032,16 +5418,16 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G26" t="n">
         <v>3.95</v>
       </c>
-      <c r="G26" t="n">
-        <v>4</v>
-      </c>
       <c r="H26" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="J26" t="n">
         <v>4</v>
@@ -4065,19 +5451,19 @@
         <v>2.58</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R26" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S26" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="T26" t="n">
         <v>1.58</v>
       </c>
       <c r="U26" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="V26" t="n">
         <v>2</v>
@@ -4095,7 +5481,7 @@
         <v>14.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB26" t="n">
         <v>21</v>
@@ -4107,7 +5493,7 @@
         <v>10.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF26" t="n">
         <v>32</v>
@@ -4122,7 +5508,7 @@
         <v>24</v>
       </c>
       <c r="AJ26" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK26" t="n">
         <v>38</v>
@@ -4134,14 +5520,68 @@
         <v>55</v>
       </c>
       <c r="AN26" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO26" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AP26" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>60</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>34</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>34</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>48</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>26</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BH26" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -4172,13 +5612,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G27" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="H27" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="I27" t="n">
         <v>2.88</v>
@@ -4187,10 +5627,10 @@
         <v>3.3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L27" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M27" t="n">
         <v>1.09</v>
@@ -4199,16 +5639,16 @@
         <v>3.45</v>
       </c>
       <c r="O27" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P27" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R27" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S27" t="n">
         <v>4</v>
@@ -4223,10 +5663,10 @@
         <v>1.53</v>
       </c>
       <c r="W27" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X27" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y27" t="n">
         <v>10.5</v>
@@ -4259,7 +5699,7 @@
         <v>17.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ27" t="n">
         <v>44</v>
@@ -4268,20 +5708,74 @@
         <v>32</v>
       </c>
       <c r="AL27" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM27" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN27" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO27" t="n">
         <v>32</v>
       </c>
-      <c r="AO27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP27" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+      <c r="AP27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>40</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>30</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>42</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>40</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>30</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>42</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>90</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>29</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>29</v>
+      </c>
+      <c r="BH27" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -4321,7 +5815,7 @@
         <v>5.9</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J28" t="n">
         <v>4.3</v>
@@ -4333,25 +5827,25 @@
         <v>1.36</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O28" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P28" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q28" t="n">
         <v>1.76</v>
       </c>
       <c r="R28" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S28" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T28" t="n">
         <v>1.83</v>
@@ -4366,10 +5860,10 @@
         <v>2.48</v>
       </c>
       <c r="X28" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z28" t="n">
         <v>46</v>
@@ -4402,26 +5896,80 @@
         <v>70</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK28" t="n">
         <v>15.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM28" t="n">
         <v>90</v>
       </c>
       <c r="AN28" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO28" t="n">
+        <v>75</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>42</v>
+      </c>
+      <c r="AS28" t="n">
         <v>80</v>
       </c>
-      <c r="AP28" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+      <c r="AT28" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>15</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>28</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>80</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>65</v>
+      </c>
+      <c r="BH28" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -4455,13 +6003,13 @@
         <v>2.32</v>
       </c>
       <c r="G29" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H29" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I29" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J29" t="n">
         <v>3.3</v>
@@ -4476,16 +6024,16 @@
         <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O29" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P29" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="R29" t="n">
         <v>1.24</v>
@@ -4497,16 +6045,16 @@
         <v>2.06</v>
       </c>
       <c r="U29" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V29" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W29" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X29" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y29" t="n">
         <v>11</v>
@@ -4521,10 +6069,10 @@
         <v>7.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD29" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE29" t="n">
         <v>55</v>
@@ -4536,10 +6084,10 @@
         <v>11.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI29" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ29" t="n">
         <v>32</v>
@@ -4548,20 +6096,74 @@
         <v>29</v>
       </c>
       <c r="AL29" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM29" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN29" t="n">
         <v>28</v>
       </c>
       <c r="AO29" t="n">
+        <v>70</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AS29" t="n">
         <v>65</v>
       </c>
-      <c r="AP29" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+      <c r="AT29" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>48</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>65</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>29</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>26</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>48</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>110</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>26</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>60</v>
+      </c>
+      <c r="BH29" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -4595,19 +6197,19 @@
         <v>3.05</v>
       </c>
       <c r="G30" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H30" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="I30" t="n">
         <v>2.76</v>
       </c>
       <c r="J30" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K30" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L30" t="n">
         <v>1.53</v>
@@ -4625,7 +6227,7 @@
         <v>1.65</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R30" t="n">
         <v>1.23</v>
@@ -4634,13 +6236,13 @@
         <v>4.8</v>
       </c>
       <c r="T30" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U30" t="n">
         <v>1.89</v>
       </c>
       <c r="V30" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="W30" t="n">
         <v>1.46</v>
@@ -4649,16 +6251,16 @@
         <v>11</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z30" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA30" t="n">
         <v>110</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC30" t="n">
         <v>7.8</v>
@@ -4667,7 +6269,7 @@
         <v>13.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF30" t="n">
         <v>19.5</v>
@@ -4682,26 +6284,80 @@
         <v>110</v>
       </c>
       <c r="AJ30" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="AK30" t="n">
         <v>42</v>
       </c>
       <c r="AL30" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="AM30" t="n">
         <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AO30" t="n">
+        <v>500</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>36</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>30</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB30" t="n">
         <v>38</v>
       </c>
-      <c r="AP30" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+      <c r="BC30" t="n">
+        <v>28</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>38</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH30" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -4732,13 +6388,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G31" t="n">
         <v>2.62</v>
       </c>
       <c r="H31" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I31" t="n">
         <v>3.4</v>
@@ -4839,9 +6495,63 @@
       <c r="AO31" t="n">
         <v>60</v>
       </c>
-      <c r="AP31" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+      <c r="AP31" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>42</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>36</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>30</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>85</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>32</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>50</v>
+      </c>
+      <c r="BH31" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>
@@ -4872,7 +6582,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G32" t="n">
         <v>2.16</v>
@@ -4881,7 +6591,7 @@
         <v>4.3</v>
       </c>
       <c r="I32" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J32" t="n">
         <v>3.1</v>
@@ -4917,7 +6627,7 @@
         <v>2.1</v>
       </c>
       <c r="U32" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V32" t="n">
         <v>1.28</v>
@@ -4959,13 +6669,13 @@
         <v>24</v>
       </c>
       <c r="AI32" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="AJ32" t="n">
         <v>29</v>
       </c>
       <c r="AK32" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL32" t="n">
         <v>60</v>
@@ -4979,9 +6689,63 @@
       <c r="AO32" t="n">
         <v>600</v>
       </c>
-      <c r="AP32" t="inlineStr">
-        <is>
-          <t>2026-02-19 14:55:22</t>
+      <c r="AP32" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>28</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>9</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>21</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BH32" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:49:54</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH32"/>
+  <dimension ref="A1:BH31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -738,7 +738,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -748,66 +748,66 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:02:30</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8.199999999999999</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="I2" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.4</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>2.62</v>
+        <v>1.05</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>1.05</v>
       </c>
-      <c r="O2" t="n">
-        <v>19</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.01</v>
-      </c>
       <c r="Q2" t="n">
+        <v>15</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S2" t="n">
         <v>100</v>
       </c>
-      <c r="R2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.1</v>
-      </c>
       <c r="T2" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
@@ -816,10 +816,10 @@
         <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>1.75</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -828,10 +828,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -870,62 +870,62 @@
         <v>1000</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.5</v>
+        <v>1000</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3.05</v>
+        <v>1.01</v>
       </c>
       <c r="AR2" t="n">
-        <v>3.95</v>
+        <v>250</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.64</v>
+        <v>250</v>
       </c>
       <c r="AT2" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="AU2" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="AV2" t="n">
-        <v>4</v>
+        <v>1.16</v>
       </c>
       <c r="AW2" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="AX2" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="BB2" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="BE2" t="n">
-        <v>4</v>
+        <v>1.28</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -947,32 +947,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>85</v>
+        <v>870</v>
       </c>
       <c r="H3" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K3" t="n">
         <v>1.12</v>
       </c>
-      <c r="I3" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="K3" t="n">
-        <v>10</v>
-      </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
@@ -980,146 +980,146 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.58</v>
+        <v>1.09</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.68</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="R3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S3" t="n">
+        <v>100</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
         <v>1.17</v>
       </c>
-      <c r="S3" t="n">
+      <c r="AD3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>250</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>6.8</v>
       </c>
-      <c r="T3" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V3" t="n">
+      <c r="AR3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>250</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>250</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BG3" t="n">
         <v>8.6</v>
       </c>
-      <c r="W3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>110</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>240</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>55</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>130</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>38</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>95</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>38</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>38</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>11.5</v>
-      </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -1141,31 +1141,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7.2</v>
+        <v>1.01</v>
       </c>
       <c r="G4" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="I4" t="n">
-        <v>1.71</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="K4" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1174,146 +1174,146 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.32</v>
+        <v>1.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="S4" t="n">
-        <v>5.5</v>
+        <v>1.01</v>
       </c>
       <c r="T4" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AP4" t="n">
-        <v>250</v>
+        <v>1.01</v>
       </c>
       <c r="AQ4" t="n">
-        <v>4.4</v>
+        <v>1.01</v>
       </c>
       <c r="AR4" t="n">
-        <v>7</v>
+        <v>1.01</v>
       </c>
       <c r="AS4" t="n">
-        <v>23</v>
+        <v>1.01</v>
       </c>
       <c r="AT4" t="n">
-        <v>250</v>
+        <v>1.01</v>
       </c>
       <c r="AU4" t="n">
-        <v>4.6</v>
+        <v>1.01</v>
       </c>
       <c r="AV4" t="n">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="AW4" t="n">
-        <v>27</v>
+        <v>1.01</v>
       </c>
       <c r="AX4" t="n">
-        <v>250</v>
+        <v>1.01</v>
       </c>
       <c r="AY4" t="n">
-        <v>10.5</v>
+        <v>1.01</v>
       </c>
       <c r="AZ4" t="n">
-        <v>17</v>
+        <v>1.01</v>
       </c>
       <c r="BA4" t="n">
-        <v>60</v>
+        <v>1.01</v>
       </c>
       <c r="BB4" t="n">
-        <v>250</v>
+        <v>1.01</v>
       </c>
       <c r="BC4" t="n">
-        <v>42</v>
+        <v>1.01</v>
       </c>
       <c r="BD4" t="n">
-        <v>65</v>
+        <v>1.01</v>
       </c>
       <c r="BE4" t="n">
-        <v>210</v>
+        <v>1.01</v>
       </c>
       <c r="BF4" t="n">
-        <v>90</v>
+        <v>1.01</v>
       </c>
       <c r="BG4" t="n">
-        <v>44</v>
+        <v>1.01</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -1335,64 +1335,64 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Az Alkmaar</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>370</v>
+        <v>1.01</v>
       </c>
       <c r="G5" t="n">
-        <v>870</v>
+        <v>1.04</v>
       </c>
       <c r="H5" t="n">
-        <v>1.01</v>
+        <v>120</v>
       </c>
       <c r="I5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>21</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>1.02</v>
       </c>
-      <c r="J5" t="n">
+      <c r="O5" t="n">
+        <v>14</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S5" t="n">
         <v>100</v>
       </c>
-      <c r="K5" t="n">
-        <v>130</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.6</v>
-      </c>
       <c r="T5" t="n">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="U5" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>80</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
         <v>1.01</v>
@@ -1404,34 +1404,34 @@
         <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>1.09</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="AD5" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="AG5" t="n">
         <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1443,78 +1443,78 @@
         <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.94</v>
+        <v>1000</v>
       </c>
       <c r="AP5" t="n">
-        <v>250</v>
+        <v>10.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>40</v>
+        <v>10.5</v>
       </c>
       <c r="AR5" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="AS5" t="n">
-        <v>4.5</v>
+        <v>10.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>250</v>
+        <v>1.04</v>
       </c>
       <c r="AU5" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>21</v>
+        <v>1.61</v>
       </c>
       <c r="AW5" t="n">
-        <v>12</v>
+        <v>1.61</v>
       </c>
       <c r="AX5" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="AY5" t="n">
-        <v>40</v>
+        <v>11.5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>100</v>
+        <v>10.5</v>
       </c>
       <c r="BA5" t="n">
-        <v>65</v>
+        <v>1.61</v>
       </c>
       <c r="BB5" t="n">
-        <v>250</v>
+        <v>11.5</v>
       </c>
       <c r="BC5" t="n">
-        <v>40</v>
+        <v>10.5</v>
       </c>
       <c r="BD5" t="n">
-        <v>150</v>
+        <v>10.5</v>
       </c>
       <c r="BE5" t="n">
-        <v>65</v>
+        <v>5.4</v>
       </c>
       <c r="BF5" t="n">
-        <v>130</v>
+        <v>5.4</v>
       </c>
       <c r="BG5" t="n">
-        <v>1.9</v>
+        <v>5.4</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1529,179 +1529,179 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Az Alkmaar</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.6</v>
+        <v>1.01</v>
       </c>
       <c r="G6" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>2.44</v>
+        <v>1.01</v>
       </c>
       <c r="I6" t="n">
-        <v>2.48</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>2.6</v>
+        <v>1.01</v>
       </c>
       <c r="K6" t="n">
-        <v>2.64</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="O6" t="n">
-        <v>2.24</v>
+        <v>1.1</v>
       </c>
       <c r="P6" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.5</v>
+        <v>100</v>
       </c>
       <c r="R6" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="S6" t="n">
-        <v>17</v>
+        <v>1.01</v>
       </c>
       <c r="T6" t="n">
-        <v>3.55</v>
+        <v>1.45</v>
       </c>
       <c r="U6" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>520</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AP6" t="n">
-        <v>4.3</v>
+        <v>1.01</v>
       </c>
       <c r="AQ6" t="n">
-        <v>4.7</v>
+        <v>1.01</v>
       </c>
       <c r="AR6" t="n">
-        <v>10.5</v>
+        <v>1.01</v>
       </c>
       <c r="AS6" t="n">
-        <v>36</v>
+        <v>1.01</v>
       </c>
       <c r="AT6" t="n">
-        <v>7.6</v>
+        <v>1.01</v>
       </c>
       <c r="AU6" t="n">
-        <v>7</v>
+        <v>1.01</v>
       </c>
       <c r="AV6" t="n">
-        <v>17</v>
+        <v>1.01</v>
       </c>
       <c r="AW6" t="n">
-        <v>55</v>
+        <v>1.01</v>
       </c>
       <c r="AX6" t="n">
-        <v>25</v>
+        <v>1.01</v>
       </c>
       <c r="AY6" t="n">
-        <v>28</v>
+        <v>1.01</v>
       </c>
       <c r="AZ6" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="BA6" t="n">
-        <v>210</v>
+        <v>1.01</v>
       </c>
       <c r="BB6" t="n">
-        <v>140</v>
+        <v>1.01</v>
       </c>
       <c r="BC6" t="n">
-        <v>150</v>
+        <v>1.01</v>
       </c>
       <c r="BD6" t="n">
-        <v>340</v>
+        <v>1.01</v>
       </c>
       <c r="BE6" t="n">
-        <v>100</v>
+        <v>1.01</v>
       </c>
       <c r="BF6" t="n">
-        <v>17</v>
+        <v>1.01</v>
       </c>
       <c r="BG6" t="n">
-        <v>70</v>
+        <v>1.01</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -1723,31 +1723,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1756,146 +1756,146 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="AV7" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AW7" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AX7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AY7" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="BE7" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -1917,31 +1917,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Dinamo Zagreb</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1956,140 +1956,140 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="BE8" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -2111,31 +2111,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Dinamo Zagreb</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -2168,129 +2168,129 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AV9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AX9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AY9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="BE9" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2300,36 +2300,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:44:56</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Al-Raed (KSA)</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G10" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="H10" t="n">
-        <v>1.11</v>
+        <v>1.31</v>
       </c>
       <c r="I10" t="n">
-        <v>1.12</v>
+        <v>1.4</v>
       </c>
       <c r="J10" t="n">
-        <v>12</v>
+        <v>4.7</v>
       </c>
       <c r="K10" t="n">
-        <v>12.5</v>
+        <v>5.7</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -2338,146 +2338,146 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>1.84</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.32</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.68</v>
+        <v>1.24</v>
       </c>
       <c r="S10" t="n">
-        <v>2.42</v>
+        <v>4.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="V10" t="n">
-        <v>9.6</v>
+        <v>3.9</v>
       </c>
       <c r="W10" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="AA10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>170</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>160</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>310</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>410</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA10" t="n">
         <v>6.2</v>
       </c>
-      <c r="AB10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>340</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AZ10" t="n">
+      <c r="BB10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BG10" t="n">
         <v>13.5</v>
       </c>
-      <c r="BA10" t="n">
-        <v>22</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>60</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>95</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>170</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>6.6</v>
-      </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -2508,170 +2508,170 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>1.09</v>
       </c>
       <c r="G11" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="I11" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="J11" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K11" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.05</v>
       </c>
-      <c r="N11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.93</v>
-      </c>
       <c r="U11" t="n">
-        <v>2.02</v>
+        <v>1.05</v>
       </c>
       <c r="V11" t="n">
-        <v>2.66</v>
+        <v>1.01</v>
       </c>
       <c r="W11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>1.16</v>
       </c>
-      <c r="X11" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AR11" t="n">
-        <v>8.800000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="AS11" t="n">
-        <v>13</v>
+        <v>1.16</v>
       </c>
       <c r="AT11" t="n">
-        <v>23</v>
+        <v>1.16</v>
       </c>
       <c r="AU11" t="n">
-        <v>9.6</v>
+        <v>1.34</v>
       </c>
       <c r="AV11" t="n">
-        <v>9</v>
+        <v>1.04</v>
       </c>
       <c r="AW11" t="n">
-        <v>14</v>
+        <v>1.16</v>
       </c>
       <c r="AX11" t="n">
-        <v>50</v>
+        <v>1.33</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>1.34</v>
       </c>
       <c r="AZ11" t="n">
-        <v>20</v>
+        <v>1.16</v>
       </c>
       <c r="BA11" t="n">
-        <v>29</v>
+        <v>1.12</v>
       </c>
       <c r="BB11" t="n">
-        <v>60</v>
+        <v>1.16</v>
       </c>
       <c r="BC11" t="n">
-        <v>80</v>
+        <v>1.19</v>
       </c>
       <c r="BD11" t="n">
-        <v>60</v>
+        <v>1.16</v>
       </c>
       <c r="BE11" t="n">
-        <v>50</v>
+        <v>1.16</v>
       </c>
       <c r="BF11" t="n">
-        <v>14.5</v>
+        <v>1.16</v>
       </c>
       <c r="BG11" t="n">
-        <v>6.6</v>
+        <v>1.16</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -2693,179 +2693,179 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al-Raed (KSA)</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.6</v>
+        <v>3.65</v>
       </c>
       <c r="G12" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="S12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y12" t="n">
         <v>5.9</v>
       </c>
-      <c r="H12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="Z12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>48</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>210</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>260</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>230</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>110</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AW12" t="n">
         <v>11</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AX12" t="n">
         <v>18.5</v>
       </c>
-      <c r="AB12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>46</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>190</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>190</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>280</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>36</v>
-      </c>
       <c r="AY12" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AZ12" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="BA12" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="BC12" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="BD12" t="n">
-        <v>60</v>
+        <v>12.5</v>
       </c>
       <c r="BE12" t="n">
-        <v>9.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="BF12" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="BG12" t="n">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:45:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2896,177 +2896,177 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.92</v>
+        <v>6.2</v>
       </c>
       <c r="G13" t="n">
-        <v>1.95</v>
+        <v>6.8</v>
       </c>
       <c r="H13" t="n">
-        <v>4.3</v>
+        <v>1.71</v>
       </c>
       <c r="I13" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S13" t="n">
         <v>4.6</v>
       </c>
-      <c r="J13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.25</v>
-      </c>
       <c r="T13" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="U13" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V13" t="n">
         <v>2.18</v>
       </c>
-      <c r="V13" t="n">
-        <v>1.27</v>
-      </c>
       <c r="W13" t="n">
-        <v>2.04</v>
+        <v>1.17</v>
       </c>
       <c r="X13" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>17</v>
+        <v>5.3</v>
       </c>
       <c r="Z13" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AE13" t="n">
         <v>34</v>
       </c>
-      <c r="AA13" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>85</v>
-      </c>
       <c r="AF13" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>120</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD13" t="n">
         <v>10.5</v>
       </c>
-      <c r="AH13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>970</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>260</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>48</v>
-      </c>
-      <c r="AX13" t="n">
+      <c r="BE13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BF13" t="n">
         <v>11</v>
       </c>
-      <c r="AY13" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>50</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>20</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>18</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>30</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>70</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>12.5</v>
-      </c>
       <c r="BG13" t="n">
-        <v>50</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3076,184 +3076,184 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:59:59</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Al Batin</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.3</v>
+        <v>1.21</v>
       </c>
       <c r="G14" t="n">
-        <v>3.5</v>
+        <v>1.23</v>
       </c>
       <c r="H14" t="n">
-        <v>2.2</v>
+        <v>16</v>
       </c>
       <c r="I14" t="n">
-        <v>2.26</v>
+        <v>19</v>
       </c>
       <c r="J14" t="n">
-        <v>3.8</v>
+        <v>7.8</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L14" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.86</v>
+        <v>1.1</v>
       </c>
       <c r="R14" t="n">
-        <v>1.43</v>
+        <v>2.98</v>
       </c>
       <c r="S14" t="n">
-        <v>3.15</v>
+        <v>1.47</v>
       </c>
       <c r="T14" t="n">
-        <v>1.73</v>
+        <v>1.39</v>
       </c>
       <c r="U14" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.79</v>
+        <v>1.05</v>
       </c>
       <c r="W14" t="n">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="X14" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG14" t="n">
         <v>11</v>
       </c>
-      <c r="AE14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AI14" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="AK14" t="n">
-        <v>38</v>
+        <v>10.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="AM14" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>32</v>
+        <v>4.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AP14" t="n">
-        <v>15</v>
+        <v>4.9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>10</v>
+        <v>5.1</v>
       </c>
       <c r="AR14" t="n">
-        <v>13</v>
+        <v>2.98</v>
       </c>
       <c r="AS14" t="n">
-        <v>25</v>
+        <v>2.98</v>
       </c>
       <c r="AT14" t="n">
-        <v>13.5</v>
+        <v>2.98</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.8</v>
+        <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>10</v>
+        <v>2.98</v>
       </c>
       <c r="AW14" t="n">
-        <v>20</v>
+        <v>2.98</v>
       </c>
       <c r="AX14" t="n">
-        <v>22</v>
+        <v>9.6</v>
       </c>
       <c r="AY14" t="n">
-        <v>13</v>
+        <v>6.2</v>
       </c>
       <c r="AZ14" t="n">
-        <v>15</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BA14" t="n">
-        <v>29</v>
+        <v>5.1</v>
       </c>
       <c r="BB14" t="n">
-        <v>48</v>
+        <v>6.6</v>
       </c>
       <c r="BC14" t="n">
-        <v>32</v>
+        <v>5.8</v>
       </c>
       <c r="BD14" t="n">
-        <v>38</v>
+        <v>8.4</v>
       </c>
       <c r="BE14" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="BF14" t="n">
-        <v>28</v>
+        <v>3.35</v>
       </c>
       <c r="BG14" t="n">
-        <v>13.5</v>
+        <v>2.98</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -3270,7 +3270,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:00:19</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3284,170 +3284,170 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.36</v>
+        <v>14.5</v>
       </c>
       <c r="G15" t="n">
-        <v>2.42</v>
+        <v>18.5</v>
       </c>
       <c r="H15" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U15" t="n">
         <v>3.15</v>
       </c>
-      <c r="I15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.28</v>
-      </c>
       <c r="V15" t="n">
-        <v>1.43</v>
+        <v>4.6</v>
       </c>
       <c r="W15" t="n">
-        <v>1.7</v>
+        <v>1.06</v>
       </c>
       <c r="X15" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AI15" t="n">
         <v>13</v>
       </c>
-      <c r="Z15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>44</v>
-      </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
         <v>36</v>
       </c>
       <c r="AM15" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AN15" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AO15" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="AP15" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AR15" t="n">
-        <v>20</v>
+        <v>7.2</v>
       </c>
       <c r="AS15" t="n">
-        <v>46</v>
+        <v>8.6</v>
       </c>
       <c r="AT15" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AU15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AW15" t="n">
         <v>7.2</v>
       </c>
-      <c r="AV15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>30</v>
-      </c>
       <c r="AX15" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AY15" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AZ15" t="n">
-        <v>14.5</v>
+        <v>8.6</v>
       </c>
       <c r="BA15" t="n">
-        <v>40</v>
+        <v>11.5</v>
       </c>
       <c r="BB15" t="n">
-        <v>28</v>
+        <v>10.5</v>
       </c>
       <c r="BC15" t="n">
-        <v>22</v>
+        <v>10.5</v>
       </c>
       <c r="BD15" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="BE15" t="n">
-        <v>65</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF15" t="n">
-        <v>16</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BG15" t="n">
-        <v>26</v>
+        <v>5.3</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:01:20</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3478,64 +3478,64 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.12</v>
+        <v>1.58</v>
       </c>
       <c r="G16" t="n">
-        <v>1.13</v>
+        <v>1.62</v>
       </c>
       <c r="H16" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>21</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y16" t="n">
         <v>27</v>
-      </c>
-      <c r="I16" t="n">
-        <v>28</v>
-      </c>
-      <c r="J16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>14</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N16" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W16" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="X16" t="n">
-        <v>80</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>110</v>
       </c>
       <c r="Z16" t="n">
         <v>400</v>
@@ -3544,111 +3544,111 @@
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>32</v>
+        <v>9.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>130</v>
+        <v>990</v>
       </c>
       <c r="AE16" t="n">
-        <v>540</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>5.9</v>
       </c>
       <c r="AH16" t="n">
-        <v>55</v>
+        <v>990</v>
       </c>
       <c r="AI16" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK16" t="n">
         <v>8.4</v>
       </c>
-      <c r="AK16" t="n">
-        <v>14</v>
-      </c>
       <c r="AL16" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AM16" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>2.62</v>
+        <v>5.9</v>
       </c>
       <c r="AO16" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AP16" t="n">
-        <v>38</v>
+        <v>19.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AR16" t="n">
-        <v>50</v>
+        <v>4.9</v>
       </c>
       <c r="AS16" t="n">
-        <v>16.5</v>
+        <v>4.9</v>
       </c>
       <c r="AT16" t="n">
-        <v>13</v>
+        <v>3.05</v>
       </c>
       <c r="AU16" t="n">
-        <v>25</v>
+        <v>6.4</v>
       </c>
       <c r="AV16" t="n">
-        <v>15</v>
+        <v>3.05</v>
       </c>
       <c r="AW16" t="n">
-        <v>16</v>
+        <v>5.8</v>
       </c>
       <c r="AX16" t="n">
-        <v>8.199999999999999</v>
+        <v>3.05</v>
       </c>
       <c r="AY16" t="n">
-        <v>13</v>
+        <v>4.7</v>
       </c>
       <c r="AZ16" t="n">
-        <v>27</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BA16" t="n">
-        <v>50</v>
+        <v>4.9</v>
       </c>
       <c r="BB16" t="n">
-        <v>7.6</v>
+        <v>3.05</v>
       </c>
       <c r="BC16" t="n">
-        <v>12.5</v>
+        <v>6.2</v>
       </c>
       <c r="BD16" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="BE16" t="n">
-        <v>20</v>
+        <v>3.55</v>
       </c>
       <c r="BF16" t="n">
-        <v>2.48</v>
+        <v>3.95</v>
       </c>
       <c r="BG16" t="n">
-        <v>14</v>
+        <v>4.5</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3658,184 +3658,184 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Pharco FC</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.72</v>
+        <v>3.8</v>
       </c>
       <c r="G17" t="n">
-        <v>2.8</v>
+        <v>3.95</v>
       </c>
       <c r="H17" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="I17" t="n">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="J17" t="n">
-        <v>3.8</v>
+        <v>2.92</v>
       </c>
       <c r="K17" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="N17" t="n">
-        <v>5.1</v>
+        <v>2.96</v>
       </c>
       <c r="O17" t="n">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
       <c r="P17" t="n">
-        <v>2.36</v>
+        <v>1.64</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.71</v>
+        <v>2.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.55</v>
+        <v>1.24</v>
       </c>
       <c r="S17" t="n">
-        <v>2.74</v>
+        <v>5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.6</v>
+        <v>2.02</v>
       </c>
       <c r="U17" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="V17" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="W17" t="n">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="X17" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="Y17" t="n">
-        <v>14.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AA17" t="n">
         <v>38</v>
       </c>
       <c r="AB17" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="AD17" t="n">
         <v>12</v>
       </c>
       <c r="AE17" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AR17" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>18</v>
       </c>
       <c r="AS17" t="n">
         <v>32</v>
       </c>
       <c r="AT17" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="AV17" t="n">
         <v>11</v>
       </c>
       <c r="AW17" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AX17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AZ17" t="n">
         <v>18</v>
       </c>
-      <c r="AY17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>13.5</v>
-      </c>
       <c r="BA17" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="BB17" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="BC17" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="BD17" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="BE17" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="BF17" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="BG17" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -3857,139 +3857,139 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Pharco FC</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="G18" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="H18" t="n">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="I18" t="n">
-        <v>2.58</v>
+        <v>2.34</v>
       </c>
       <c r="J18" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="K18" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="M18" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N18" t="n">
-        <v>2.92</v>
+        <v>2.66</v>
       </c>
       <c r="O18" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="P18" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.56</v>
+        <v>2.8</v>
       </c>
       <c r="R18" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S18" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="T18" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="U18" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="V18" t="n">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="W18" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="X18" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.6</v>
+        <v>7</v>
       </c>
       <c r="Z18" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AA18" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AB18" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
         <v>34</v>
       </c>
       <c r="AF18" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI18" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK18" t="n">
         <v>75</v>
       </c>
-      <c r="AK18" t="n">
-        <v>55</v>
-      </c>
       <c r="AL18" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AM18" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="AN18" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AO18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AP18" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AQ18" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="AR18" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AS18" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AT18" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AU18" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AV18" t="n">
         <v>11</v>
@@ -3998,38 +3998,38 @@
         <v>29</v>
       </c>
       <c r="AX18" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AY18" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ18" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="BA18" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="BB18" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="BC18" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="BD18" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="BE18" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="BF18" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="BG18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -4051,186 +4051,186 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Al Ahly Cairo</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Al-Masry</t>
+          <t>El Gounah</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.8</v>
+        <v>1.32</v>
       </c>
       <c r="G19" t="n">
-        <v>3.95</v>
+        <v>1.34</v>
       </c>
       <c r="H19" t="n">
-        <v>2.44</v>
+        <v>16</v>
       </c>
       <c r="I19" t="n">
-        <v>2.52</v>
+        <v>16.5</v>
       </c>
       <c r="J19" t="n">
-        <v>2.9</v>
+        <v>5.3</v>
       </c>
       <c r="K19" t="n">
-        <v>2.98</v>
+        <v>5.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.59</v>
+        <v>1.43</v>
       </c>
       <c r="M19" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>2.72</v>
+        <v>3.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>1.54</v>
+        <v>1.88</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.76</v>
+        <v>2.1</v>
       </c>
       <c r="R19" t="n">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="S19" t="n">
-        <v>5.7</v>
+        <v>3.85</v>
       </c>
       <c r="T19" t="n">
-        <v>2.1</v>
+        <v>2.58</v>
       </c>
       <c r="U19" t="n">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="V19" t="n">
-        <v>1.65</v>
+        <v>1.06</v>
       </c>
       <c r="W19" t="n">
-        <v>1.33</v>
+        <v>3.9</v>
       </c>
       <c r="X19" t="n">
-        <v>8.4</v>
+        <v>16</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.8</v>
+        <v>38</v>
       </c>
       <c r="Z19" t="n">
-        <v>14.5</v>
+        <v>150</v>
       </c>
       <c r="AA19" t="n">
-        <v>100</v>
+        <v>960</v>
       </c>
       <c r="AB19" t="n">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="AC19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>170</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>300</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>360</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>30</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>20</v>
+      </c>
+      <c r="BF19" t="n">
         <v>7</v>
       </c>
-      <c r="AD19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>44</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>190</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>500</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>210</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>600</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>42</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>50</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>20</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>24</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>70</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>11</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>10.5</v>
-      </c>
       <c r="BG19" t="n">
-        <v>9.199999999999999</v>
+        <v>18</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4245,186 +4245,186 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Al Ahly Cairo</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>El Gounah</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.37</v>
+        <v>2.26</v>
       </c>
       <c r="G20" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O20" t="n">
         <v>1.38</v>
       </c>
-      <c r="H20" t="n">
-        <v>12</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.37</v>
-      </c>
       <c r="P20" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U20" t="n">
         <v>2.1</v>
       </c>
-      <c r="R20" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP20" t="n">
         <v>1.62</v>
       </c>
-      <c r="V20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W20" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="X20" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>720</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>300</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>44</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>300</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AQ20" t="n">
-        <v>29</v>
+        <v>1.87</v>
       </c>
       <c r="AR20" t="n">
-        <v>36</v>
+        <v>1.58</v>
       </c>
       <c r="AS20" t="n">
-        <v>14.5</v>
+        <v>1.63</v>
       </c>
       <c r="AT20" t="n">
-        <v>5.7</v>
+        <v>2.06</v>
       </c>
       <c r="AU20" t="n">
-        <v>10.5</v>
+        <v>2.62</v>
       </c>
       <c r="AV20" t="n">
-        <v>23</v>
+        <v>1.65</v>
       </c>
       <c r="AW20" t="n">
-        <v>14.5</v>
+        <v>1.62</v>
       </c>
       <c r="AX20" t="n">
-        <v>6.2</v>
+        <v>1.8</v>
       </c>
       <c r="AY20" t="n">
-        <v>10</v>
+        <v>1.6</v>
       </c>
       <c r="AZ20" t="n">
-        <v>36</v>
+        <v>1.64</v>
       </c>
       <c r="BA20" t="n">
-        <v>15</v>
+        <v>1.63</v>
       </c>
       <c r="BB20" t="n">
-        <v>9.6</v>
+        <v>1.59</v>
       </c>
       <c r="BC20" t="n">
-        <v>16</v>
+        <v>1.55</v>
       </c>
       <c r="BD20" t="n">
-        <v>40</v>
+        <v>1.61</v>
       </c>
       <c r="BE20" t="n">
-        <v>18</v>
+        <v>4.7</v>
       </c>
       <c r="BF20" t="n">
-        <v>7.4</v>
+        <v>1.72</v>
       </c>
       <c r="BG20" t="n">
-        <v>15</v>
+        <v>1.58</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4434,184 +4434,184 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Rijeka</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.64</v>
+        <v>2.1</v>
       </c>
       <c r="G21" t="n">
-        <v>2.82</v>
+        <v>2.12</v>
       </c>
       <c r="H21" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="I21" t="n">
-        <v>3.15</v>
+        <v>4.3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
         <v>3.45</v>
       </c>
       <c r="L21" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="O21" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="P21" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="R21" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="S21" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="U21" t="n">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="V21" t="n">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="W21" t="n">
-        <v>1.55</v>
+        <v>1.89</v>
       </c>
       <c r="X21" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y21" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z21" t="n">
         <v>28</v>
       </c>
-      <c r="Z21" t="n">
-        <v>80</v>
-      </c>
       <c r="AA21" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="AB21" t="n">
-        <v>500</v>
+        <v>8</v>
       </c>
       <c r="AC21" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>70</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AT21" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AU21" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AV21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AW21" t="n">
-        <v>8.800000000000001</v>
+        <v>48</v>
       </c>
       <c r="AX21" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="AY21" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AZ21" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="BA21" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="BB21" t="n">
         <v>24</v>
       </c>
       <c r="BC21" t="n">
-        <v>8.4</v>
+        <v>21</v>
       </c>
       <c r="BD21" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="BE21" t="n">
-        <v>9.4</v>
+        <v>100</v>
       </c>
       <c r="BF21" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BG21" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -4633,179 +4633,179 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Jagiellonia Bialystock</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Rijeka</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.04</v>
+        <v>3.3</v>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>3.35</v>
       </c>
       <c r="H22" t="n">
-        <v>4.2</v>
+        <v>2.44</v>
       </c>
       <c r="I22" t="n">
-        <v>4.5</v>
+        <v>2.46</v>
       </c>
       <c r="J22" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.5</v>
       </c>
-      <c r="K22" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L22" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="M22" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="P22" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="R22" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="S22" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="U22" t="n">
-        <v>1.97</v>
+        <v>2.2</v>
       </c>
       <c r="V22" t="n">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="W22" t="n">
-        <v>1.9</v>
+        <v>1.43</v>
       </c>
       <c r="X22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB22" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AC22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG22" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AH22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>50</v>
+      </c>
+      <c r="BC22" t="n">
         <v>32</v>
       </c>
-      <c r="AA22" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>90</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AS22" t="n">
+      <c r="BD22" t="n">
+        <v>42</v>
+      </c>
+      <c r="BE22" t="n">
         <v>80</v>
       </c>
-      <c r="AT22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>60</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>21</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>21</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>38</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>100</v>
-      </c>
       <c r="BF22" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="BG22" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -4827,179 +4827,179 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jagiellonia Bialystock</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.05</v>
+        <v>5.6</v>
       </c>
       <c r="G23" t="n">
-        <v>3.1</v>
+        <v>5.7</v>
       </c>
       <c r="H23" t="n">
-        <v>2.56</v>
+        <v>1.78</v>
       </c>
       <c r="I23" t="n">
-        <v>2.6</v>
+        <v>1.79</v>
       </c>
       <c r="J23" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="K23" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="L23" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="P23" t="n">
-        <v>1.97</v>
+        <v>1.73</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.98</v>
+        <v>2.34</v>
       </c>
       <c r="R23" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="S23" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.74</v>
+        <v>2.14</v>
       </c>
       <c r="U23" t="n">
-        <v>2.28</v>
+        <v>1.82</v>
       </c>
       <c r="V23" t="n">
-        <v>1.62</v>
+        <v>2.26</v>
       </c>
       <c r="W23" t="n">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="X23" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="Z23" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AA23" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="AB23" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AF23" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AH23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>190</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>170</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AS23" t="n">
         <v>16.5</v>
       </c>
-      <c r="AI23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL23" t="n">
+      <c r="AT23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>36</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA23" t="n">
         <v>44</v>
       </c>
-      <c r="AM23" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>25</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>34</v>
-      </c>
       <c r="BB23" t="n">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="BC23" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="BD23" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="BE23" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="BF23" t="n">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="BG23" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -5021,186 +5021,186 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>KF Drita</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="G24" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="H24" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="I24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P24" t="n">
         <v>1.9</v>
       </c>
-      <c r="J24" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="Q24" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S24" t="n">
         <v>3.7</v>
       </c>
-      <c r="L24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N24" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S24" t="n">
-        <v>4.5</v>
-      </c>
       <c r="T24" t="n">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="U24" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="V24" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="W24" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="X24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP24" t="n">
         <v>12</v>
       </c>
-      <c r="Y24" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Z24" t="n">
+      <c r="AQ24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR24" t="n">
         <v>10</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>150</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>8.800000000000001</v>
       </c>
       <c r="AS24" t="n">
         <v>19.5</v>
       </c>
       <c r="AT24" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AU24" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AV24" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AW24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX24" t="n">
         <v>30</v>
       </c>
       <c r="AY24" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ24" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="BA24" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="BB24" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="BC24" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="BD24" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="BE24" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="BF24" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="BG24" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>UEFA Europa Conference League</t>
+          <t>UEFA Europa League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5215,179 +5215,179 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>KF Drita</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4.7</v>
+        <v>3.95</v>
       </c>
       <c r="G25" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="H25" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="I25" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="J25" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="K25" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="L25" t="n">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>3.65</v>
+        <v>6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="P25" t="n">
-        <v>1.87</v>
+        <v>2.62</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.08</v>
+        <v>1.6</v>
       </c>
       <c r="R25" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W25" t="n">
         <v>1.33</v>
       </c>
-      <c r="S25" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="V25" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.26</v>
-      </c>
       <c r="X25" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y25" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y25" t="n">
-        <v>8.6</v>
-      </c>
       <c r="Z25" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AA25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB25" t="n">
         <v>21</v>
       </c>
-      <c r="AB25" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AC25" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD25" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AF25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN25" t="n">
         <v>34</v>
       </c>
-      <c r="AG25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH25" t="n">
+      <c r="AO25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS25" t="n">
         <v>20</v>
       </c>
-      <c r="AI25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AT25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV25" t="n">
         <v>10</v>
       </c>
-      <c r="AS25" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AW25" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AX25" t="n">
         <v>30</v>
       </c>
       <c r="AY25" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="BA25" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="BB25" t="n">
         <v>65</v>
       </c>
       <c r="BC25" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="BD25" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="BE25" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="BF25" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="BG25" t="n">
-        <v>13</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -5409,179 +5409,179 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.9</v>
+        <v>2.74</v>
       </c>
       <c r="G26" t="n">
-        <v>3.95</v>
+        <v>2.76</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>2.94</v>
       </c>
       <c r="I26" t="n">
-        <v>2.02</v>
+        <v>2.98</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>5.9</v>
+        <v>3.7</v>
       </c>
       <c r="O26" t="n">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>2.58</v>
+        <v>1.91</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.62</v>
+        <v>2.06</v>
       </c>
       <c r="R26" t="n">
-        <v>1.65</v>
+        <v>1.34</v>
       </c>
       <c r="S26" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="T26" t="n">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="U26" t="n">
-        <v>2.68</v>
+        <v>2.2</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>1.52</v>
       </c>
       <c r="W26" t="n">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="X26" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="AB26" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="AF26" t="n">
-        <v>32</v>
+        <v>16.5</v>
       </c>
       <c r="AG26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>42</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AX26" t="n">
         <v>16</v>
       </c>
-      <c r="AH26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>22</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>30</v>
-      </c>
       <c r="AY26" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AZ26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA26" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="BB26" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="BC26" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="BD26" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="BE26" t="n">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="BF26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BG26" t="n">
-        <v>8.4</v>
+        <v>27</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -5603,179 +5603,179 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.86</v>
+        <v>1.58</v>
       </c>
       <c r="G27" t="n">
-        <v>2.9</v>
+        <v>1.59</v>
       </c>
       <c r="H27" t="n">
-        <v>2.82</v>
+        <v>6.4</v>
       </c>
       <c r="I27" t="n">
-        <v>2.88</v>
+        <v>6.6</v>
       </c>
       <c r="J27" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="K27" t="n">
-        <v>3.35</v>
+        <v>4.7</v>
       </c>
       <c r="L27" t="n">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="M27" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>3.45</v>
+        <v>5.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="P27" t="n">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="Q27" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U27" t="n">
         <v>2.16</v>
       </c>
-      <c r="R27" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S27" t="n">
-        <v>4</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2.12</v>
-      </c>
       <c r="V27" t="n">
-        <v>1.53</v>
+        <v>1.18</v>
       </c>
       <c r="W27" t="n">
-        <v>1.52</v>
+        <v>2.68</v>
       </c>
       <c r="X27" t="n">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="Y27" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC27" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z27" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AD27" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL27" t="n">
         <v>32</v>
       </c>
-      <c r="AF27" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>46</v>
-      </c>
       <c r="AM27" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN27" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>90</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>75</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>65</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD27" t="n">
         <v>30</v>
       </c>
-      <c r="AO27" t="n">
-        <v>32</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>40</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>30</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>42</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>40</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>30</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>42</v>
-      </c>
       <c r="BE27" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BF27" t="n">
-        <v>29</v>
+        <v>6.4</v>
       </c>
       <c r="BG27" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
@@ -5797,186 +5797,186 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.66</v>
+        <v>2.2</v>
       </c>
       <c r="G28" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P28" t="n">
         <v>1.67</v>
       </c>
-      <c r="H28" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="I28" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J28" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N28" t="n">
+      <c r="Q28" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S28" t="n">
         <v>4.8</v>
       </c>
-      <c r="O28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2.96</v>
-      </c>
       <c r="T28" t="n">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="U28" t="n">
-        <v>2.18</v>
+        <v>1.9</v>
       </c>
       <c r="V28" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="W28" t="n">
-        <v>2.48</v>
+        <v>1.82</v>
       </c>
       <c r="X28" t="n">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH28" t="n">
         <v>22</v>
       </c>
-      <c r="Z28" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA28" t="n">
+      <c r="AI28" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM28" t="n">
         <v>150</v>
       </c>
-      <c r="AB28" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>90</v>
-      </c>
       <c r="AN28" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="AO28" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AP28" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AQ28" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AS28" t="n">
         <v>80</v>
       </c>
       <c r="AT28" t="n">
-        <v>9.4</v>
+        <v>7.4</v>
       </c>
       <c r="AU28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV28" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="AW28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA28" t="n">
         <v>65</v>
       </c>
-      <c r="AX28" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>60</v>
-      </c>
       <c r="BB28" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="BC28" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="BD28" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="BE28" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="BF28" t="n">
-        <v>7.6</v>
+        <v>24</v>
       </c>
       <c r="BG28" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5986,191 +5986,191 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Sportivo San Lorenzo</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.32</v>
+        <v>3.05</v>
       </c>
       <c r="G29" t="n">
-        <v>2.34</v>
+        <v>3.15</v>
       </c>
       <c r="H29" t="n">
-        <v>3.7</v>
+        <v>2.62</v>
       </c>
       <c r="I29" t="n">
-        <v>3.75</v>
+        <v>2.74</v>
       </c>
       <c r="J29" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
         <v>3.35</v>
       </c>
       <c r="L29" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="M29" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O29" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P29" t="n">
         <v>1.65</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="R29" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S29" t="n">
         <v>4.9</v>
       </c>
       <c r="T29" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="U29" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="V29" t="n">
-        <v>1.36</v>
+        <v>1.58</v>
       </c>
       <c r="W29" t="n">
-        <v>1.74</v>
+        <v>1.46</v>
       </c>
       <c r="X29" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="Y29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z29" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB29" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC29" t="n">
         <v>7.8</v>
       </c>
-      <c r="AC29" t="n">
-        <v>7</v>
-      </c>
       <c r="AD29" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AF29" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH29" t="n">
         <v>22</v>
       </c>
       <c r="AI29" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="AJ29" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AK29" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AL29" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM29" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN29" t="n">
+        <v>500</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>500</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS29" t="n">
         <v>28</v>
       </c>
-      <c r="AO29" t="n">
-        <v>70</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>65</v>
-      </c>
       <c r="AT29" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AU29" t="n">
         <v>6.8</v>
       </c>
       <c r="AV29" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AW29" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AX29" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AY29" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="BA29" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="BB29" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="BC29" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BD29" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="BE29" t="n">
-        <v>110</v>
+        <v>11.5</v>
       </c>
       <c r="BF29" t="n">
-        <v>26</v>
+        <v>11.5</v>
       </c>
       <c r="BG29" t="n">
-        <v>60</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6180,191 +6180,191 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sportivo San Lorenzo</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.05</v>
+        <v>2.6</v>
       </c>
       <c r="G30" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K30" t="n">
         <v>3.15</v>
       </c>
-      <c r="H30" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.35</v>
-      </c>
       <c r="L30" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="M30" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N30" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P30" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R30" t="n">
         <v>1.23</v>
       </c>
       <c r="S30" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T30" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U30" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V30" t="n">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="W30" t="n">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="X30" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="Z30" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AA30" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AD30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV30" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE30" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK30" t="n">
+      <c r="AW30" t="n">
         <v>42</v>
       </c>
-      <c r="AL30" t="n">
+      <c r="AX30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>36</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>30</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE30" t="n">
         <v>100</v>
       </c>
-      <c r="AM30" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>48</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>500</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>36</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>30</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>16</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>34</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>38</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>28</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>38</v>
-      </c>
-      <c r="BE30" t="n">
-        <v>11</v>
-      </c>
       <c r="BF30" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="BG30" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6374,36 +6374,36 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.6</v>
+        <v>2.12</v>
       </c>
       <c r="G31" t="n">
-        <v>2.62</v>
+        <v>2.16</v>
       </c>
       <c r="H31" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K31" t="n">
         <v>3.35</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.15</v>
       </c>
       <c r="L31" t="n">
         <v>1.55</v>
@@ -6412,340 +6412,146 @@
         <v>1.12</v>
       </c>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="O31" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P31" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R31" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T31" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="U31" t="n">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="V31" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="W31" t="n">
-        <v>1.61</v>
+        <v>1.86</v>
       </c>
       <c r="X31" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>240</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>350</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>500</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>28</v>
+      </c>
+      <c r="AX31" t="n">
         <v>10</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="AY31" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>20</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>22</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>23</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF31" t="n">
         <v>21</v>
       </c>
-      <c r="AA31" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>60</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>55</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>42</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>50</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>36</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>30</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>50</v>
-      </c>
-      <c r="BE31" t="n">
-        <v>85</v>
-      </c>
-      <c r="BF31" t="n">
-        <v>32</v>
-      </c>
       <c r="BG31" t="n">
-        <v>50</v>
+        <v>9.4</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-19 15:49:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Paraguayan Primera Division</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2026-02-19</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Nacional (Par)</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Club Sportivo Ameliano</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="G32" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="H32" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I32" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="X32" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>230</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>27</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>600</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>9</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>16</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>28</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>9</v>
-      </c>
-      <c r="BE32" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="BF32" t="n">
-        <v>21</v>
-      </c>
-      <c r="BG32" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BH32" t="inlineStr">
-        <is>
-          <t>2026-02-19 15:49:54</t>
+          <t>2026-02-19 16:42:44</t>
         </is>
       </c>
     </row>
